--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$210</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="154">
   <si>
     <t>湖南</t>
   </si>
@@ -444,6 +444,42 @@
   </si>
   <si>
     <t>中医养生-20190415-邢总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1394</t>
+  </si>
+  <si>
+    <t>保险-20190416-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1395</t>
+  </si>
+  <si>
+    <t>期货-20190416-全国</t>
+  </si>
+  <si>
+    <t>dt1396</t>
+  </si>
+  <si>
+    <t>POS-20190416-推广页(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1397</t>
+  </si>
+  <si>
+    <t>汽车-20190416-邢总(陕西省)-1天</t>
+  </si>
+  <si>
+    <t>dt1398</t>
+  </si>
+  <si>
+    <t>消防教育-20190416-华总(上海、河南、河北、江苏、四川、山东、辽宁、吉林、内蒙古)-1天</t>
+  </si>
+  <si>
+    <t>dt1399</t>
+  </si>
+  <si>
+    <t>装修-20190415-李总(天津)-2天</t>
   </si>
 </sst>
 </file>
@@ -466,48 +502,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,15 +518,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,21 +551,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,7 +580,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,34 +632,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -619,7 +655,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,7 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,13 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,19 +715,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,25 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,25 +769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,19 +787,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,25 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,26 +864,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -863,6 +879,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -874,6 +923,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,32 +956,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,145 +969,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,16 +1488,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="H216" sqref="H216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="82.875" customWidth="1"/>
+    <col min="5" max="5" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -4796,246 +4832,586 @@
         <v>45472</v>
       </c>
     </row>
-    <row r="197" s="3" customFormat="1" spans="1:6">
+    <row r="197" s="2" customFormat="1" spans="1:6">
       <c r="A197" s="4">
         <v>43571</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F197" s="3">
+      <c r="F197" s="2">
         <v>1790</v>
       </c>
     </row>
-    <row r="198" s="3" customFormat="1" spans="1:6">
+    <row r="198" s="2" customFormat="1" spans="1:6">
       <c r="A198" s="4">
         <v>43571</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F198" s="3">
+      <c r="F198" s="2">
         <v>92780</v>
       </c>
     </row>
-    <row r="199" s="3" customFormat="1" spans="1:6">
+    <row r="199" s="2" customFormat="1" spans="1:6">
       <c r="A199" s="4">
         <v>43571</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D199" s="3" t="s">
+      <c r="B199" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F199" s="3">
+      <c r="F199" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="200" s="3" customFormat="1" spans="1:6">
+    <row r="200" s="2" customFormat="1" spans="1:6">
       <c r="A200" s="4">
         <v>43571</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D200" s="3" t="s">
+      <c r="B200" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F200" s="3">
+      <c r="F200" s="2">
         <v>1991</v>
       </c>
     </row>
-    <row r="201" s="3" customFormat="1" spans="1:6">
+    <row r="201" s="2" customFormat="1" spans="1:6">
       <c r="A201" s="4">
         <v>43571</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D201" s="3" t="s">
+      <c r="B201" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="2">
         <v>36308</v>
       </c>
     </row>
-    <row r="202" s="3" customFormat="1" spans="1:6">
+    <row r="202" s="2" customFormat="1" spans="1:6">
       <c r="A202" s="4">
         <v>43571</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D202" s="3" t="s">
+      <c r="B202" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F202" s="3">
+      <c r="F202" s="2">
         <v>16982</v>
       </c>
     </row>
-    <row r="203" s="3" customFormat="1" spans="1:6">
+    <row r="203" s="2" customFormat="1" spans="1:6">
       <c r="A203" s="4">
         <v>43571</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D203" s="3" t="s">
+      <c r="B203" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F203" s="3">
+      <c r="F203" s="2">
         <v>33354</v>
       </c>
     </row>
-    <row r="204" s="3" customFormat="1" spans="1:6">
+    <row r="204" s="2" customFormat="1" spans="1:6">
       <c r="A204" s="4">
         <v>43571</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D204" s="3" t="s">
+      <c r="B204" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F204" s="3">
+      <c r="F204" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="205" s="3" customFormat="1" spans="1:6">
+    <row r="205" s="2" customFormat="1" spans="1:6">
       <c r="A205" s="4">
         <v>43571</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D205" s="3" t="s">
+      <c r="B205" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F205" s="3">
+      <c r="F205" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="206" s="3" customFormat="1" spans="1:6">
+    <row r="206" s="2" customFormat="1" spans="1:6">
       <c r="A206" s="4">
         <v>43571</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D206" s="3" t="s">
+      <c r="B206" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F206" s="3">
+      <c r="F206" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="207" s="3" customFormat="1" spans="1:6">
+    <row r="207" s="2" customFormat="1" spans="1:6">
       <c r="A207" s="4">
         <v>43571</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D207" s="3" t="s">
+      <c r="B207" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F207" s="3">
+      <c r="F207" s="2">
         <v>9388</v>
       </c>
     </row>
-    <row r="208" s="3" customFormat="1" spans="1:6">
+    <row r="208" s="2" customFormat="1" spans="1:6">
       <c r="A208" s="4">
         <v>43571</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D208" s="3" t="s">
+      <c r="B208" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F208" s="3">
+      <c r="F208" s="2">
         <v>1290</v>
       </c>
     </row>
-    <row r="209" s="3" customFormat="1" spans="1:6">
+    <row r="209" s="2" customFormat="1" spans="1:6">
       <c r="A209" s="4">
         <v>43571</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D209" s="3" t="s">
+      <c r="B209" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F209" s="3">
+      <c r="F209" s="2">
         <v>1035</v>
       </c>
     </row>
-    <row r="210" s="3" customFormat="1" spans="1:6">
+    <row r="210" s="2" customFormat="1" spans="1:6">
       <c r="A210" s="4">
         <v>43571</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D210" s="3" t="s">
+      <c r="B210" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F210" s="3">
+      <c r="F210" s="2">
         <v>1051</v>
       </c>
     </row>
+    <row r="211" s="3" customFormat="1" spans="1:6">
+      <c r="A211" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F211" s="3">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="212" s="3" customFormat="1" spans="1:6">
+      <c r="A212" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F212" s="3">
+        <v>99479</v>
+      </c>
+    </row>
+    <row r="213" s="3" customFormat="1" spans="1:6">
+      <c r="A213" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F213" s="3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="214" s="3" customFormat="1" spans="1:6">
+      <c r="A214" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="215" s="3" customFormat="1" spans="1:6">
+      <c r="A215" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F215" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="216" s="3" customFormat="1" spans="1:6">
+      <c r="A216" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F216" s="3">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="217" s="3" customFormat="1" spans="1:6">
+      <c r="A217" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F217" s="3">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="218" s="3" customFormat="1" spans="1:6">
+      <c r="A218" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F218" s="3">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="219" s="3" customFormat="1" spans="1:6">
+      <c r="A219" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F219" s="3">
+        <v>32698</v>
+      </c>
+    </row>
+    <row r="220" s="3" customFormat="1" spans="1:6">
+      <c r="A220" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F220" s="3">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="221" s="3" customFormat="1" spans="1:6">
+      <c r="A221" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F221" s="3">
+        <v>15929</v>
+      </c>
+    </row>
+    <row r="222" s="3" customFormat="1" spans="1:6">
+      <c r="A222" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F222" s="3">
+        <v>30658</v>
+      </c>
+    </row>
+    <row r="223" s="3" customFormat="1" spans="1:6">
+      <c r="A223" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F223" s="3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="224" s="3" customFormat="1" spans="1:6">
+      <c r="A224" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F224" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="225" s="3" customFormat="1" spans="1:6">
+      <c r="A225" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F225" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="226" s="3" customFormat="1" spans="1:6">
+      <c r="A226" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F226" s="3">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="227" s="3" customFormat="1" spans="1:6">
+      <c r="A227" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F227" s="3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="228" s="3" customFormat="1" spans="1:6">
+      <c r="A228" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F228" s="3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="229" s="3" customFormat="1" spans="1:6">
+      <c r="A229" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F229" s="3">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="230" s="3" customFormat="1" spans="1:6">
+      <c r="A230" s="4">
+        <v>43572</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F230" s="3">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B196">
+  <autoFilter ref="B1:B210">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$230</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="154">
   <si>
     <t>湖南</t>
   </si>
@@ -487,11 +487,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -499,61 +499,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,7 +517,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,6 +532,51 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -595,15 +585,47 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,28 +645,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -655,13 +655,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,13 +739,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,13 +787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,67 +811,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,43 +835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +860,47 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,6 +938,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -911,56 +961,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -969,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,133 +981,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1488,16 +1488,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="H216" sqref="H216"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="A231" sqref="$A231:$XFD245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="78.5" customWidth="1"/>
+    <col min="5" max="5" width="89.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -5070,348 +5070,603 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="211" s="3" customFormat="1" spans="1:6">
+    <row r="211" s="2" customFormat="1" spans="1:6">
       <c r="A211" s="4">
         <v>43572</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D211" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F211" s="3">
+      <c r="F211" s="2">
         <v>2413</v>
       </c>
     </row>
-    <row r="212" s="3" customFormat="1" spans="1:6">
+    <row r="212" s="2" customFormat="1" spans="1:6">
       <c r="A212" s="4">
         <v>43572</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F212" s="3">
+      <c r="F212" s="2">
         <v>99479</v>
       </c>
     </row>
-    <row r="213" s="3" customFormat="1" spans="1:6">
+    <row r="213" s="2" customFormat="1" spans="1:6">
       <c r="A213" s="4">
         <v>43572</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="D213" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F213" s="3">
+      <c r="F213" s="2">
         <v>441</v>
       </c>
     </row>
-    <row r="214" s="3" customFormat="1" spans="1:6">
+    <row r="214" s="2" customFormat="1" spans="1:6">
       <c r="A214" s="4">
         <v>43572</v>
       </c>
-      <c r="B214" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D214" s="3" t="s">
+      <c r="B214" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F214" s="3">
+      <c r="F214" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="215" s="3" customFormat="1" spans="1:6">
+    <row r="215" s="2" customFormat="1" spans="1:6">
       <c r="A215" s="4">
         <v>43572</v>
       </c>
-      <c r="B215" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D215" s="3" t="s">
+      <c r="B215" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F215" s="3">
+      <c r="F215" s="2">
         <v>502</v>
       </c>
     </row>
-    <row r="216" s="3" customFormat="1" spans="1:6">
+    <row r="216" s="2" customFormat="1" spans="1:6">
       <c r="A216" s="4">
         <v>43572</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D216" s="3" t="s">
+      <c r="B216" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E216" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F216" s="3">
+      <c r="F216" s="2">
         <v>3895</v>
       </c>
     </row>
-    <row r="217" s="3" customFormat="1" spans="1:6">
+    <row r="217" s="2" customFormat="1" spans="1:6">
       <c r="A217" s="4">
         <v>43572</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D217" s="3" t="s">
+      <c r="B217" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F217" s="3">
+      <c r="F217" s="2">
         <v>2975</v>
       </c>
     </row>
-    <row r="218" s="3" customFormat="1" spans="1:6">
+    <row r="218" s="2" customFormat="1" spans="1:6">
       <c r="A218" s="4">
         <v>43572</v>
       </c>
-      <c r="B218" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D218" s="3" t="s">
+      <c r="B218" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F218" s="3">
+      <c r="F218" s="2">
         <v>2242</v>
       </c>
     </row>
-    <row r="219" s="3" customFormat="1" spans="1:6">
+    <row r="219" s="2" customFormat="1" spans="1:6">
       <c r="A219" s="4">
         <v>43572</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D219" s="3" t="s">
+      <c r="B219" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F219" s="3">
+      <c r="F219" s="2">
         <v>32698</v>
       </c>
     </row>
-    <row r="220" s="3" customFormat="1" spans="1:6">
+    <row r="220" s="2" customFormat="1" spans="1:6">
       <c r="A220" s="4">
         <v>43572</v>
       </c>
-      <c r="B220" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D220" s="3" t="s">
+      <c r="B220" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F220" s="3">
+      <c r="F220" s="2">
         <v>21500</v>
       </c>
     </row>
-    <row r="221" s="3" customFormat="1" spans="1:6">
+    <row r="221" s="2" customFormat="1" spans="1:6">
       <c r="A221" s="4">
         <v>43572</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D221" s="3" t="s">
+      <c r="B221" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F221" s="3">
+      <c r="F221" s="2">
         <v>15929</v>
       </c>
     </row>
-    <row r="222" s="3" customFormat="1" spans="1:6">
+    <row r="222" s="2" customFormat="1" spans="1:6">
       <c r="A222" s="4">
         <v>43572</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D222" s="3" t="s">
+      <c r="B222" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F222" s="3">
+      <c r="F222" s="2">
         <v>30658</v>
       </c>
     </row>
-    <row r="223" s="3" customFormat="1" spans="1:6">
+    <row r="223" s="2" customFormat="1" spans="1:6">
       <c r="A223" s="4">
         <v>43572</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D223" s="3" t="s">
+      <c r="B223" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F223" s="3">
+      <c r="F223" s="2">
         <v>478</v>
       </c>
     </row>
-    <row r="224" s="3" customFormat="1" spans="1:6">
+    <row r="224" s="2" customFormat="1" spans="1:6">
       <c r="A224" s="4">
         <v>43572</v>
       </c>
-      <c r="B224" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D224" s="3" t="s">
+      <c r="B224" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F224" s="3">
+      <c r="F224" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="225" s="3" customFormat="1" spans="1:6">
+    <row r="225" s="2" customFormat="1" spans="1:6">
       <c r="A225" s="4">
         <v>43572</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D225" s="3" t="s">
+      <c r="B225" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F225" s="3">
+      <c r="F225" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="226" s="3" customFormat="1" spans="1:6">
+    <row r="226" s="2" customFormat="1" spans="1:6">
       <c r="A226" s="4">
         <v>43572</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D226" s="3" t="s">
+      <c r="B226" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F226" s="3">
+      <c r="F226" s="2">
         <v>977</v>
       </c>
     </row>
-    <row r="227" s="3" customFormat="1" spans="1:6">
+    <row r="227" s="2" customFormat="1" spans="1:6">
       <c r="A227" s="4">
         <v>43572</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D227" s="3" t="s">
+      <c r="B227" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="E227" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F227" s="3">
+      <c r="F227" s="2">
         <v>633</v>
       </c>
     </row>
-    <row r="228" s="3" customFormat="1" spans="1:6">
+    <row r="228" s="2" customFormat="1" spans="1:6">
       <c r="A228" s="4">
         <v>43572</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D228" s="3" t="s">
+      <c r="B228" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E228" s="3" t="s">
+      <c r="E228" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F228" s="3">
+      <c r="F228" s="2">
         <v>263</v>
       </c>
     </row>
-    <row r="229" s="3" customFormat="1" spans="1:6">
+    <row r="229" s="2" customFormat="1" spans="1:6">
       <c r="A229" s="4">
         <v>43572</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D229" s="3" t="s">
+      <c r="B229" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E229" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F229" s="3">
+      <c r="F229" s="2">
         <v>1175</v>
       </c>
     </row>
-    <row r="230" s="3" customFormat="1" spans="1:6">
+    <row r="230" s="2" customFormat="1" spans="1:6">
       <c r="A230" s="4">
         <v>43572</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D230" s="3" t="s">
+      <c r="B230" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E230" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F230" s="3">
+      <c r="F230" s="2">
         <v>128</v>
       </c>
     </row>
+    <row r="231" s="3" customFormat="1" spans="1:6">
+      <c r="A231" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E231" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F231" s="3">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="232" s="3" customFormat="1" spans="1:6">
+      <c r="A232" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F232" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" s="3" customFormat="1" spans="1:6">
+      <c r="A233" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F233" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="234" s="3" customFormat="1" spans="1:6">
+      <c r="A234" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F234" s="3">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="235" s="3" customFormat="1" spans="1:6">
+      <c r="A235" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F235" s="3">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="236" s="3" customFormat="1" spans="1:6">
+      <c r="A236" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F236" s="3">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="237" s="3" customFormat="1" spans="1:6">
+      <c r="A237" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F237" s="3">
+        <v>30342</v>
+      </c>
+    </row>
+    <row r="238" s="3" customFormat="1" spans="1:6">
+      <c r="A238" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F238" s="3">
+        <v>23363</v>
+      </c>
+    </row>
+    <row r="239" s="3" customFormat="1" spans="1:6">
+      <c r="A239" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F239" s="3">
+        <v>14862</v>
+      </c>
+    </row>
+    <row r="240" s="3" customFormat="1" spans="1:6">
+      <c r="A240" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F240" s="3">
+        <v>29809</v>
+      </c>
+    </row>
+    <row r="241" s="3" customFormat="1" spans="1:6">
+      <c r="A241" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F241" s="3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="242" s="3" customFormat="1" spans="1:6">
+      <c r="A242" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F242" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" s="3" customFormat="1" spans="1:6">
+      <c r="A243" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F243" s="3">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="244" s="3" customFormat="1" spans="1:6">
+      <c r="A244" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F244" s="3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="245" s="3" customFormat="1" spans="1:6">
+      <c r="A245" s="4">
+        <v>43573</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F245" s="3">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B210">
+  <autoFilter ref="B1:B230">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$245</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="184">
   <si>
     <t>湖南</t>
   </si>
@@ -480,6 +480,96 @@
   </si>
   <si>
     <t>装修-20190415-李总(天津)-2天</t>
+  </si>
+  <si>
+    <t>dt1416</t>
+  </si>
+  <si>
+    <t>电信-比亚迪a-20190418-全国</t>
+  </si>
+  <si>
+    <t>dt1417</t>
+  </si>
+  <si>
+    <t>电信-比亚迪b-20190418-全国</t>
+  </si>
+  <si>
+    <t>dt1418</t>
+  </si>
+  <si>
+    <t>电信-配资-20190418-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1419</t>
+  </si>
+  <si>
+    <t>电信-POS推广-20190418-优化(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1420</t>
+  </si>
+  <si>
+    <t>电信-昌骏汽车-20190418-邢总(陕西省)-1天</t>
+  </si>
+  <si>
+    <t>dt1421</t>
+  </si>
+  <si>
+    <t>电信-成人教育-20190418-王总优化(湖南)-3天</t>
+  </si>
+  <si>
+    <t>dt1422</t>
+  </si>
+  <si>
+    <t>电信-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天</t>
+  </si>
+  <si>
+    <t>dt1430</t>
+  </si>
+  <si>
+    <t>配资-20190419-全国</t>
+  </si>
+  <si>
+    <t>dt1432</t>
+  </si>
+  <si>
+    <t>股票-20190419-湖南</t>
+  </si>
+  <si>
+    <t>dt1433</t>
+  </si>
+  <si>
+    <t>手机游戏-20190419-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1435</t>
+  </si>
+  <si>
+    <t>行业汇总-20190419-优化(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1436</t>
+  </si>
+  <si>
+    <t>POS-20190419-通用(全国)-7天</t>
+  </si>
+  <si>
+    <t>dt1437</t>
+  </si>
+  <si>
+    <t>餐饮培训-20190419-吴总(湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1438</t>
+  </si>
+  <si>
+    <t>成人教育-20190418-武总(江西、湖南、湖北、安徽)-1天</t>
+  </si>
+  <si>
+    <t>dt1439</t>
+  </si>
+  <si>
+    <t>汽车贸易-20190419-邢总(陕西省、青海省)-1天</t>
   </si>
 </sst>
 </file>
@@ -487,11 +577,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -499,6 +589,45 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,7 +646,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,74 +655,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,10 +677,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,16 +707,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,13 +745,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,109 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,13 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,13 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,17 +954,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -886,6 +965,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,25 +1023,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -946,21 +1051,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -969,10 +1059,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,133 +1071,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1488,4185 +1578,5104 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:E299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="A231" sqref="$A231:$XFD245"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="H244" sqref="H244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="89.875" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="90.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="4">
         <v>43556</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6">
+      <c r="E1" s="6">
         <v>1810</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="4">
         <v>43556</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6">
+      <c r="E2" s="6">
         <v>128</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="4">
         <v>43556</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="E3" s="6">
         <v>7491</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="4">
         <v>43557</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
         <v>3259</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="4">
         <v>43557</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="4">
         <v>43557</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E6" s="2">
         <v>9451</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
+    <row r="7" s="2" customFormat="1" spans="1:5">
       <c r="A7" s="4">
         <v>43557</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E7" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
+    <row r="8" s="2" customFormat="1" spans="1:5">
       <c r="A8" s="4">
         <v>43557</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E8" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
+    <row r="9" s="2" customFormat="1" spans="1:5">
       <c r="A9" s="4">
         <v>43557</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E9" s="2">
         <v>6181</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:6">
+    <row r="10" s="2" customFormat="1" spans="1:5">
       <c r="A10" s="4">
         <v>43557</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E10" s="2">
         <v>2293</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
+    <row r="11" s="2" customFormat="1" spans="1:5">
       <c r="A11" s="4">
         <v>43557</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2">
+      <c r="E11" s="2">
         <v>763</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
+    <row r="12" s="2" customFormat="1" spans="1:5">
       <c r="A12" s="4">
         <v>43557</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2">
+      <c r="E12" s="2">
         <v>8971</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:6">
+    <row r="13" s="2" customFormat="1" spans="1:5">
       <c r="A13" s="4">
         <v>43557</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2">
+      <c r="E13" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:6">
+    <row r="14" s="2" customFormat="1" spans="1:5">
       <c r="A14" s="4">
         <v>43557</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="2">
+      <c r="E14" s="2">
         <v>88136</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:6">
+    <row r="15" s="2" customFormat="1" spans="1:5">
       <c r="A15" s="4">
         <v>43557</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="2">
+      <c r="E15" s="2">
         <v>1319</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:6">
+    <row r="16" s="2" customFormat="1" spans="1:5">
       <c r="A16" s="4">
         <v>43557</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="2">
+      <c r="E16" s="2">
         <v>472</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
+    <row r="17" s="2" customFormat="1" spans="1:5">
       <c r="A17" s="4">
         <v>43557</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="2">
+      <c r="E17" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:6">
+    <row r="18" s="2" customFormat="1" spans="1:5">
       <c r="A18" s="4">
         <v>43557</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="2">
+      <c r="E18" s="2">
         <v>562</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
+    <row r="19" s="2" customFormat="1" spans="1:5">
       <c r="A19" s="4">
         <v>43557</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="2">
+      <c r="E19" s="2">
         <v>364</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:6">
+    <row r="20" s="2" customFormat="1" spans="1:5">
       <c r="A20" s="4">
         <v>43557</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="2">
+      <c r="E20" s="2">
         <v>920</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:6">
+    <row r="21" s="2" customFormat="1" spans="1:5">
       <c r="A21" s="4">
         <v>43557</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="2">
+      <c r="E21" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:6">
+    <row r="22" s="2" customFormat="1" spans="1:5">
       <c r="A22" s="4">
         <v>43558</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="2">
+      <c r="E22" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:6">
+    <row r="23" s="2" customFormat="1" spans="1:5">
       <c r="A23" s="4">
         <v>43558</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="2">
+      <c r="E23" s="2">
         <v>5543</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:6">
+    <row r="24" s="2" customFormat="1" spans="1:5">
       <c r="A24" s="4">
         <v>43558</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="2">
+      <c r="E24" s="2">
         <v>817</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:6">
+    <row r="25" s="2" customFormat="1" spans="1:5">
       <c r="A25" s="4">
         <v>43558</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="E25" s="2">
         <v>3720</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:6">
+    <row r="26" s="2" customFormat="1" spans="1:5">
       <c r="A26" s="4">
         <v>43558</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="2">
+      <c r="E26" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:6">
+    <row r="27" s="2" customFormat="1" spans="1:5">
       <c r="A27" s="4">
         <v>43558</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="2">
+      <c r="E27" s="2">
         <v>99629</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:6">
+    <row r="28" s="2" customFormat="1" spans="1:5">
       <c r="A28" s="4">
         <v>43558</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="2">
+      <c r="E28" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:6">
+    <row r="29" s="2" customFormat="1" spans="1:5">
       <c r="A29" s="4">
         <v>43558</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="2">
+      <c r="E29" s="2">
         <v>1271</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:6">
+    <row r="30" s="2" customFormat="1" spans="1:5">
       <c r="A30" s="4">
         <v>43558</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="2">
+      <c r="E30" s="2">
         <v>530</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:6">
+    <row r="31" s="2" customFormat="1" spans="1:5">
       <c r="A31" s="4">
         <v>43558</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="2">
+      <c r="E31" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:6">
+    <row r="32" s="2" customFormat="1" spans="1:5">
       <c r="A32" s="4">
         <v>43558</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="2">
+      <c r="E32" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:6">
+    <row r="33" s="2" customFormat="1" spans="1:5">
       <c r="A33" s="4">
         <v>43558</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="2">
+      <c r="E33" s="2">
         <v>896</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:6">
+    <row r="34" s="2" customFormat="1" spans="1:5">
       <c r="A34" s="4">
         <v>43558</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="2">
+      <c r="E34" s="2">
         <v>35618</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:6">
+    <row r="35" s="2" customFormat="1" spans="1:5">
       <c r="A35" s="4">
         <v>43558</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="2">
+      <c r="E35" s="2">
         <v>314</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:6">
+    <row r="36" s="2" customFormat="1" spans="1:5">
       <c r="A36" s="4">
         <v>43558</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="2">
+      <c r="E36" s="2">
         <v>3105</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:6">
+    <row r="37" s="2" customFormat="1" spans="1:5">
       <c r="A37" s="4">
         <v>43559</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="2">
+      <c r="E37" s="2">
         <v>2344</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:6">
+    <row r="38" s="2" customFormat="1" spans="1:5">
       <c r="A38" s="4">
         <v>43559</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="2">
+      <c r="E38" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:6">
+    <row r="39" s="2" customFormat="1" spans="1:5">
       <c r="A39" s="4">
         <v>43559</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="2">
+      <c r="E39" s="2">
         <v>5371</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:6">
+    <row r="40" s="2" customFormat="1" spans="1:5">
       <c r="A40" s="4">
         <v>43559</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="2">
+      <c r="E40" s="2">
         <v>722</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:6">
+    <row r="41" s="2" customFormat="1" spans="1:5">
       <c r="A41" s="4">
         <v>43559</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="2">
+      <c r="E41" s="2">
         <v>3276</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:6">
+    <row r="42" s="2" customFormat="1" spans="1:5">
       <c r="A42" s="4">
         <v>43559</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="2">
+      <c r="E42" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:6">
+    <row r="43" s="2" customFormat="1" spans="1:5">
       <c r="A43" s="4">
         <v>43559</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="2">
+      <c r="E43" s="2">
         <v>99732</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:6">
+    <row r="44" s="2" customFormat="1" spans="1:5">
       <c r="A44" s="4">
         <v>43559</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="2">
+      <c r="E44" s="2">
         <v>7175</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:6">
+    <row r="45" s="2" customFormat="1" spans="1:5">
       <c r="A45" s="4">
         <v>43559</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="2">
+      <c r="E45" s="2">
         <v>588</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:6">
+    <row r="46" s="2" customFormat="1" spans="1:5">
       <c r="A46" s="4">
         <v>43559</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C46" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="2">
+      <c r="E46" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:6">
+    <row r="47" s="2" customFormat="1" spans="1:5">
       <c r="A47" s="4">
         <v>43559</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="2">
+      <c r="E47" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:6">
+    <row r="48" s="2" customFormat="1" spans="1:5">
       <c r="A48" s="4">
         <v>43559</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C48" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="2">
+      <c r="E48" s="2">
         <v>306</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:6">
+    <row r="49" s="2" customFormat="1" spans="1:5">
       <c r="A49" s="4">
         <v>43559</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C49" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="2">
+      <c r="E49" s="2">
         <v>70517</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:6">
+    <row r="50" s="2" customFormat="1" spans="1:5">
       <c r="A50" s="4">
         <v>43559</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C50" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="2">
+      <c r="E50" s="2">
         <v>99585</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:6">
+    <row r="51" s="2" customFormat="1" spans="1:5">
       <c r="A51" s="4">
         <v>43559</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F51" s="2">
+      <c r="E51" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:6">
+    <row r="52" s="2" customFormat="1" spans="1:5">
       <c r="A52" s="4">
         <v>43560</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="2">
+      <c r="E52" s="2">
         <v>1717</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:6">
+    <row r="53" s="2" customFormat="1" spans="1:5">
       <c r="A53" s="4">
         <v>43560</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="2">
+      <c r="E53" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:6">
+    <row r="54" s="2" customFormat="1" spans="1:5">
       <c r="A54" s="4">
         <v>43560</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="2">
+      <c r="E54" s="2">
         <v>5525</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:6">
+    <row r="55" s="2" customFormat="1" spans="1:5">
       <c r="A55" s="4">
         <v>43560</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="2">
+      <c r="E55" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:6">
+    <row r="56" s="2" customFormat="1" spans="1:5">
       <c r="A56" s="4">
         <v>43560</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="D56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="2">
+      <c r="E56" s="2">
         <v>2628</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:6">
+    <row r="57" s="2" customFormat="1" spans="1:5">
       <c r="A57" s="4">
         <v>43560</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="2">
+      <c r="E57" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:6">
+    <row r="58" s="2" customFormat="1" spans="1:5">
       <c r="A58" s="4">
         <v>43560</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F58" s="2">
+      <c r="E58" s="2">
         <v>99727</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:6">
+    <row r="59" s="2" customFormat="1" spans="1:5">
       <c r="A59" s="4">
         <v>43560</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C59" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="2">
+      <c r="E59" s="2">
         <v>755</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:6">
+    <row r="60" s="2" customFormat="1" spans="1:5">
       <c r="A60" s="4">
         <v>43560</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C60" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F60" s="2">
+      <c r="E60" s="2">
         <v>291</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:6">
+    <row r="61" s="2" customFormat="1" spans="1:5">
       <c r="A61" s="4">
         <v>43560</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C61" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F61" s="2">
+      <c r="E61" s="2">
         <v>2644</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:6">
+    <row r="62" s="2" customFormat="1" spans="1:5">
       <c r="A62" s="4">
         <v>43560</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C62" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D62" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F62" s="2">
+      <c r="E62" s="2">
         <v>60145</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:6">
+    <row r="63" s="2" customFormat="1" spans="1:5">
       <c r="A63" s="4">
         <v>43560</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C63" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F63" s="2">
+      <c r="E63" s="2">
         <v>2250</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" spans="1:6">
+    <row r="64" s="2" customFormat="1" spans="1:5">
       <c r="A64" s="4">
         <v>43560</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C64" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="2">
+      <c r="E64" s="2">
         <v>1490</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" spans="1:6">
+    <row r="65" s="2" customFormat="1" spans="1:5">
       <c r="A65" s="4">
         <v>43560</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C65" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D65" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F65" s="2">
+      <c r="E65" s="2">
         <v>10086</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" spans="1:6">
+    <row r="66" s="2" customFormat="1" spans="1:5">
       <c r="A66" s="4">
         <v>43560</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C66" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D66" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E66" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="2">
+      <c r="E66" s="2">
         <v>8673</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" spans="1:6">
+    <row r="67" s="2" customFormat="1" spans="1:5">
       <c r="A67" s="4">
         <v>43560</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C67" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D67" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F67" s="2">
+      <c r="E67" s="2">
         <v>61581</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" spans="1:6">
+    <row r="68" s="2" customFormat="1" spans="1:5">
       <c r="A68" s="4">
         <v>43560</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F68" s="2">
+      <c r="E68" s="2">
         <v>2167</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:6">
+    <row r="69" s="2" customFormat="1" spans="1:5">
       <c r="A69" s="4">
         <v>43560</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="2">
+      <c r="E69" s="2">
         <v>4771</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" spans="1:6">
+    <row r="70" s="2" customFormat="1" spans="1:5">
       <c r="A70" s="4">
         <v>43560</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C70" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D70" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F70" s="2">
+      <c r="E70" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:6">
+    <row r="71" s="2" customFormat="1" spans="1:5">
       <c r="A71" s="4">
         <v>43561</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="2">
+      <c r="E71" s="2">
         <v>1974</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:6">
+    <row r="72" s="2" customFormat="1" spans="1:5">
       <c r="A72" s="4">
         <v>43561</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="2">
+      <c r="E72" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" spans="1:6">
+    <row r="73" s="2" customFormat="1" spans="1:5">
       <c r="A73" s="4">
         <v>43561</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="D73" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="2">
+      <c r="E73" s="2">
         <v>177</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" spans="1:6">
+    <row r="74" s="2" customFormat="1" spans="1:5">
       <c r="A74" s="4">
         <v>43561</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="2">
+      <c r="E74" s="2">
         <v>1459</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" spans="1:6">
+    <row r="75" s="2" customFormat="1" spans="1:5">
       <c r="A75" s="4">
         <v>43561</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="2">
+      <c r="E75" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" spans="1:6">
+    <row r="76" s="2" customFormat="1" spans="1:5">
       <c r="A76" s="4">
         <v>43561</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C76" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D76" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F76" s="2">
+      <c r="E76" s="2">
         <v>909</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" spans="1:6">
+    <row r="77" s="2" customFormat="1" spans="1:5">
       <c r="A77" s="4">
         <v>43561</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C77" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D77" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F77" s="2">
+      <c r="E77" s="2">
         <v>326</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="1:6">
+    <row r="78" s="2" customFormat="1" spans="1:5">
       <c r="A78" s="4">
         <v>43561</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C78" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F78" s="2">
+      <c r="E78" s="2">
         <v>2731</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" spans="1:6">
+    <row r="79" s="2" customFormat="1" spans="1:5">
       <c r="A79" s="4">
         <v>43561</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C79" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D79" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E79" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F79" s="2">
+      <c r="E79" s="2">
         <v>28625</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" spans="1:6">
+    <row r="80" s="2" customFormat="1" spans="1:5">
       <c r="A80" s="4">
         <v>43561</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C80" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="2">
+      <c r="E80" s="2">
         <v>2379</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" spans="1:6">
+    <row r="81" s="2" customFormat="1" spans="1:5">
       <c r="A81" s="4">
         <v>43561</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C81" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D81" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F81" s="2">
+      <c r="E81" s="2">
         <v>1662</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" spans="1:6">
+    <row r="82" s="2" customFormat="1" spans="1:5">
       <c r="A82" s="4">
         <v>43561</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="2">
+      <c r="E82" s="2">
         <v>3868</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" spans="1:6">
+    <row r="83" s="2" customFormat="1" spans="1:5">
       <c r="A83" s="4">
         <v>43562</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F83" s="2">
+      <c r="E83" s="2">
         <v>3590</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" spans="1:6">
+    <row r="84" s="2" customFormat="1" spans="1:5">
       <c r="A84" s="4">
         <v>43562</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="2">
+      <c r="E84" s="2">
         <v>2061</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" spans="1:6">
+    <row r="85" s="2" customFormat="1" spans="1:5">
       <c r="A85" s="4">
         <v>43562</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="D85" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F85" s="2">
+      <c r="E85" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" spans="1:6">
+    <row r="86" s="2" customFormat="1" spans="1:5">
       <c r="A86" s="4">
         <v>43562</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F86" s="2">
+      <c r="E86" s="2">
         <v>973</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" spans="1:6">
+    <row r="87" s="2" customFormat="1" spans="1:5">
       <c r="A87" s="4">
         <v>43562</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C87" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D87" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F87" s="2">
+      <c r="E87" s="2">
         <v>949</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" spans="1:6">
+    <row r="88" s="2" customFormat="1" spans="1:5">
       <c r="A88" s="4">
         <v>43562</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C88" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D88" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E88" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F88" s="2">
+      <c r="E88" s="2">
         <v>2927</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" spans="1:6">
+    <row r="89" s="2" customFormat="1" spans="1:5">
       <c r="A89" s="4">
         <v>43562</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C89" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D89" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="2">
+      <c r="E89" s="2">
         <v>2713</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" spans="1:6">
+    <row r="90" s="2" customFormat="1" spans="1:5">
       <c r="A90" s="4">
         <v>43563</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="D90" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F90" s="2">
+      <c r="E90" s="2">
         <v>3311</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" spans="1:6">
+    <row r="91" s="2" customFormat="1" spans="1:5">
       <c r="A91" s="4">
         <v>43563</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="D91" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F91" s="2">
+      <c r="E91" s="2">
         <v>795</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" spans="1:6">
+    <row r="92" s="2" customFormat="1" spans="1:5">
       <c r="A92" s="4">
         <v>43563</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C92" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D92" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E92" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F92" s="2">
+      <c r="E92" s="2">
         <v>3045</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:5">
       <c r="A93" s="4">
         <v>43564</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="2">
+      <c r="E93" s="2">
         <v>2069</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:5">
       <c r="A94" s="4">
         <v>43564</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="D94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="2">
+      <c r="E94" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:5">
       <c r="A95" s="4">
         <v>43564</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="D95" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F95" s="2">
+      <c r="E95" s="2">
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:5">
       <c r="A96" s="4">
         <v>43564</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="D96" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F96" s="2">
+      <c r="E96" s="2">
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:5">
       <c r="A97" s="4">
         <v>43564</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F97" s="2">
+      <c r="E97" s="2">
         <v>2439</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:5">
       <c r="A98" s="4">
         <v>43564</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="D98" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F98" s="2">
+      <c r="E98" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:5">
       <c r="A99" s="4">
         <v>43564</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C99" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D99" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F99" s="2">
+      <c r="E99" s="2">
         <v>929</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:5">
       <c r="A100" s="4">
         <v>43564</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C100" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D100" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F100" s="2">
+      <c r="E100" s="2">
         <v>414</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:5">
       <c r="A101" s="4">
         <v>43564</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C101" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D101" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E101" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F101" s="2">
+      <c r="E101" s="2">
         <v>3009</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:5">
       <c r="A102" s="4">
         <v>43564</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C102" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D102" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E102" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F102" s="2">
+      <c r="E102" s="2">
         <v>52145</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:5">
       <c r="A103" s="4">
         <v>43564</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C103" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D103" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E103" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F103" s="2">
+      <c r="E103" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:5">
       <c r="A104" s="4">
         <v>43564</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C104" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D104" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E104" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F104" s="2">
+      <c r="E104" s="2">
         <v>1143</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:5">
       <c r="A105" s="4">
         <v>43564</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C105" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D105" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E105" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F105" s="2">
+      <c r="E105" s="2">
         <v>45159</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:5">
       <c r="A106" s="4">
         <v>43564</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C106" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D106" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E106" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F106" s="2">
+      <c r="E106" s="2">
         <v>23215</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:5">
       <c r="A107" s="4">
         <v>43564</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C107" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D107" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E107" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F107" s="2">
+      <c r="E107" s="2">
         <v>20310</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="1" spans="1:6">
+    <row r="108" s="2" customFormat="1" spans="1:5">
       <c r="A108" s="4">
         <v>43565</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="D108" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="2">
+      <c r="E108" s="2">
         <v>2035</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" spans="1:6">
+    <row r="109" s="2" customFormat="1" spans="1:5">
       <c r="A109" s="4">
         <v>43565</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="D109" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F109" s="2">
+      <c r="E109" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" spans="1:6">
+    <row r="110" s="2" customFormat="1" spans="1:5">
       <c r="A110" s="4">
         <v>43565</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="D110" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F110" s="2">
+      <c r="E110" s="2">
         <v>1496</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" spans="1:6">
+    <row r="111" s="2" customFormat="1" spans="1:5">
       <c r="A111" s="4">
         <v>43565</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="D111" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F111" s="2">
+      <c r="E111" s="2">
         <v>2985</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" spans="1:6">
+    <row r="112" s="2" customFormat="1" spans="1:5">
       <c r="A112" s="4">
         <v>43565</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="D112" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F112" s="2">
+      <c r="E112" s="2">
         <v>199</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" spans="1:6">
+    <row r="113" s="2" customFormat="1" spans="1:5">
       <c r="A113" s="4">
         <v>43565</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="D113" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F113" s="2">
+      <c r="E113" s="2">
         <v>289</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" spans="1:6">
+    <row r="114" s="2" customFormat="1" spans="1:5">
       <c r="A114" s="4">
         <v>43565</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="D114" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F114" s="2">
+      <c r="E114" s="2">
         <v>2322</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="1" spans="1:6">
+    <row r="115" s="2" customFormat="1" spans="1:5">
       <c r="A115" s="4">
         <v>43565</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="D115" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F115" s="2">
+      <c r="E115" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" spans="1:6">
+    <row r="116" s="2" customFormat="1" spans="1:5">
       <c r="A116" s="4">
         <v>43565</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C116" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D116" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E116" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F116" s="2">
+      <c r="E116" s="2">
         <v>887</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" spans="1:6">
+    <row r="117" s="2" customFormat="1" spans="1:5">
       <c r="A117" s="4">
         <v>43565</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C117" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E117" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F117" s="2">
+      <c r="E117" s="2">
         <v>432</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" spans="1:6">
+    <row r="118" s="2" customFormat="1" spans="1:5">
       <c r="A118" s="4">
         <v>43565</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C118" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D118" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E118" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F118" s="2">
+      <c r="E118" s="2">
         <v>2662</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:6">
+    <row r="119" s="2" customFormat="1" spans="1:5">
       <c r="A119" s="4">
         <v>43565</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C119" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D119" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E119" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F119" s="2">
+      <c r="E119" s="2">
         <v>53351</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" spans="1:6">
+    <row r="120" s="2" customFormat="1" spans="1:5">
       <c r="A120" s="4">
         <v>43565</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C120" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D120" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E120" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F120" s="2">
+      <c r="E120" s="2">
         <v>2550</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" spans="1:6">
+    <row r="121" s="2" customFormat="1" spans="1:5">
       <c r="A121" s="4">
         <v>43565</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C121" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D121" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E121" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F121" s="2">
+      <c r="E121" s="2">
         <v>1139</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" spans="1:6">
+    <row r="122" s="2" customFormat="1" spans="1:5">
       <c r="A122" s="4">
         <v>43565</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C122" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D122" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E122" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F122" s="2">
+      <c r="E122" s="2">
         <v>45264</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" spans="1:6">
+    <row r="123" s="2" customFormat="1" spans="1:5">
       <c r="A123" s="4">
         <v>43565</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C123" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D123" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E123" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F123" s="2">
+      <c r="E123" s="2">
         <v>19652</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" spans="1:6">
+    <row r="124" s="2" customFormat="1" spans="1:5">
       <c r="A124" s="4">
         <v>43565</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C124" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D124" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E124" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F124" s="2">
+      <c r="E124" s="2">
         <v>50152</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" spans="1:6">
+    <row r="125" s="2" customFormat="1" spans="1:5">
       <c r="A125" s="4">
         <v>43565</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C125" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D125" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E125" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F125" s="2">
+      <c r="E125" s="2">
         <v>376</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" spans="1:6">
+    <row r="126" s="2" customFormat="1" spans="1:5">
       <c r="A126" s="4">
         <v>43565</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C126" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D126" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E126" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F126" s="2">
+      <c r="E126" s="2">
         <v>37650</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" spans="1:6">
+    <row r="127" s="2" customFormat="1" spans="1:5">
       <c r="A127" s="4">
         <v>43565</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C127" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D127" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E127" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F127" s="2">
+      <c r="E127" s="2">
         <v>2368</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" spans="1:6">
+    <row r="128" s="2" customFormat="1" spans="1:5">
       <c r="A128" s="4">
         <v>43565</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C128" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D128" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E128" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="2">
+      <c r="E128" s="2">
         <v>2396</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" spans="1:6">
+    <row r="129" s="2" customFormat="1" spans="1:5">
       <c r="A129" s="4">
         <v>43566</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="D129" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F129" s="2">
+      <c r="E129" s="2">
         <v>1881</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" spans="1:6">
+    <row r="130" s="2" customFormat="1" spans="1:5">
       <c r="A130" s="4">
         <v>43566</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="D130" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F130" s="2">
+      <c r="E130" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" spans="1:6">
+    <row r="131" s="2" customFormat="1" spans="1:5">
       <c r="A131" s="4">
         <v>43566</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="D131" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F131" s="2">
+      <c r="E131" s="2">
         <v>1617</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" spans="1:6">
+    <row r="132" s="2" customFormat="1" spans="1:5">
       <c r="A132" s="4">
         <v>43566</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="D132" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F132" s="2">
+      <c r="E132" s="2">
         <v>2619</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="1" spans="1:6">
+    <row r="133" s="2" customFormat="1" spans="1:5">
       <c r="A133" s="4">
         <v>43566</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="D133" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F133" s="2">
+      <c r="E133" s="2">
         <v>205</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="1" spans="1:6">
+    <row r="134" s="2" customFormat="1" spans="1:5">
       <c r="A134" s="4">
         <v>43566</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="D134" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F134" s="2">
+      <c r="E134" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" spans="1:6">
+    <row r="135" s="2" customFormat="1" spans="1:5">
       <c r="A135" s="4">
         <v>43566</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="D135" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F135" s="2">
+      <c r="E135" s="2">
         <v>2353</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" spans="1:6">
+    <row r="136" s="2" customFormat="1" spans="1:5">
       <c r="A136" s="4">
         <v>43566</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C136" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D136" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E136" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F136" s="2">
+      <c r="E136" s="2">
         <v>2419</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="1" spans="1:6">
+    <row r="137" s="2" customFormat="1" spans="1:5">
       <c r="A137" s="4">
         <v>43566</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C137" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D137" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E137" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F137" s="2">
+      <c r="E137" s="2">
         <v>1172</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="1" spans="1:6">
+    <row r="138" s="2" customFormat="1" spans="1:5">
       <c r="A138" s="4">
         <v>43566</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C138" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D138" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E138" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F138" s="2">
+      <c r="E138" s="2">
         <v>43486</v>
       </c>
     </row>
-    <row r="139" s="2" customFormat="1" spans="1:6">
+    <row r="139" s="2" customFormat="1" spans="1:5">
       <c r="A139" s="4">
         <v>43566</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C139" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D139" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E139" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F139" s="2">
+      <c r="E139" s="2">
         <v>26726</v>
       </c>
     </row>
-    <row r="140" s="2" customFormat="1" spans="1:6">
+    <row r="140" s="2" customFormat="1" spans="1:5">
       <c r="A140" s="4">
         <v>43566</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C140" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D140" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E140" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F140" s="2">
+      <c r="E140" s="2">
         <v>19723</v>
       </c>
     </row>
-    <row r="141" s="2" customFormat="1" spans="1:6">
+    <row r="141" s="2" customFormat="1" spans="1:5">
       <c r="A141" s="4">
         <v>43566</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C141" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D141" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E141" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F141" s="2">
+      <c r="E141" s="2">
         <v>375</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="1" spans="1:6">
+    <row r="142" s="2" customFormat="1" spans="1:5">
       <c r="A142" s="4">
         <v>43566</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C142" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D142" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E142" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F142" s="2">
+      <c r="E142" s="2">
         <v>38569</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="1" spans="1:6">
+    <row r="143" s="2" customFormat="1" spans="1:5">
       <c r="A143" s="4">
         <v>43566</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C143" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D143" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E143" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F143" s="2">
+      <c r="E143" s="2">
         <v>2118</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="1" spans="1:6">
+    <row r="144" s="2" customFormat="1" spans="1:5">
       <c r="A144" s="4">
         <v>43566</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C144" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D144" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E144" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F144" s="2">
+      <c r="E144" s="2">
         <v>37368</v>
       </c>
     </row>
-    <row r="145" s="2" customFormat="1" spans="1:6">
+    <row r="145" s="2" customFormat="1" spans="1:5">
       <c r="A145" s="4">
         <v>43566</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C145" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D145" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E145" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F145" s="2">
+      <c r="E145" s="2">
         <v>64359</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="1" spans="1:6">
+    <row r="146" s="2" customFormat="1" spans="1:5">
       <c r="A146" s="4">
         <v>43566</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C146" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D146" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E146" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F146" s="2">
+      <c r="E146" s="2">
         <v>15313</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="1" spans="1:6">
+    <row r="147" s="2" customFormat="1" spans="1:5">
       <c r="A147" s="4">
         <v>43566</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C147" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D147" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E147" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F147" s="2">
+      <c r="E147" s="2">
         <v>99472</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="1" spans="1:6">
+    <row r="148" s="2" customFormat="1" spans="1:5">
       <c r="A148" s="4">
         <v>43566</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C148" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D148" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E148" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F148" s="2">
+      <c r="E148" s="2">
         <v>617</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" spans="1:6">
+    <row r="149" s="2" customFormat="1" spans="1:5">
       <c r="A149" s="4">
         <v>43566</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C149" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="D149" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E149" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F149" s="2">
+      <c r="E149" s="2">
         <v>208</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="1" spans="1:6">
+    <row r="150" s="2" customFormat="1" spans="1:5">
       <c r="A150" s="4">
         <v>43566</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C150" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D150" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E150" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F150" s="2">
+      <c r="E150" s="2">
         <v>8567</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="1" spans="1:6">
+    <row r="151" s="2" customFormat="1" spans="1:5">
       <c r="A151" s="4">
         <v>43566</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C151" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="D151" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E151" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F151" s="2">
+      <c r="E151" s="2">
         <v>15030</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="1" spans="1:6">
+    <row r="152" s="2" customFormat="1" spans="1:5">
       <c r="A152" s="4">
         <v>43566</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C152" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D152" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E152" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F152" s="2">
+      <c r="E152" s="2">
         <v>37679</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="1" spans="1:6">
+    <row r="153" s="2" customFormat="1" spans="1:5">
       <c r="A153" s="4">
         <v>43567</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C153" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D153" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E153" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F153" s="2">
+      <c r="E153" s="2">
         <v>2324</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" spans="1:6">
+    <row r="154" s="2" customFormat="1" spans="1:5">
       <c r="A154" s="4">
         <v>43567</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C154" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="D154" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E154" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F154" s="2">
+      <c r="E154" s="2">
         <v>1881</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="1" spans="1:6">
+    <row r="155" s="2" customFormat="1" spans="1:5">
       <c r="A155" s="4">
         <v>43567</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C155" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D155" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E155" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F155" s="2">
+      <c r="E155" s="2">
         <v>3917</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" spans="1:6">
+    <row r="156" s="2" customFormat="1" spans="1:5">
       <c r="A156" s="4">
         <v>43567</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C156" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D156" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E156" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F156" s="2">
+      <c r="E156" s="2">
         <v>4100</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="1" spans="1:6">
+    <row r="157" s="2" customFormat="1" spans="1:5">
       <c r="A157" s="4">
         <v>43567</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="D157" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F157" s="2">
+      <c r="E157" s="2">
         <v>4617</v>
       </c>
     </row>
-    <row r="158" s="2" customFormat="1" spans="1:6">
+    <row r="158" s="2" customFormat="1" spans="1:5">
       <c r="A158" s="4">
         <v>43567</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="D158" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F158" s="2">
+      <c r="E158" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="1" spans="1:6">
+    <row r="159" s="2" customFormat="1" spans="1:5">
       <c r="A159" s="4">
         <v>43567</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="D159" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F159" s="2">
+      <c r="E159" s="2">
         <v>1414</v>
       </c>
     </row>
-    <row r="160" s="2" customFormat="1" spans="1:6">
+    <row r="160" s="2" customFormat="1" spans="1:5">
       <c r="A160" s="4">
         <v>43567</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="D160" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F160" s="2">
+      <c r="E160" s="2">
         <v>3736</v>
       </c>
     </row>
-    <row r="161" s="2" customFormat="1" spans="1:6">
+    <row r="161" s="2" customFormat="1" spans="1:5">
       <c r="A161" s="4">
         <v>43567</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="D161" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F161" s="2">
+      <c r="E161" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="162" s="2" customFormat="1" spans="1:6">
+    <row r="162" s="2" customFormat="1" spans="1:5">
       <c r="A162" s="4">
         <v>43567</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="D162" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F162" s="2">
+      <c r="E162" s="2">
         <v>239</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="1" spans="1:6">
+    <row r="163" s="2" customFormat="1" spans="1:5">
       <c r="A163" s="4">
         <v>43567</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E163" s="8" t="s">
+      <c r="D163" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F163" s="2">
+      <c r="E163" s="2">
         <v>2835</v>
       </c>
     </row>
-    <row r="164" s="2" customFormat="1" spans="1:6">
+    <row r="164" s="2" customFormat="1" spans="1:5">
       <c r="A164" s="4">
         <v>43567</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="D164" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F164" s="2">
+      <c r="E164" s="2">
         <v>2559</v>
       </c>
     </row>
-    <row r="165" s="2" customFormat="1" spans="1:6">
+    <row r="165" s="2" customFormat="1" spans="1:5">
       <c r="A165" s="4">
         <v>43567</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C165" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D165" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E165" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F165" s="2">
+      <c r="E165" s="2">
         <v>39376</v>
       </c>
     </row>
-    <row r="166" s="2" customFormat="1" spans="1:6">
+    <row r="166" s="2" customFormat="1" spans="1:5">
       <c r="A166" s="4">
         <v>43567</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C166" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D166" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E166" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F166" s="2">
+      <c r="E166" s="2">
         <v>23321</v>
       </c>
     </row>
-    <row r="167" s="2" customFormat="1" spans="1:6">
+    <row r="167" s="2" customFormat="1" spans="1:5">
       <c r="A167" s="4">
         <v>43567</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C167" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D167" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E167" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F167" s="2">
+      <c r="E167" s="2">
         <v>37179</v>
       </c>
     </row>
-    <row r="168" s="2" customFormat="1" spans="1:6">
+    <row r="168" s="2" customFormat="1" spans="1:5">
       <c r="A168" s="4">
         <v>43567</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C168" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D168" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E168" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F168" s="2">
+      <c r="E168" s="2">
         <v>2406</v>
       </c>
     </row>
-    <row r="169" s="2" customFormat="1" spans="1:6">
+    <row r="169" s="2" customFormat="1" spans="1:5">
       <c r="A169" s="4">
         <v>43567</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C169" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D169" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E169" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F169" s="2">
+      <c r="E169" s="2">
         <v>34367</v>
       </c>
     </row>
-    <row r="170" s="2" customFormat="1" spans="1:6">
+    <row r="170" s="2" customFormat="1" spans="1:5">
       <c r="A170" s="4">
         <v>43567</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C170" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D170" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E170" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F170" s="2">
+      <c r="E170" s="2">
         <v>15897</v>
       </c>
     </row>
-    <row r="171" s="2" customFormat="1" spans="1:6">
+    <row r="171" s="2" customFormat="1" spans="1:5">
       <c r="A171" s="4">
         <v>43568</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="D171" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F171" s="2">
+      <c r="E171" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="172" s="2" customFormat="1" spans="1:6">
+    <row r="172" s="2" customFormat="1" spans="1:5">
       <c r="A172" s="4">
         <v>43568</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="D172" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F172" s="2">
+      <c r="E172" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="173" s="2" customFormat="1" spans="1:6">
+    <row r="173" s="2" customFormat="1" spans="1:5">
       <c r="A173" s="4">
         <v>43568</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="D173" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F173" s="2">
+      <c r="E173" s="2">
         <v>3973</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="1" spans="1:6">
+    <row r="174" s="2" customFormat="1" spans="1:5">
       <c r="A174" s="4">
         <v>43568</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E174" s="9" t="s">
+      <c r="D174" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F174" s="2">
+      <c r="E174" s="2">
         <v>206</v>
       </c>
     </row>
-    <row r="175" s="2" customFormat="1" spans="1:6">
+    <row r="175" s="2" customFormat="1" spans="1:5">
       <c r="A175" s="4">
         <v>43568</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="D175" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F175" s="2">
+      <c r="E175" s="2">
         <v>242</v>
       </c>
     </row>
-    <row r="176" s="2" customFormat="1" spans="1:6">
+    <row r="176" s="2" customFormat="1" spans="1:5">
       <c r="A176" s="4">
         <v>43568</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C176" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D176" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E176" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F176" s="2">
+      <c r="E176" s="2">
         <v>2515</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="1" spans="1:6">
+    <row r="177" s="2" customFormat="1" spans="1:5">
       <c r="A177" s="4">
         <v>43568</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C177" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D177" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E177" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F177" s="2">
+      <c r="E177" s="2">
         <v>22971</v>
       </c>
     </row>
-    <row r="178" s="2" customFormat="1" spans="1:6">
+    <row r="178" s="2" customFormat="1" spans="1:5">
       <c r="A178" s="4">
         <v>43568</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C178" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D178" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E178" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F178" s="2">
+      <c r="E178" s="2">
         <v>37947</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="1" spans="1:6">
+    <row r="179" s="2" customFormat="1" spans="1:5">
       <c r="A179" s="4">
         <v>43568</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C179" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D179" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E179" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F179" s="2">
+      <c r="E179" s="2">
         <v>481</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:6">
+    <row r="180" s="2" customFormat="1" spans="1:5">
       <c r="A180" s="4">
         <v>43568</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C180" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="D180" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E180" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F180" s="2">
+      <c r="E180" s="2">
         <v>2583</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:6">
+    <row r="181" s="2" customFormat="1" spans="1:5">
       <c r="A181" s="4">
         <v>43568</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C181" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D181" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E181" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F181" s="2">
+      <c r="E181" s="2">
         <v>46995</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:6">
+    <row r="182" s="2" customFormat="1" spans="1:5">
       <c r="A182" s="4">
         <v>43568</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C182" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="D182" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E182" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F182" s="2">
+      <c r="E182" s="2">
         <v>5177</v>
       </c>
     </row>
-    <row r="183" s="2" customFormat="1" spans="1:6">
+    <row r="183" s="2" customFormat="1" spans="1:5">
       <c r="A183" s="4">
         <v>43568</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C183" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="D183" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E183" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F183" s="2">
+      <c r="E183" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="1" spans="1:6">
+    <row r="184" s="2" customFormat="1" spans="1:5">
       <c r="A184" s="4">
         <v>43568</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C184" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D184" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E184" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F184" s="2">
+      <c r="E184" s="2">
         <v>1976</v>
       </c>
     </row>
-    <row r="185" s="2" customFormat="1" spans="1:6">
+    <row r="185" s="2" customFormat="1" spans="1:5">
       <c r="A185" s="4">
         <v>43569</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="D185" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F185" s="2">
+      <c r="E185" s="2">
         <v>1206</v>
       </c>
     </row>
-    <row r="186" s="2" customFormat="1" spans="1:6">
+    <row r="186" s="2" customFormat="1" spans="1:5">
       <c r="A186" s="4">
         <v>43569</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E186" s="9" t="s">
+      <c r="D186" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F186" s="2">
+      <c r="E186" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="187" s="2" customFormat="1" spans="1:6">
+    <row r="187" s="2" customFormat="1" spans="1:5">
       <c r="A187" s="4">
         <v>43569</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E187" s="8" t="s">
+      <c r="D187" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F187" s="2">
+      <c r="E187" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="188" s="2" customFormat="1" spans="1:6">
+    <row r="188" s="2" customFormat="1" spans="1:5">
       <c r="A188" s="4">
         <v>43569</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C188" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D188" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E188" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F188" s="2">
+      <c r="E188" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="1" spans="1:6">
+    <row r="189" s="2" customFormat="1" spans="1:5">
       <c r="A189" s="4">
         <v>43569</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C189" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="D189" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E189" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F189" s="2">
+      <c r="E189" s="2">
         <v>2627</v>
       </c>
     </row>
-    <row r="190" s="2" customFormat="1" spans="1:6">
+    <row r="190" s="2" customFormat="1" spans="1:5">
       <c r="A190" s="4">
         <v>43569</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C190" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D190" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E190" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F190" s="2">
+      <c r="E190" s="2">
         <v>46300</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="1" spans="1:6">
+    <row r="191" s="2" customFormat="1" spans="1:5">
       <c r="A191" s="4">
         <v>43569</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C191" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="D191" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E191" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F191" s="2">
+      <c r="E191" s="2">
         <v>5533</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="1" spans="1:6">
+    <row r="192" s="2" customFormat="1" spans="1:5">
       <c r="A192" s="4">
         <v>43570</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C192" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="D192" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E192" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F192" s="2">
+      <c r="E192" s="2">
         <v>5141</v>
       </c>
     </row>
-    <row r="193" s="2" customFormat="1" spans="1:6">
+    <row r="193" s="2" customFormat="1" spans="1:5">
       <c r="A193" s="4">
         <v>43570</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E193" s="7" t="s">
+      <c r="D193" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F193" s="2">
+      <c r="E193" s="2">
         <v>1307</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="1" spans="1:6">
+    <row r="194" s="2" customFormat="1" spans="1:5">
       <c r="A194" s="4">
         <v>43570</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E194" s="9" t="s">
+      <c r="D194" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F194" s="2">
+      <c r="E194" s="2">
         <v>243</v>
       </c>
     </row>
-    <row r="195" s="2" customFormat="1" spans="1:6">
+    <row r="195" s="2" customFormat="1" spans="1:5">
       <c r="A195" s="4">
         <v>43570</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E195" s="8" t="s">
+      <c r="D195" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F195" s="2">
+      <c r="E195" s="2">
         <v>179</v>
       </c>
     </row>
-    <row r="196" s="2" customFormat="1" spans="1:6">
+    <row r="196" s="2" customFormat="1" spans="1:5">
       <c r="A196" s="4">
         <v>43570</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C196" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D196" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E196" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F196" s="2">
+      <c r="E196" s="2">
         <v>45472</v>
       </c>
     </row>
-    <row r="197" s="2" customFormat="1" spans="1:6">
+    <row r="197" s="2" customFormat="1" spans="1:5">
       <c r="A197" s="4">
         <v>43571</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E197" s="9" t="s">
+      <c r="D197" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F197" s="2">
+      <c r="E197" s="2">
         <v>1790</v>
       </c>
     </row>
-    <row r="198" s="2" customFormat="1" spans="1:6">
+    <row r="198" s="2" customFormat="1" spans="1:5">
       <c r="A198" s="4">
         <v>43571</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C198" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D198" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E198" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F198" s="2">
+      <c r="E198" s="2">
         <v>92780</v>
       </c>
     </row>
-    <row r="199" s="2" customFormat="1" spans="1:6">
+    <row r="199" s="2" customFormat="1" spans="1:5">
       <c r="A199" s="4">
         <v>43571</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E199" s="8" t="s">
+      <c r="D199" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F199" s="2">
+      <c r="E199" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="200" s="2" customFormat="1" spans="1:6">
+    <row r="200" s="2" customFormat="1" spans="1:5">
       <c r="A200" s="4">
         <v>43571</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E200" s="8" t="s">
+      <c r="D200" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F200" s="2">
+      <c r="E200" s="2">
         <v>1991</v>
       </c>
     </row>
-    <row r="201" s="2" customFormat="1" spans="1:6">
+    <row r="201" s="2" customFormat="1" spans="1:5">
       <c r="A201" s="4">
         <v>43571</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C201" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D201" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E201" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F201" s="2">
+      <c r="E201" s="2">
         <v>36308</v>
       </c>
     </row>
-    <row r="202" s="2" customFormat="1" spans="1:6">
+    <row r="202" s="2" customFormat="1" spans="1:5">
       <c r="A202" s="4">
         <v>43571</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C202" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D202" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E202" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F202" s="2">
+      <c r="E202" s="2">
         <v>16982</v>
       </c>
     </row>
-    <row r="203" s="2" customFormat="1" spans="1:6">
+    <row r="203" s="2" customFormat="1" spans="1:5">
       <c r="A203" s="4">
         <v>43571</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C203" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D203" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E203" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F203" s="2">
+      <c r="E203" s="2">
         <v>33354</v>
       </c>
     </row>
-    <row r="204" s="2" customFormat="1" spans="1:6">
+    <row r="204" s="2" customFormat="1" spans="1:5">
       <c r="A204" s="4">
         <v>43571</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C204" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D204" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E204" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F204" s="2">
+      <c r="E204" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="205" s="2" customFormat="1" spans="1:6">
+    <row r="205" s="2" customFormat="1" spans="1:5">
       <c r="A205" s="4">
         <v>43571</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C205" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="D205" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E205" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F205" s="2">
+      <c r="E205" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="206" s="2" customFormat="1" spans="1:6">
+    <row r="206" s="2" customFormat="1" spans="1:5">
       <c r="A206" s="4">
         <v>43571</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C206" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D206" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E206" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F206" s="2">
+      <c r="E206" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="207" s="2" customFormat="1" spans="1:6">
+    <row r="207" s="2" customFormat="1" spans="1:5">
       <c r="A207" s="4">
         <v>43571</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C207" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D207" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E207" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F207" s="2">
+      <c r="E207" s="2">
         <v>9388</v>
       </c>
     </row>
-    <row r="208" s="2" customFormat="1" spans="1:6">
+    <row r="208" s="2" customFormat="1" spans="1:5">
       <c r="A208" s="4">
         <v>43571</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C208" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="D208" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E208" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F208" s="2">
+      <c r="E208" s="2">
         <v>1290</v>
       </c>
     </row>
-    <row r="209" s="2" customFormat="1" spans="1:6">
+    <row r="209" s="2" customFormat="1" spans="1:5">
       <c r="A209" s="4">
         <v>43571</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C209" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="D209" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E209" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F209" s="2">
+      <c r="E209" s="2">
         <v>1035</v>
       </c>
     </row>
-    <row r="210" s="2" customFormat="1" spans="1:6">
+    <row r="210" s="2" customFormat="1" spans="1:5">
       <c r="A210" s="4">
         <v>43571</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C210" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D210" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E210" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F210" s="2">
+      <c r="E210" s="2">
         <v>1051</v>
       </c>
     </row>
-    <row r="211" s="2" customFormat="1" spans="1:6">
+    <row r="211" s="2" customFormat="1" spans="1:5">
       <c r="A211" s="4">
         <v>43572</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E211" s="9" t="s">
+      <c r="D211" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F211" s="2">
+      <c r="E211" s="2">
         <v>2413</v>
       </c>
     </row>
-    <row r="212" s="2" customFormat="1" spans="1:6">
+    <row r="212" s="2" customFormat="1" spans="1:5">
       <c r="A212" s="4">
         <v>43572</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C212" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D212" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E212" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F212" s="2">
+      <c r="E212" s="2">
         <v>99479</v>
       </c>
     </row>
-    <row r="213" s="2" customFormat="1" spans="1:6">
+    <row r="213" s="2" customFormat="1" spans="1:5">
       <c r="A213" s="4">
         <v>43572</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C213" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D213" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E213" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F213" s="2">
+      <c r="E213" s="2">
         <v>441</v>
       </c>
     </row>
-    <row r="214" s="2" customFormat="1" spans="1:6">
+    <row r="214" s="2" customFormat="1" spans="1:5">
       <c r="A214" s="4">
         <v>43572</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E214" s="7" t="s">
+      <c r="D214" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F214" s="2">
+      <c r="E214" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="215" s="2" customFormat="1" spans="1:6">
+    <row r="215" s="2" customFormat="1" spans="1:5">
       <c r="A215" s="4">
         <v>43572</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E215" s="7" t="s">
+      <c r="D215" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F215" s="2">
+      <c r="E215" s="2">
         <v>502</v>
       </c>
     </row>
-    <row r="216" s="2" customFormat="1" spans="1:6">
+    <row r="216" s="2" customFormat="1" spans="1:5">
       <c r="A216" s="4">
         <v>43572</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="C216" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E216" s="7" t="s">
+      <c r="D216" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F216" s="2">
+      <c r="E216" s="2">
         <v>3895</v>
       </c>
     </row>
-    <row r="217" s="2" customFormat="1" spans="1:6">
+    <row r="217" s="2" customFormat="1" spans="1:5">
       <c r="A217" s="4">
         <v>43572</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="C217" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E217" s="8" t="s">
+      <c r="D217" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F217" s="2">
+      <c r="E217" s="2">
         <v>2975</v>
       </c>
     </row>
-    <row r="218" s="2" customFormat="1" spans="1:6">
+    <row r="218" s="2" customFormat="1" spans="1:5">
       <c r="A218" s="4">
         <v>43572</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E218" s="8" t="s">
+      <c r="D218" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F218" s="2">
+      <c r="E218" s="2">
         <v>2242</v>
       </c>
     </row>
-    <row r="219" s="2" customFormat="1" spans="1:6">
+    <row r="219" s="2" customFormat="1" spans="1:5">
       <c r="A219" s="4">
         <v>43572</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C219" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D219" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E219" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F219" s="2">
+      <c r="E219" s="2">
         <v>32698</v>
       </c>
     </row>
-    <row r="220" s="2" customFormat="1" spans="1:6">
+    <row r="220" s="2" customFormat="1" spans="1:5">
       <c r="A220" s="4">
         <v>43572</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C220" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D220" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E220" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F220" s="2">
+      <c r="E220" s="2">
         <v>21500</v>
       </c>
     </row>
-    <row r="221" s="2" customFormat="1" spans="1:6">
+    <row r="221" s="2" customFormat="1" spans="1:5">
       <c r="A221" s="4">
         <v>43572</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C221" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D221" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E221" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F221" s="2">
+      <c r="E221" s="2">
         <v>15929</v>
       </c>
     </row>
-    <row r="222" s="2" customFormat="1" spans="1:6">
+    <row r="222" s="2" customFormat="1" spans="1:5">
       <c r="A222" s="4">
         <v>43572</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C222" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D222" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E222" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F222" s="2">
+      <c r="E222" s="2">
         <v>30658</v>
       </c>
     </row>
-    <row r="223" s="2" customFormat="1" spans="1:6">
+    <row r="223" s="2" customFormat="1" spans="1:5">
       <c r="A223" s="4">
         <v>43572</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C223" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D223" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E223" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F223" s="2">
+      <c r="E223" s="2">
         <v>478</v>
       </c>
     </row>
-    <row r="224" s="2" customFormat="1" spans="1:6">
+    <row r="224" s="2" customFormat="1" spans="1:5">
       <c r="A224" s="4">
         <v>43572</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C224" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D224" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E224" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F224" s="2">
+      <c r="E224" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="225" s="2" customFormat="1" spans="1:6">
+    <row r="225" s="2" customFormat="1" spans="1:5">
       <c r="A225" s="4">
         <v>43572</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C225" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="D225" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E225" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F225" s="2">
+      <c r="E225" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="226" s="2" customFormat="1" spans="1:6">
+    <row r="226" s="2" customFormat="1" spans="1:5">
       <c r="A226" s="4">
         <v>43572</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C226" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="D226" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E226" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F226" s="2">
+      <c r="E226" s="2">
         <v>977</v>
       </c>
     </row>
-    <row r="227" s="2" customFormat="1" spans="1:6">
+    <row r="227" s="2" customFormat="1" spans="1:5">
       <c r="A227" s="4">
         <v>43572</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C227" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D227" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E227" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F227" s="2">
+      <c r="E227" s="2">
         <v>633</v>
       </c>
     </row>
-    <row r="228" s="2" customFormat="1" spans="1:6">
+    <row r="228" s="2" customFormat="1" spans="1:5">
       <c r="A228" s="4">
         <v>43572</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C228" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="D228" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E228" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F228" s="2">
+      <c r="E228" s="2">
         <v>263</v>
       </c>
     </row>
-    <row r="229" s="2" customFormat="1" spans="1:6">
+    <row r="229" s="2" customFormat="1" spans="1:5">
       <c r="A229" s="4">
         <v>43572</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C229" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="D229" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E229" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F229" s="2">
+      <c r="E229" s="2">
         <v>1175</v>
       </c>
     </row>
-    <row r="230" s="2" customFormat="1" spans="1:6">
+    <row r="230" s="2" customFormat="1" spans="1:5">
       <c r="A230" s="4">
         <v>43572</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C230" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D230" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E230" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F230" s="2">
+      <c r="E230" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="231" s="3" customFormat="1" spans="1:6">
+    <row r="231" s="2" customFormat="1" spans="1:5">
       <c r="A231" s="4">
         <v>43573</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="C231" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E231" s="9" t="s">
+      <c r="D231" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F231" s="3">
+      <c r="E231" s="2">
         <v>1858</v>
       </c>
     </row>
-    <row r="232" s="3" customFormat="1" spans="1:6">
+    <row r="232" s="2" customFormat="1" spans="1:5">
       <c r="A232" s="4">
         <v>43573</v>
       </c>
-      <c r="B232" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D232" s="3" t="s">
+      <c r="B232" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E232" s="7" t="s">
+      <c r="D232" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F232" s="3">
+      <c r="E232" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="233" s="3" customFormat="1" spans="1:6">
+    <row r="233" s="2" customFormat="1" spans="1:5">
       <c r="A233" s="4">
         <v>43573</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D233" s="3" t="s">
+      <c r="B233" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E233" s="7" t="s">
+      <c r="D233" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F233" s="3">
+      <c r="E233" s="2">
         <v>406</v>
       </c>
     </row>
-    <row r="234" s="3" customFormat="1" spans="1:6">
+    <row r="234" s="2" customFormat="1" spans="1:5">
       <c r="A234" s="4">
         <v>43573</v>
       </c>
-      <c r="B234" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D234" s="3" t="s">
+      <c r="B234" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E234" s="7" t="s">
+      <c r="D234" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F234" s="3">
+      <c r="E234" s="2">
         <v>4076</v>
       </c>
     </row>
-    <row r="235" s="3" customFormat="1" spans="1:6">
+    <row r="235" s="2" customFormat="1" spans="1:5">
       <c r="A235" s="4">
         <v>43573</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D235" s="3" t="s">
+      <c r="B235" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E235" s="8" t="s">
+      <c r="D235" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F235" s="3">
+      <c r="E235" s="2">
         <v>2968</v>
       </c>
     </row>
-    <row r="236" s="3" customFormat="1" spans="1:6">
+    <row r="236" s="2" customFormat="1" spans="1:5">
       <c r="A236" s="4">
         <v>43573</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D236" s="3" t="s">
+      <c r="B236" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E236" s="8" t="s">
+      <c r="D236" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F236" s="3">
+      <c r="E236" s="2">
         <v>2319</v>
       </c>
     </row>
-    <row r="237" s="3" customFormat="1" spans="1:6">
+    <row r="237" s="2" customFormat="1" spans="1:5">
       <c r="A237" s="4">
         <v>43573</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D237" s="3" t="s">
+      <c r="B237" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="D237" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F237" s="3">
+      <c r="E237" s="2">
         <v>30342</v>
       </c>
     </row>
-    <row r="238" s="3" customFormat="1" spans="1:6">
+    <row r="238" s="2" customFormat="1" spans="1:5">
       <c r="A238" s="4">
         <v>43573</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D238" s="3" t="s">
+      <c r="B238" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="D238" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F238" s="3">
+      <c r="E238" s="2">
         <v>23363</v>
       </c>
     </row>
-    <row r="239" s="3" customFormat="1" spans="1:6">
+    <row r="239" s="2" customFormat="1" spans="1:5">
       <c r="A239" s="4">
         <v>43573</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D239" s="3" t="s">
+      <c r="B239" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="D239" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F239" s="3">
+      <c r="E239" s="2">
         <v>14862</v>
       </c>
     </row>
-    <row r="240" s="3" customFormat="1" spans="1:6">
+    <row r="240" s="2" customFormat="1" spans="1:5">
       <c r="A240" s="4">
         <v>43573</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D240" s="3" t="s">
+      <c r="B240" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="D240" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F240" s="3">
+      <c r="E240" s="2">
         <v>29809</v>
       </c>
     </row>
-    <row r="241" s="3" customFormat="1" spans="1:6">
+    <row r="241" s="2" customFormat="1" spans="1:5">
       <c r="A241" s="4">
         <v>43573</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D241" s="3" t="s">
+      <c r="B241" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="D241" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F241" s="3">
+      <c r="E241" s="2">
         <v>555</v>
       </c>
     </row>
-    <row r="242" s="3" customFormat="1" spans="1:6">
+    <row r="242" s="2" customFormat="1" spans="1:5">
       <c r="A242" s="4">
         <v>43573</v>
       </c>
-      <c r="B242" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D242" s="3" t="s">
+      <c r="B242" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="D242" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F242" s="3">
+      <c r="E242" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="243" s="3" customFormat="1" spans="1:6">
+    <row r="243" s="2" customFormat="1" spans="1:5">
       <c r="A243" s="4">
         <v>43573</v>
       </c>
-      <c r="B243" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D243" s="3" t="s">
+      <c r="B243" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E243" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F243" s="3">
+      <c r="E243" s="2">
         <v>970</v>
       </c>
     </row>
-    <row r="244" s="3" customFormat="1" spans="1:6">
+    <row r="244" s="2" customFormat="1" spans="1:5">
       <c r="A244" s="4">
         <v>43573</v>
       </c>
-      <c r="B244" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D244" s="3" t="s">
+      <c r="B244" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F244" s="3">
+      <c r="E244" s="2">
         <v>525</v>
       </c>
     </row>
-    <row r="245" s="3" customFormat="1" spans="1:6">
+    <row r="245" s="2" customFormat="1" spans="1:5">
       <c r="A245" s="4">
         <v>43573</v>
       </c>
-      <c r="B245" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D245" s="3" t="s">
+      <c r="B245" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E245" s="2" t="s">
+      <c r="D245" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F245" s="3">
+      <c r="E245" s="2">
         <v>102</v>
       </c>
     </row>
+    <row r="246" s="3" customFormat="1" spans="1:5">
+      <c r="A246" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E246" s="3">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="247" s="3" customFormat="1" spans="1:5">
+      <c r="A247" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E247" s="3">
+        <v>14065</v>
+      </c>
+    </row>
+    <row r="248" s="3" customFormat="1" spans="1:5">
+      <c r="A248" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E248" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="249" s="3" customFormat="1" spans="1:5">
+      <c r="A249" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E249" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="250" s="3" customFormat="1" spans="1:5">
+      <c r="A250" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E250" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="251" s="3" customFormat="1" spans="1:5">
+      <c r="A251" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" s="3" customFormat="1" spans="1:5">
+      <c r="A252" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E252" s="3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="253" s="3" customFormat="1" spans="1:5">
+      <c r="A253" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E253" s="3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="254" s="3" customFormat="1" spans="1:5">
+      <c r="A254" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E254" s="3">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="255" s="3" customFormat="1" spans="1:5">
+      <c r="A255" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E255" s="3">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="256" s="3" customFormat="1" spans="1:5">
+      <c r="A256" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E256" s="3">
+        <v>22663</v>
+      </c>
+    </row>
+    <row r="257" s="3" customFormat="1" spans="1:5">
+      <c r="A257" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E257" s="3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="258" s="3" customFormat="1" spans="1:5">
+      <c r="A258" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E258" s="3">
+        <v>9591</v>
+      </c>
+    </row>
+    <row r="259" s="3" customFormat="1" spans="1:5">
+      <c r="A259" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E259" s="3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="260" s="3" customFormat="1" spans="1:5">
+      <c r="A260" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E260" s="3">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="261" s="3" customFormat="1" spans="1:5">
+      <c r="A261" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E261" s="3">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="262" s="3" customFormat="1" spans="1:5">
+      <c r="A262" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E262" s="3">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="263" s="3" customFormat="1" spans="1:5">
+      <c r="A263" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E263" s="3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="264" s="3" customFormat="1" spans="1:5">
+      <c r="A264" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E264" s="3">
+        <v>97681</v>
+      </c>
+    </row>
+    <row r="265" s="3" customFormat="1" spans="1:5">
+      <c r="A265" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E265" s="3">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="266" s="3" customFormat="1" spans="1:5">
+      <c r="A266" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E266" s="3">
+        <v>13901</v>
+      </c>
+    </row>
+    <row r="267" s="3" customFormat="1" spans="1:5">
+      <c r="A267" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E267" s="3">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="268" s="3" customFormat="1" spans="1:5">
+      <c r="A268" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E268" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="269" s="3" customFormat="1" spans="1:5">
+      <c r="A269" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E269" s="3">
+        <v>28771</v>
+      </c>
+    </row>
+    <row r="270" s="3" customFormat="1" spans="1:5">
+      <c r="A270" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E270" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="271" s="3" customFormat="1" spans="1:5">
+      <c r="A271" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E271" s="3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="272" s="3" customFormat="1" spans="1:5">
+      <c r="A272" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E272" s="3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="273" s="3" customFormat="1" spans="1:5">
+      <c r="A273" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E273" s="3">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="274" s="3" customFormat="1" spans="1:5">
+      <c r="A274" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E274" s="3">
+        <v>24087</v>
+      </c>
+    </row>
+    <row r="275" s="3" customFormat="1" spans="1:5">
+      <c r="A275" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E275" s="3">
+        <v>9527</v>
+      </c>
+    </row>
+    <row r="276" s="3" customFormat="1" spans="1:5">
+      <c r="A276" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E276" s="3">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="277" s="3" customFormat="1" spans="1:5">
+      <c r="A277" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E277" s="3">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="278" s="3" customFormat="1" spans="1:5">
+      <c r="A278" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E278" s="3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="279" s="3" customFormat="1" spans="1:5">
+      <c r="A279" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E279" s="3">
+        <v>40620</v>
+      </c>
+    </row>
+    <row r="280" s="3" customFormat="1" spans="1:5">
+      <c r="A280" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E280" s="3">
+        <v>43351</v>
+      </c>
+    </row>
+    <row r="281" s="3" customFormat="1" spans="1:5">
+      <c r="A281" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E281" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="282" s="3" customFormat="1" spans="1:5">
+      <c r="A282" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E282" s="3">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="283" s="3" customFormat="1" spans="1:5">
+      <c r="A283" s="4">
+        <v>43575</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E283" s="3">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="284" s="3" customFormat="1" spans="1:5">
+      <c r="A284" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E284" s="3">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="285" s="3" customFormat="1" spans="1:5">
+      <c r="A285" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E285" s="3">
+        <v>16275</v>
+      </c>
+    </row>
+    <row r="286" s="3" customFormat="1" spans="1:5">
+      <c r="A286" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E286" s="3">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="287" s="3" customFormat="1" spans="1:5">
+      <c r="A287" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E287" s="3">
+        <v>27396</v>
+      </c>
+    </row>
+    <row r="288" s="3" customFormat="1" spans="1:5">
+      <c r="A288" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E288" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="289" s="3" customFormat="1" spans="1:5">
+      <c r="A289" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E289" s="3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="290" s="3" customFormat="1" spans="1:5">
+      <c r="A290" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E290" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="291" s="3" customFormat="1" spans="1:5">
+      <c r="A291" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E291" s="3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="292" s="3" customFormat="1" spans="1:5">
+      <c r="A292" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E292" s="3">
+        <v>42183</v>
+      </c>
+    </row>
+    <row r="293" s="3" customFormat="1" spans="1:5">
+      <c r="A293" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E293" s="3">
+        <v>22339</v>
+      </c>
+    </row>
+    <row r="294" s="3" customFormat="1" spans="1:5">
+      <c r="A294" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E294" s="3">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="295" s="3" customFormat="1" spans="1:5">
+      <c r="A295" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E295" s="3">
+        <v>36165</v>
+      </c>
+    </row>
+    <row r="296" s="3" customFormat="1" spans="1:5">
+      <c r="A296" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E296" s="3">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="297" s="3" customFormat="1" spans="1:5">
+      <c r="A297" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E297" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="298" s="3" customFormat="1" spans="1:5">
+      <c r="A298" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E298" s="3">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="299" s="3" customFormat="1" spans="1:5">
+      <c r="A299" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E299" s="3">
+        <v>46994</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B230">
+  <autoFilter ref="B1:B245">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$299</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="184">
   <si>
     <t>湖南</t>
   </si>
@@ -577,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
@@ -592,9 +592,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,6 +705,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -616,82 +721,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -706,35 +735,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -745,7 +745,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +793,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,19 +835,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,19 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,13 +871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,13 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,79 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,25 +954,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -993,17 +980,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,20 +1021,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,10 +1059,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,133 +1071,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1578,17 +1578,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E299"/>
+  <dimension ref="A1:E312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="H244" sqref="H244"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="I291" sqref="I291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="90.75" customWidth="1"/>
+    <col min="4" max="4" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -5756,926 +5756,1147 @@
         <v>102</v>
       </c>
     </row>
-    <row r="246" s="3" customFormat="1" spans="1:5">
+    <row r="246" s="2" customFormat="1" spans="1:5">
       <c r="A246" s="4">
         <v>43574</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E246" s="3">
+      <c r="E246" s="2">
         <v>4034</v>
       </c>
     </row>
-    <row r="247" s="3" customFormat="1" spans="1:5">
+    <row r="247" s="2" customFormat="1" spans="1:5">
       <c r="A247" s="4">
         <v>43574</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E247" s="3">
+      <c r="E247" s="2">
         <v>14065</v>
       </c>
     </row>
-    <row r="248" s="3" customFormat="1" spans="1:5">
+    <row r="248" s="2" customFormat="1" spans="1:5">
       <c r="A248" s="4">
         <v>43574</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E248" s="3">
+      <c r="E248" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="249" s="3" customFormat="1" spans="1:5">
+    <row r="249" s="2" customFormat="1" spans="1:5">
       <c r="A249" s="4">
         <v>43574</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D249" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E249" s="3">
+      <c r="E249" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="250" s="3" customFormat="1" spans="1:5">
+    <row r="250" s="2" customFormat="1" spans="1:5">
       <c r="A250" s="4">
         <v>43574</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D250" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E250" s="3">
+      <c r="E250" s="2">
         <v>1400</v>
       </c>
     </row>
-    <row r="251" s="3" customFormat="1" spans="1:5">
+    <row r="251" s="2" customFormat="1" spans="1:5">
       <c r="A251" s="4">
         <v>43574</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="D251" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E251" s="3">
+      <c r="E251" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="252" s="3" customFormat="1" spans="1:5">
+    <row r="252" s="2" customFormat="1" spans="1:5">
       <c r="A252" s="4">
         <v>43574</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D252" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E252" s="3">
+      <c r="E252" s="2">
         <v>417</v>
       </c>
     </row>
-    <row r="253" s="3" customFormat="1" spans="1:5">
+    <row r="253" s="2" customFormat="1" spans="1:5">
       <c r="A253" s="4">
         <v>43574</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D253" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E253" s="3">
+      <c r="E253" s="2">
         <v>275</v>
       </c>
     </row>
-    <row r="254" s="3" customFormat="1" spans="1:5">
+    <row r="254" s="2" customFormat="1" spans="1:5">
       <c r="A254" s="4">
         <v>43574</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D254" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E254" s="3">
+      <c r="E254" s="2">
         <v>3149</v>
       </c>
     </row>
-    <row r="255" s="3" customFormat="1" spans="1:5">
+    <row r="255" s="2" customFormat="1" spans="1:5">
       <c r="A255" s="4">
         <v>43574</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D255" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E255" s="3">
+      <c r="E255" s="2">
         <v>2378</v>
       </c>
     </row>
-    <row r="256" s="3" customFormat="1" spans="1:5">
+    <row r="256" s="2" customFormat="1" spans="1:5">
       <c r="A256" s="4">
         <v>43574</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D256" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E256" s="3">
+      <c r="E256" s="2">
         <v>22663</v>
       </c>
     </row>
-    <row r="257" s="3" customFormat="1" spans="1:5">
+    <row r="257" s="2" customFormat="1" spans="1:5">
       <c r="A257" s="4">
         <v>43574</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D257" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E257" s="3">
+      <c r="E257" s="2">
         <v>517</v>
       </c>
     </row>
-    <row r="258" s="3" customFormat="1" spans="1:5">
+    <row r="258" s="2" customFormat="1" spans="1:5">
       <c r="A258" s="4">
         <v>43574</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D258" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E258" s="3">
+      <c r="E258" s="2">
         <v>9591</v>
       </c>
     </row>
-    <row r="259" s="3" customFormat="1" spans="1:5">
+    <row r="259" s="2" customFormat="1" spans="1:5">
       <c r="A259" s="4">
         <v>43574</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E259" s="3">
+      <c r="E259" s="2">
         <v>1259</v>
       </c>
     </row>
-    <row r="260" s="3" customFormat="1" spans="1:5">
+    <row r="260" s="2" customFormat="1" spans="1:5">
       <c r="A260" s="4">
         <v>43574</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D260" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E260" s="3">
+      <c r="E260" s="2">
         <v>1222</v>
       </c>
     </row>
-    <row r="261" s="3" customFormat="1" spans="1:5">
+    <row r="261" s="2" customFormat="1" spans="1:5">
       <c r="A261" s="4">
         <v>43574</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D261" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E261" s="3">
+      <c r="E261" s="2">
         <v>2899</v>
       </c>
     </row>
-    <row r="262" s="3" customFormat="1" spans="1:5">
+    <row r="262" s="2" customFormat="1" spans="1:5">
       <c r="A262" s="4">
         <v>43574</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D262" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E262" s="3">
+      <c r="E262" s="2">
         <v>5728</v>
       </c>
     </row>
-    <row r="263" s="3" customFormat="1" spans="1:5">
+    <row r="263" s="2" customFormat="1" spans="1:5">
       <c r="A263" s="4">
         <v>43574</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D263" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E263" s="3">
+      <c r="E263" s="2">
         <v>543</v>
       </c>
     </row>
-    <row r="264" s="3" customFormat="1" spans="1:5">
+    <row r="264" s="2" customFormat="1" spans="1:5">
       <c r="A264" s="4">
         <v>43574</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D264" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E264" s="3">
+      <c r="E264" s="2">
         <v>97681</v>
       </c>
     </row>
-    <row r="265" s="3" customFormat="1" spans="1:5">
+    <row r="265" s="2" customFormat="1" spans="1:5">
       <c r="A265" s="4">
         <v>43575</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D265" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E265" s="3">
+      <c r="E265" s="2">
         <v>4068</v>
       </c>
     </row>
-    <row r="266" s="3" customFormat="1" spans="1:5">
+    <row r="266" s="2" customFormat="1" spans="1:5">
       <c r="A266" s="4">
         <v>43575</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D266" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E266" s="3">
+      <c r="E266" s="2">
         <v>13901</v>
       </c>
     </row>
-    <row r="267" s="3" customFormat="1" spans="1:5">
+    <row r="267" s="2" customFormat="1" spans="1:5">
       <c r="A267" s="4">
         <v>43575</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D267" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E267" s="3">
+      <c r="E267" s="2">
         <v>2672</v>
       </c>
     </row>
-    <row r="268" s="3" customFormat="1" spans="1:5">
+    <row r="268" s="2" customFormat="1" spans="1:5">
       <c r="A268" s="4">
         <v>43575</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E268" s="3">
+      <c r="E268" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="269" s="3" customFormat="1" spans="1:5">
+    <row r="269" s="2" customFormat="1" spans="1:5">
       <c r="A269" s="4">
         <v>43575</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D269" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E269" s="3">
+      <c r="E269" s="2">
         <v>28771</v>
       </c>
     </row>
-    <row r="270" s="3" customFormat="1" spans="1:5">
+    <row r="270" s="2" customFormat="1" spans="1:5">
       <c r="A270" s="4">
         <v>43575</v>
       </c>
-      <c r="B270" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C270" s="3" t="s">
+      <c r="B270" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E270" s="3">
+      <c r="E270" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="271" s="3" customFormat="1" spans="1:5">
+    <row r="271" s="2" customFormat="1" spans="1:5">
       <c r="A271" s="4">
         <v>43575</v>
       </c>
-      <c r="B271" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C271" s="3" t="s">
+      <c r="B271" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E271" s="3">
+      <c r="E271" s="2">
         <v>410</v>
       </c>
     </row>
-    <row r="272" s="3" customFormat="1" spans="1:5">
+    <row r="272" s="2" customFormat="1" spans="1:5">
       <c r="A272" s="4">
         <v>43575</v>
       </c>
-      <c r="B272" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C272" s="3" t="s">
+      <c r="B272" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="D272" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E272" s="3">
+      <c r="E272" s="2">
         <v>261</v>
       </c>
     </row>
-    <row r="273" s="3" customFormat="1" spans="1:5">
+    <row r="273" s="2" customFormat="1" spans="1:5">
       <c r="A273" s="4">
         <v>43575</v>
       </c>
-      <c r="B273" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C273" s="3" t="s">
+      <c r="B273" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D273" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E273" s="3">
+      <c r="E273" s="2">
         <v>2287</v>
       </c>
     </row>
-    <row r="274" s="3" customFormat="1" spans="1:5">
+    <row r="274" s="2" customFormat="1" spans="1:5">
       <c r="A274" s="4">
         <v>43575</v>
       </c>
-      <c r="B274" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C274" s="3" t="s">
+      <c r="B274" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E274" s="3">
+      <c r="E274" s="2">
         <v>24087</v>
       </c>
     </row>
-    <row r="275" s="3" customFormat="1" spans="1:5">
+    <row r="275" s="2" customFormat="1" spans="1:5">
       <c r="A275" s="4">
         <v>43575</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C275" s="3" t="s">
+      <c r="B275" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E275" s="3">
+      <c r="E275" s="2">
         <v>9527</v>
       </c>
     </row>
-    <row r="276" s="3" customFormat="1" spans="1:5">
+    <row r="276" s="2" customFormat="1" spans="1:5">
       <c r="A276" s="4">
         <v>43575</v>
       </c>
-      <c r="B276" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C276" s="3" t="s">
+      <c r="B276" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D276" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E276" s="3">
+      <c r="E276" s="2">
         <v>1181</v>
       </c>
     </row>
-    <row r="277" s="3" customFormat="1" spans="1:5">
+    <row r="277" s="2" customFormat="1" spans="1:5">
       <c r="A277" s="4">
         <v>43575</v>
       </c>
-      <c r="B277" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C277" s="3" t="s">
+      <c r="B277" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D277" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E277" s="3">
+      <c r="E277" s="2">
         <v>1222</v>
       </c>
     </row>
-    <row r="278" s="3" customFormat="1" spans="1:5">
+    <row r="278" s="2" customFormat="1" spans="1:5">
       <c r="A278" s="4">
         <v>43575</v>
       </c>
-      <c r="B278" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C278" s="3" t="s">
+      <c r="B278" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D278" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E278" s="3">
+      <c r="E278" s="2">
         <v>545</v>
       </c>
     </row>
-    <row r="279" s="3" customFormat="1" spans="1:5">
+    <row r="279" s="2" customFormat="1" spans="1:5">
       <c r="A279" s="4">
         <v>43575</v>
       </c>
-      <c r="B279" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C279" s="3" t="s">
+      <c r="B279" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D279" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E279" s="3">
+      <c r="E279" s="2">
         <v>40620</v>
       </c>
     </row>
-    <row r="280" s="3" customFormat="1" spans="1:5">
+    <row r="280" s="2" customFormat="1" spans="1:5">
       <c r="A280" s="4">
         <v>43575</v>
       </c>
-      <c r="B280" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C280" s="3" t="s">
+      <c r="B280" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D280" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E280" s="3">
+      <c r="E280" s="2">
         <v>43351</v>
       </c>
     </row>
-    <row r="281" s="3" customFormat="1" spans="1:5">
+    <row r="281" s="2" customFormat="1" spans="1:5">
       <c r="A281" s="4">
         <v>43575</v>
       </c>
-      <c r="B281" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C281" s="3" t="s">
+      <c r="B281" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="D281" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E281" s="3">
+      <c r="E281" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="282" s="3" customFormat="1" spans="1:5">
+    <row r="282" s="2" customFormat="1" spans="1:5">
       <c r="A282" s="4">
         <v>43575</v>
       </c>
-      <c r="B282" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C282" s="3" t="s">
+      <c r="B282" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D282" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E282" s="3">
+      <c r="E282" s="2">
         <v>2850</v>
       </c>
     </row>
-    <row r="283" s="3" customFormat="1" spans="1:5">
+    <row r="283" s="2" customFormat="1" spans="1:5">
       <c r="A283" s="4">
         <v>43575</v>
       </c>
-      <c r="B283" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C283" s="3" t="s">
+      <c r="B283" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="D283" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E283" s="3">
+      <c r="E283" s="2">
         <v>1133</v>
       </c>
     </row>
-    <row r="284" s="3" customFormat="1" spans="1:5">
+    <row r="284" s="2" customFormat="1" spans="1:5">
       <c r="A284" s="4">
         <v>43576</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D284" s="3" t="s">
+      <c r="D284" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E284" s="3">
+      <c r="E284" s="2">
         <v>4237</v>
       </c>
     </row>
-    <row r="285" s="3" customFormat="1" spans="1:5">
+    <row r="285" s="2" customFormat="1" spans="1:5">
       <c r="A285" s="4">
         <v>43576</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C285" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="D285" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E285" s="3">
+      <c r="E285" s="2">
         <v>16275</v>
       </c>
     </row>
-    <row r="286" s="3" customFormat="1" spans="1:5">
+    <row r="286" s="2" customFormat="1" spans="1:5">
       <c r="A286" s="4">
         <v>43576</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D286" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E286" s="3">
+      <c r="E286" s="2">
         <v>5386</v>
       </c>
     </row>
-    <row r="287" s="3" customFormat="1" spans="1:5">
+    <row r="287" s="2" customFormat="1" spans="1:5">
       <c r="A287" s="4">
         <v>43576</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D287" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E287" s="3">
+      <c r="E287" s="2">
         <v>27396</v>
       </c>
     </row>
-    <row r="288" s="3" customFormat="1" spans="1:5">
+    <row r="288" s="2" customFormat="1" spans="1:5">
       <c r="A288" s="4">
         <v>43576</v>
       </c>
-      <c r="B288" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C288" s="3" t="s">
+      <c r="B288" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D288" s="3" t="s">
+      <c r="D288" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E288" s="3">
+      <c r="E288" s="2">
         <v>720</v>
       </c>
     </row>
-    <row r="289" s="3" customFormat="1" spans="1:5">
+    <row r="289" s="2" customFormat="1" spans="1:5">
       <c r="A289" s="4">
         <v>43576</v>
       </c>
-      <c r="B289" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C289" s="3" t="s">
+      <c r="B289" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D289" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E289" s="3">
+      <c r="E289" s="2">
         <v>614</v>
       </c>
     </row>
-    <row r="290" s="3" customFormat="1" spans="1:5">
+    <row r="290" s="2" customFormat="1" spans="1:5">
       <c r="A290" s="4">
         <v>43576</v>
       </c>
-      <c r="B290" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C290" s="3" t="s">
+      <c r="B290" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D290" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E290" s="3">
+      <c r="E290" s="2">
         <v>302</v>
       </c>
     </row>
-    <row r="291" s="3" customFormat="1" spans="1:5">
+    <row r="291" s="2" customFormat="1" spans="1:5">
       <c r="A291" s="4">
         <v>43576</v>
       </c>
-      <c r="B291" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C291" s="3" t="s">
+      <c r="B291" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="D291" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E291" s="3">
+      <c r="E291" s="2">
         <v>1155</v>
       </c>
     </row>
-    <row r="292" s="3" customFormat="1" spans="1:5">
+    <row r="292" s="2" customFormat="1" spans="1:5">
       <c r="A292" s="4">
         <v>43576</v>
       </c>
-      <c r="B292" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C292" s="3" t="s">
+      <c r="B292" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="D292" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E292" s="3">
+      <c r="E292" s="2">
         <v>42183</v>
       </c>
     </row>
-    <row r="293" s="3" customFormat="1" spans="1:5">
+    <row r="293" s="2" customFormat="1" spans="1:5">
       <c r="A293" s="4">
         <v>43576</v>
       </c>
-      <c r="B293" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C293" s="3" t="s">
+      <c r="B293" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="D293" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E293" s="3">
+      <c r="E293" s="2">
         <v>22339</v>
       </c>
     </row>
-    <row r="294" s="3" customFormat="1" spans="1:5">
+    <row r="294" s="2" customFormat="1" spans="1:5">
       <c r="A294" s="4">
         <v>43576</v>
       </c>
-      <c r="B294" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C294" s="3" t="s">
+      <c r="B294" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="D294" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E294" s="3">
+      <c r="E294" s="2">
         <v>19047</v>
       </c>
     </row>
-    <row r="295" s="3" customFormat="1" spans="1:5">
+    <row r="295" s="2" customFormat="1" spans="1:5">
       <c r="A295" s="4">
         <v>43576</v>
       </c>
-      <c r="B295" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C295" s="3" t="s">
+      <c r="B295" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="D295" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E295" s="3">
+      <c r="E295" s="2">
         <v>36165</v>
       </c>
     </row>
-    <row r="296" s="3" customFormat="1" spans="1:5">
+    <row r="296" s="2" customFormat="1" spans="1:5">
       <c r="A296" s="4">
         <v>43576</v>
       </c>
-      <c r="B296" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C296" s="3" t="s">
+      <c r="B296" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="D296" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E296" s="3">
+      <c r="E296" s="2">
         <v>1161</v>
       </c>
     </row>
-    <row r="297" s="3" customFormat="1" spans="1:5">
+    <row r="297" s="2" customFormat="1" spans="1:5">
       <c r="A297" s="4">
         <v>43576</v>
       </c>
-      <c r="B297" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C297" s="3" t="s">
+      <c r="B297" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="D297" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E297" s="3">
+      <c r="E297" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="298" s="3" customFormat="1" spans="1:5">
+    <row r="298" s="2" customFormat="1" spans="1:5">
       <c r="A298" s="4">
         <v>43576</v>
       </c>
-      <c r="B298" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C298" s="3" t="s">
+      <c r="B298" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="D298" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E298" s="3">
+      <c r="E298" s="2">
         <v>885</v>
       </c>
     </row>
-    <row r="299" s="3" customFormat="1" spans="1:5">
+    <row r="299" s="2" customFormat="1" spans="1:5">
       <c r="A299" s="4">
         <v>43576</v>
       </c>
-      <c r="B299" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C299" s="3" t="s">
+      <c r="B299" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D299" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E299" s="3">
+      <c r="E299" s="2">
         <v>46994</v>
       </c>
     </row>
+    <row r="300" s="3" customFormat="1" spans="1:5">
+      <c r="A300" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E300" s="3">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="301" s="3" customFormat="1" spans="1:5">
+      <c r="A301" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E301" s="3">
+        <v>21607</v>
+      </c>
+    </row>
+    <row r="302" s="3" customFormat="1" spans="1:5">
+      <c r="A302" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E302" s="3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="303" s="3" customFormat="1" spans="1:5">
+      <c r="A303" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303" s="3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="304" s="3" customFormat="1" spans="1:5">
+      <c r="A304" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E304" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="305" s="3" customFormat="1" spans="1:5">
+      <c r="A305" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E305" s="3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="306" s="3" customFormat="1" spans="1:5">
+      <c r="A306" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E306" s="3">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="307" s="3" customFormat="1" spans="1:5">
+      <c r="A307" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E307" s="3">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="308" s="3" customFormat="1" spans="1:5">
+      <c r="A308" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E308" s="3">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="309" s="3" customFormat="1" spans="1:5">
+      <c r="A309" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E309" s="3">
+        <v>11448</v>
+      </c>
+    </row>
+    <row r="310" s="3" customFormat="1" spans="1:5">
+      <c r="A310" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E310" s="3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="311" s="3" customFormat="1" spans="1:5">
+      <c r="A311" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E311" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="312" s="3" customFormat="1" spans="1:5">
+      <c r="A312" s="4">
+        <v>43577</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E312" s="3">
+        <v>23334</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B245">
+  <autoFilter ref="B1:B299">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$299</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$312</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="192">
   <si>
     <t>湖南</t>
   </si>
@@ -570,6 +570,30 @@
   </si>
   <si>
     <t>汽车贸易-20190419-邢总(陕西省、青海省)-1天</t>
+  </si>
+  <si>
+    <t>dt1458</t>
+  </si>
+  <si>
+    <t>股票配资-20190422-全国</t>
+  </si>
+  <si>
+    <t>dt1459</t>
+  </si>
+  <si>
+    <t>成人教育-20190422-王总优化(湖南)-5天</t>
+  </si>
+  <si>
+    <t>dt1460</t>
+  </si>
+  <si>
+    <t>现金贷-20190422-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1461</t>
+  </si>
+  <si>
+    <t>装修-20190422-邢总(四川、甘肃、黑龙江)-1天</t>
   </si>
 </sst>
 </file>
@@ -577,11 +601,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -592,8 +616,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,15 +632,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,11 +648,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,34 +708,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,38 +739,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,6 +748,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,79 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +787,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,54 +871,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -913,12 +883,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -926,6 +890,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,17 +978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -982,24 +995,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,7 +1023,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,15 +1075,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1059,10 +1083,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,133 +1095,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1578,17 +1602,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E312"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="I291" sqref="I291"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A313" sqref="$A313:$XFD328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="63.25" customWidth="1"/>
+    <col min="4" max="4" width="82.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -6674,229 +6698,501 @@
         <v>46994</v>
       </c>
     </row>
-    <row r="300" s="3" customFormat="1" spans="1:5">
+    <row r="300" s="2" customFormat="1" spans="1:5">
       <c r="A300" s="4">
         <v>43577</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E300" s="3">
+      <c r="E300" s="2">
         <v>1101</v>
       </c>
     </row>
-    <row r="301" s="3" customFormat="1" spans="1:5">
+    <row r="301" s="2" customFormat="1" spans="1:5">
       <c r="A301" s="4">
         <v>43577</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E301" s="3">
+      <c r="E301" s="2">
         <v>21607</v>
       </c>
     </row>
-    <row r="302" s="3" customFormat="1" spans="1:5">
+    <row r="302" s="2" customFormat="1" spans="1:5">
       <c r="A302" s="4">
         <v>43577</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E302" s="3">
+      <c r="E302" s="2">
         <v>772</v>
       </c>
     </row>
-    <row r="303" s="3" customFormat="1" spans="1:5">
+    <row r="303" s="2" customFormat="1" spans="1:5">
       <c r="A303" s="4">
         <v>43577</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E303" s="3">
+      <c r="E303" s="2">
         <v>634</v>
       </c>
     </row>
-    <row r="304" s="3" customFormat="1" spans="1:5">
+    <row r="304" s="2" customFormat="1" spans="1:5">
       <c r="A304" s="4">
         <v>43577</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E304" s="3">
+      <c r="E304" s="2">
         <v>243</v>
       </c>
     </row>
-    <row r="305" s="3" customFormat="1" spans="1:5">
+    <row r="305" s="2" customFormat="1" spans="1:5">
       <c r="A305" s="4">
         <v>43577</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E305" s="3">
+      <c r="E305" s="2">
         <v>780</v>
       </c>
     </row>
-    <row r="306" s="3" customFormat="1" spans="1:5">
+    <row r="306" s="2" customFormat="1" spans="1:5">
       <c r="A306" s="4">
         <v>43577</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C306" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E306" s="3">
+      <c r="E306" s="2">
         <v>5886</v>
       </c>
     </row>
-    <row r="307" s="3" customFormat="1" spans="1:5">
+    <row r="307" s="2" customFormat="1" spans="1:5">
       <c r="A307" s="4">
         <v>43577</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C307" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E307" s="3">
+      <c r="E307" s="2">
         <v>18576</v>
       </c>
     </row>
-    <row r="308" s="3" customFormat="1" spans="1:5">
+    <row r="308" s="2" customFormat="1" spans="1:5">
       <c r="A308" s="4">
         <v>43577</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C308" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E308" s="3">
+      <c r="E308" s="2">
         <v>3112</v>
       </c>
     </row>
-    <row r="309" s="3" customFormat="1" spans="1:5">
+    <row r="309" s="2" customFormat="1" spans="1:5">
       <c r="A309" s="4">
         <v>43577</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C309" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E309" s="3">
+      <c r="E309" s="2">
         <v>11448</v>
       </c>
     </row>
-    <row r="310" s="3" customFormat="1" spans="1:5">
+    <row r="310" s="2" customFormat="1" spans="1:5">
       <c r="A310" s="4">
         <v>43577</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C310" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E310" s="3">
+      <c r="E310" s="2">
         <v>261</v>
       </c>
     </row>
-    <row r="311" s="3" customFormat="1" spans="1:5">
+    <row r="311" s="2" customFormat="1" spans="1:5">
       <c r="A311" s="4">
         <v>43577</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C311" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E311" s="3">
+      <c r="E311" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="312" s="3" customFormat="1" spans="1:5">
+    <row r="312" s="2" customFormat="1" spans="1:5">
       <c r="A312" s="4">
         <v>43577</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="D312" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E312" s="3">
+      <c r="E312" s="2">
         <v>23334</v>
       </c>
     </row>
+    <row r="313" s="3" customFormat="1" spans="1:5">
+      <c r="A313" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E313" s="3">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="314" s="3" customFormat="1" spans="1:5">
+      <c r="A314" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E314" s="3">
+        <v>99636</v>
+      </c>
+    </row>
+    <row r="315" s="3" customFormat="1" spans="1:5">
+      <c r="A315" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E315" s="3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="316" s="3" customFormat="1" spans="1:5">
+      <c r="A316" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E316" s="3">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="317" s="3" customFormat="1" spans="1:5">
+      <c r="A317" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E317" s="3">
+        <v>8163</v>
+      </c>
+    </row>
+    <row r="318" s="3" customFormat="1" spans="1:5">
+      <c r="A318" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E318" s="3">
+        <v>24199</v>
+      </c>
+    </row>
+    <row r="319" s="3" customFormat="1" spans="1:5">
+      <c r="A319" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E319" s="3">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="320" s="3" customFormat="1" spans="1:5">
+      <c r="A320" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E320" s="3">
+        <v>17909</v>
+      </c>
+    </row>
+    <row r="321" s="3" customFormat="1" spans="1:5">
+      <c r="A321" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E321" s="3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="322" s="3" customFormat="1" spans="1:5">
+      <c r="A322" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E322" s="3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="323" s="3" customFormat="1" spans="1:5">
+      <c r="A323" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E323" s="3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="324" s="3" customFormat="1" spans="1:5">
+      <c r="A324" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E324" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="325" s="3" customFormat="1" spans="1:5">
+      <c r="A325" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E325" s="3">
+        <v>29371</v>
+      </c>
+    </row>
+    <row r="326" s="3" customFormat="1" spans="1:5">
+      <c r="A326" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E326" s="3">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="327" s="3" customFormat="1" spans="1:5">
+      <c r="A327" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E327" s="3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="328" s="3" customFormat="1" spans="1:5">
+      <c r="A328" s="4">
+        <v>43578</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E328" s="3">
+        <v>1501</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B299">
+  <autoFilter ref="B1:B312">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$312</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$328</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="204">
   <si>
     <t>湖南</t>
   </si>
@@ -594,6 +594,42 @@
   </si>
   <si>
     <t>装修-20190422-邢总(四川、甘肃、黑龙江)-1天</t>
+  </si>
+  <si>
+    <t>dt1466</t>
+  </si>
+  <si>
+    <t>投资理财G-20190423-全国</t>
+  </si>
+  <si>
+    <t>dt1467</t>
+  </si>
+  <si>
+    <t>手游G-20190423-全国</t>
+  </si>
+  <si>
+    <t>dt1468</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20190423-吴总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1469</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20190423-邢总(河南、陕西、山西、四川、重庆、甘肃、湖北)-1天</t>
+  </si>
+  <si>
+    <t>dt1470</t>
+  </si>
+  <si>
+    <t>手机游戏-20190423-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
+  </si>
+  <si>
+    <t>dt1471</t>
+  </si>
+  <si>
+    <t>装修-20190423-邢总(陕西省)-3天</t>
   </si>
 </sst>
 </file>
@@ -601,11 +637,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -616,72 +652,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,22 +673,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,9 +689,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,16 +750,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,7 +805,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +901,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +943,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,43 +973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,97 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,6 +1014,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -995,11 +1046,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,18 +1079,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,17 +1103,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,10 +1119,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,133 +1131,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1602,17 +1638,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:E352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A313" sqref="$A313:$XFD328"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="G328" sqref="G328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="82.625" customWidth="1"/>
+    <col min="4" max="4" width="87.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -6919,280 +6955,688 @@
         <v>23334</v>
       </c>
     </row>
-    <row r="313" s="3" customFormat="1" spans="1:5">
+    <row r="313" s="2" customFormat="1" spans="1:5">
       <c r="A313" s="4">
         <v>43578</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C313" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D313" s="3" t="s">
+      <c r="D313" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E313" s="3">
+      <c r="E313" s="2">
         <v>2789</v>
       </c>
     </row>
-    <row r="314" s="3" customFormat="1" spans="1:5">
+    <row r="314" s="2" customFormat="1" spans="1:5">
       <c r="A314" s="4">
         <v>43578</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="D314" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E314" s="3">
+      <c r="E314" s="2">
         <v>99636</v>
       </c>
     </row>
-    <row r="315" s="3" customFormat="1" spans="1:5">
+    <row r="315" s="2" customFormat="1" spans="1:5">
       <c r="A315" s="4">
         <v>43578</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C315" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E315" s="3">
+      <c r="E315" s="2">
         <v>639</v>
       </c>
     </row>
-    <row r="316" s="3" customFormat="1" spans="1:5">
+    <row r="316" s="2" customFormat="1" spans="1:5">
       <c r="A316" s="4">
         <v>43578</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E316" s="3">
+      <c r="E316" s="2">
         <v>2438</v>
       </c>
     </row>
-    <row r="317" s="3" customFormat="1" spans="1:5">
+    <row r="317" s="2" customFormat="1" spans="1:5">
       <c r="A317" s="4">
         <v>43578</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E317" s="3">
+      <c r="E317" s="2">
         <v>8163</v>
       </c>
     </row>
-    <row r="318" s="3" customFormat="1" spans="1:5">
+    <row r="318" s="2" customFormat="1" spans="1:5">
       <c r="A318" s="4">
         <v>43578</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E318" s="3">
+      <c r="E318" s="2">
         <v>24199</v>
       </c>
     </row>
-    <row r="319" s="3" customFormat="1" spans="1:5">
+    <row r="319" s="2" customFormat="1" spans="1:5">
       <c r="A319" s="4">
         <v>43578</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E319" s="3">
+      <c r="E319" s="2">
         <v>5168</v>
       </c>
     </row>
-    <row r="320" s="3" customFormat="1" spans="1:5">
+    <row r="320" s="2" customFormat="1" spans="1:5">
       <c r="A320" s="4">
         <v>43578</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E320" s="3">
+      <c r="E320" s="2">
         <v>17909</v>
       </c>
     </row>
-    <row r="321" s="3" customFormat="1" spans="1:5">
+    <row r="321" s="2" customFormat="1" spans="1:5">
       <c r="A321" s="4">
         <v>43578</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E321" s="3">
+      <c r="E321" s="2">
         <v>562</v>
       </c>
     </row>
-    <row r="322" s="3" customFormat="1" spans="1:5">
+    <row r="322" s="2" customFormat="1" spans="1:5">
       <c r="A322" s="4">
         <v>43578</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D322" s="3" t="s">
+      <c r="D322" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E322" s="3">
+      <c r="E322" s="2">
         <v>261</v>
       </c>
     </row>
-    <row r="323" s="3" customFormat="1" spans="1:5">
+    <row r="323" s="2" customFormat="1" spans="1:5">
       <c r="A323" s="4">
         <v>43578</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D323" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E323" s="3">
+      <c r="E323" s="2">
         <v>1142</v>
       </c>
     </row>
-    <row r="324" s="3" customFormat="1" spans="1:5">
+    <row r="324" s="2" customFormat="1" spans="1:5">
       <c r="A324" s="4">
         <v>43578</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="D324" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E324" s="3">
+      <c r="E324" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="325" s="3" customFormat="1" spans="1:5">
+    <row r="325" s="2" customFormat="1" spans="1:5">
       <c r="A325" s="4">
         <v>43578</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C325" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D325" s="3" t="s">
+      <c r="D325" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E325" s="3">
+      <c r="E325" s="2">
         <v>29371</v>
       </c>
     </row>
-    <row r="326" s="3" customFormat="1" spans="1:5">
+    <row r="326" s="2" customFormat="1" spans="1:5">
       <c r="A326" s="4">
         <v>43578</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="D326" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E326" s="3">
+      <c r="E326" s="2">
         <v>2349</v>
       </c>
     </row>
-    <row r="327" s="3" customFormat="1" spans="1:5">
+    <row r="327" s="2" customFormat="1" spans="1:5">
       <c r="A327" s="4">
         <v>43578</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C327" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D327" s="3" t="s">
+      <c r="D327" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E327" s="3">
+      <c r="E327" s="2">
         <v>688</v>
       </c>
     </row>
-    <row r="328" s="3" customFormat="1" spans="1:5">
+    <row r="328" s="2" customFormat="1" spans="1:5">
       <c r="A328" s="4">
         <v>43578</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C328" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="D328" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E328" s="3">
+      <c r="E328" s="2">
         <v>1501</v>
       </c>
     </row>
+    <row r="329" s="3" customFormat="1" spans="1:5">
+      <c r="A329" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E329" s="3">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="330" s="3" customFormat="1" spans="1:5">
+      <c r="A330" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E330" s="3">
+        <v>6632</v>
+      </c>
+    </row>
+    <row r="331" s="3" customFormat="1" spans="1:5">
+      <c r="A331" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E331" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" s="3" customFormat="1" spans="1:5">
+      <c r="A332" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D332" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E332" s="3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="333" s="3" customFormat="1" spans="1:5">
+      <c r="A333" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E333" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="334" s="3" customFormat="1" spans="1:5">
+      <c r="A334" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E334" s="3">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="335" s="3" customFormat="1" spans="1:5">
+      <c r="A335" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E335" s="3">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="336" s="3" customFormat="1" spans="1:5">
+      <c r="A336" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E336" s="3">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="337" s="3" customFormat="1" spans="1:5">
+      <c r="A337" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E337" s="3">
+        <v>27818</v>
+      </c>
+    </row>
+    <row r="338" s="3" customFormat="1" spans="1:5">
+      <c r="A338" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E338" s="3">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="339" s="3" customFormat="1" spans="1:5">
+      <c r="A339" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E339" s="3">
+        <v>20133</v>
+      </c>
+    </row>
+    <row r="340" s="3" customFormat="1" spans="1:5">
+      <c r="A340" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E340" s="3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="341" s="3" customFormat="1" spans="1:5">
+      <c r="A341" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E341" s="3">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="342" s="3" customFormat="1" spans="1:5">
+      <c r="A342" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E342" s="3">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="343" s="3" customFormat="1" spans="1:5">
+      <c r="A343" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E343" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="344" s="3" customFormat="1" spans="1:5">
+      <c r="A344" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E344" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="345" s="3" customFormat="1" spans="1:5">
+      <c r="A345" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E345" s="3">
+        <v>31279</v>
+      </c>
+    </row>
+    <row r="346" s="3" customFormat="1" spans="1:5">
+      <c r="A346" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E346" s="3">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="347" s="3" customFormat="1" spans="1:5">
+      <c r="A347" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E347" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="348" s="3" customFormat="1" spans="1:5">
+      <c r="A348" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E348" s="3">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="349" s="3" customFormat="1" spans="1:5">
+      <c r="A349" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E349" s="3">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="350" s="3" customFormat="1" spans="1:5">
+      <c r="A350" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E350" s="3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="351" s="3" customFormat="1" spans="1:5">
+      <c r="A351" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E351" s="3">
+        <v>7241</v>
+      </c>
+    </row>
+    <row r="352" s="3" customFormat="1" spans="1:5">
+      <c r="A352" s="4">
+        <v>43579</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E352" s="3">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B312">
+  <autoFilter ref="B1:B328">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$328</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$352</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="220">
   <si>
     <t>湖南</t>
   </si>
@@ -630,6 +630,54 @@
   </si>
   <si>
     <t>装修-20190423-邢总(陕西省)-3天</t>
+  </si>
+  <si>
+    <t>dt1477</t>
+  </si>
+  <si>
+    <t>贷款G-20190424-河南郑州</t>
+  </si>
+  <si>
+    <t>dt1478</t>
+  </si>
+  <si>
+    <t>股民G-20190424-全国（除河北）</t>
+  </si>
+  <si>
+    <t>dt1479</t>
+  </si>
+  <si>
+    <t>股票G-20190424-除去上海，广东，北京，新疆，西藏</t>
+  </si>
+  <si>
+    <t>dt1480</t>
+  </si>
+  <si>
+    <t>广场舞G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1481</t>
+  </si>
+  <si>
+    <t>理财G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1482</t>
+  </si>
+  <si>
+    <t>手机游戏G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1483</t>
+  </si>
+  <si>
+    <t>育婴健身G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1484</t>
+  </si>
+  <si>
+    <t>手机游戏-20190424-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
   </si>
 </sst>
 </file>
@@ -637,9 +685,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -652,8 +700,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,25 +762,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,9 +775,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,45 +790,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -760,7 +815,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,17 +837,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -805,13 +853,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,61 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,55 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,7 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,25 +967,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,6 +1062,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1025,6 +1084,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,65 +1159,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1119,10 +1167,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,133 +1179,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1638,17 +1686,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E352"/>
+  <dimension ref="A1:E382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="G328" sqref="G328"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="G357" sqref="G357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="87.25" customWidth="1"/>
+    <col min="4" max="4" width="78.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -7227,416 +7275,898 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="329" s="3" customFormat="1" spans="1:5">
+    <row r="329" s="2" customFormat="1" spans="1:5">
       <c r="A329" s="4">
         <v>43579</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C329" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E329" s="3">
+      <c r="E329" s="2">
         <v>4060</v>
       </c>
     </row>
-    <row r="330" s="3" customFormat="1" spans="1:5">
+    <row r="330" s="2" customFormat="1" spans="1:5">
       <c r="A330" s="4">
         <v>43579</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D330" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E330" s="3">
+      <c r="E330" s="2">
         <v>6632</v>
       </c>
     </row>
-    <row r="331" s="3" customFormat="1" spans="1:5">
+    <row r="331" s="2" customFormat="1" spans="1:5">
       <c r="A331" s="4">
         <v>43579</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="D331" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E331" s="3">
+      <c r="E331" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="332" s="3" customFormat="1" spans="1:5">
+    <row r="332" s="2" customFormat="1" spans="1:5">
       <c r="A332" s="4">
         <v>43579</v>
       </c>
-      <c r="B332" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C332" s="3" t="s">
+      <c r="B332" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D332" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E332" s="3">
+      <c r="E332" s="2">
         <v>786</v>
       </c>
     </row>
-    <row r="333" s="3" customFormat="1" spans="1:5">
+    <row r="333" s="2" customFormat="1" spans="1:5">
       <c r="A333" s="4">
         <v>43579</v>
       </c>
-      <c r="B333" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C333" s="3" t="s">
+      <c r="B333" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E333" s="3">
+      <c r="E333" s="2">
         <v>560</v>
       </c>
     </row>
-    <row r="334" s="3" customFormat="1" spans="1:5">
+    <row r="334" s="2" customFormat="1" spans="1:5">
       <c r="A334" s="4">
         <v>43579</v>
       </c>
-      <c r="B334" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C334" s="3" t="s">
+      <c r="B334" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E334" s="3">
+      <c r="E334" s="2">
         <v>2889</v>
       </c>
     </row>
-    <row r="335" s="3" customFormat="1" spans="1:5">
+    <row r="335" s="2" customFormat="1" spans="1:5">
       <c r="A335" s="4">
         <v>43579</v>
       </c>
-      <c r="B335" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C335" s="3" t="s">
+      <c r="B335" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="D335" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E335" s="3">
+      <c r="E335" s="2">
         <v>2943</v>
       </c>
     </row>
-    <row r="336" s="3" customFormat="1" spans="1:5">
+    <row r="336" s="2" customFormat="1" spans="1:5">
       <c r="A336" s="4">
         <v>43579</v>
       </c>
-      <c r="B336" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C336" s="3" t="s">
+      <c r="B336" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E336" s="3">
+      <c r="E336" s="2">
         <v>8290</v>
       </c>
     </row>
-    <row r="337" s="3" customFormat="1" spans="1:5">
+    <row r="337" s="2" customFormat="1" spans="1:5">
       <c r="A337" s="4">
         <v>43579</v>
       </c>
-      <c r="B337" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C337" s="3" t="s">
+      <c r="B337" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E337" s="3">
+      <c r="E337" s="2">
         <v>27818</v>
       </c>
     </row>
-    <row r="338" s="3" customFormat="1" spans="1:5">
+    <row r="338" s="2" customFormat="1" spans="1:5">
       <c r="A338" s="4">
         <v>43579</v>
       </c>
-      <c r="B338" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C338" s="3" t="s">
+      <c r="B338" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E338" s="3">
+      <c r="E338" s="2">
         <v>5423</v>
       </c>
     </row>
-    <row r="339" s="3" customFormat="1" spans="1:5">
+    <row r="339" s="2" customFormat="1" spans="1:5">
       <c r="A339" s="4">
         <v>43579</v>
       </c>
-      <c r="B339" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C339" s="3" t="s">
+      <c r="B339" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E339" s="3">
+      <c r="E339" s="2">
         <v>20133</v>
       </c>
     </row>
-    <row r="340" s="3" customFormat="1" spans="1:5">
+    <row r="340" s="2" customFormat="1" spans="1:5">
       <c r="A340" s="4">
         <v>43579</v>
       </c>
-      <c r="B340" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C340" s="3" t="s">
+      <c r="B340" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E340" s="3">
+      <c r="E340" s="2">
         <v>605</v>
       </c>
     </row>
-    <row r="341" s="3" customFormat="1" spans="1:5">
+    <row r="341" s="2" customFormat="1" spans="1:5">
       <c r="A341" s="4">
         <v>43579</v>
       </c>
-      <c r="B341" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C341" s="3" t="s">
+      <c r="B341" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D341" s="3" t="s">
+      <c r="D341" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E341" s="3">
+      <c r="E341" s="2">
         <v>1445</v>
       </c>
     </row>
-    <row r="342" s="3" customFormat="1" spans="1:5">
+    <row r="342" s="2" customFormat="1" spans="1:5">
       <c r="A342" s="4">
         <v>43579</v>
       </c>
-      <c r="B342" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C342" s="3" t="s">
+      <c r="B342" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E342" s="3">
+      <c r="E342" s="2">
         <v>1407</v>
       </c>
     </row>
-    <row r="343" s="3" customFormat="1" spans="1:5">
+    <row r="343" s="2" customFormat="1" spans="1:5">
       <c r="A343" s="4">
         <v>43579</v>
       </c>
-      <c r="B343" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C343" s="3" t="s">
+      <c r="B343" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E343" s="3">
+      <c r="E343" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="344" s="3" customFormat="1" spans="1:5">
+    <row r="344" s="2" customFormat="1" spans="1:5">
       <c r="A344" s="4">
         <v>43579</v>
       </c>
-      <c r="B344" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C344" s="3" t="s">
+      <c r="B344" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D344" s="3" t="s">
+      <c r="D344" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E344" s="3">
+      <c r="E344" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="345" s="3" customFormat="1" spans="1:5">
+    <row r="345" s="2" customFormat="1" spans="1:5">
       <c r="A345" s="4">
         <v>43579</v>
       </c>
-      <c r="B345" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C345" s="3" t="s">
+      <c r="B345" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E345" s="3">
+      <c r="E345" s="2">
         <v>31279</v>
       </c>
     </row>
-    <row r="346" s="3" customFormat="1" spans="1:5">
+    <row r="346" s="2" customFormat="1" spans="1:5">
       <c r="A346" s="4">
         <v>43579</v>
       </c>
-      <c r="B346" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C346" s="3" t="s">
+      <c r="B346" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D346" s="3" t="s">
+      <c r="D346" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E346" s="3">
+      <c r="E346" s="2">
         <v>3287</v>
       </c>
     </row>
-    <row r="347" s="3" customFormat="1" spans="1:5">
+    <row r="347" s="2" customFormat="1" spans="1:5">
       <c r="A347" s="4">
         <v>43579</v>
       </c>
-      <c r="B347" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C347" s="3" t="s">
+      <c r="B347" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D347" s="3" t="s">
+      <c r="D347" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E347" s="3">
+      <c r="E347" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="348" s="3" customFormat="1" spans="1:5">
+    <row r="348" s="2" customFormat="1" spans="1:5">
       <c r="A348" s="4">
         <v>43579</v>
       </c>
-      <c r="B348" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C348" s="3" t="s">
+      <c r="B348" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E348" s="3">
+      <c r="E348" s="2">
         <v>2267</v>
       </c>
     </row>
-    <row r="349" s="3" customFormat="1" spans="1:5">
+    <row r="349" s="2" customFormat="1" spans="1:5">
       <c r="A349" s="4">
         <v>43579</v>
       </c>
-      <c r="B349" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C349" s="3" t="s">
+      <c r="B349" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D349" s="3" t="s">
+      <c r="D349" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E349" s="3">
+      <c r="E349" s="2">
         <v>3525</v>
       </c>
     </row>
-    <row r="350" s="3" customFormat="1" spans="1:5">
+    <row r="350" s="2" customFormat="1" spans="1:5">
       <c r="A350" s="4">
         <v>43579</v>
       </c>
-      <c r="B350" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C350" s="3" t="s">
+      <c r="B350" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D350" s="3" t="s">
+      <c r="D350" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E350" s="3">
+      <c r="E350" s="2">
         <v>539</v>
       </c>
     </row>
-    <row r="351" s="3" customFormat="1" spans="1:5">
+    <row r="351" s="2" customFormat="1" spans="1:5">
       <c r="A351" s="4">
         <v>43579</v>
       </c>
-      <c r="B351" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C351" s="3" t="s">
+      <c r="B351" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D351" s="3" t="s">
+      <c r="D351" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E351" s="3">
+      <c r="E351" s="2">
         <v>7241</v>
       </c>
     </row>
-    <row r="352" s="3" customFormat="1" spans="1:5">
+    <row r="352" s="2" customFormat="1" spans="1:5">
       <c r="A352" s="4">
         <v>43579</v>
       </c>
-      <c r="B352" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C352" s="3" t="s">
+      <c r="B352" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C352" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D352" s="3" t="s">
+      <c r="D352" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E352" s="3">
+      <c r="E352" s="2">
         <v>256</v>
       </c>
     </row>
+    <row r="353" s="3" customFormat="1" spans="1:5">
+      <c r="A353" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E353" s="3">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="354" s="3" customFormat="1" spans="1:5">
+      <c r="A354" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E354" s="3">
+        <v>29598</v>
+      </c>
+    </row>
+    <row r="355" s="3" customFormat="1" spans="1:5">
+      <c r="A355" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E355" s="3">
+        <v>99232</v>
+      </c>
+    </row>
+    <row r="356" s="3" customFormat="1" spans="1:5">
+      <c r="A356" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E356" s="3">
+        <v>99276</v>
+      </c>
+    </row>
+    <row r="357" s="3" customFormat="1" spans="1:5">
+      <c r="A357" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E357" s="3">
+        <v>98785</v>
+      </c>
+    </row>
+    <row r="358" s="3" customFormat="1" spans="1:5">
+      <c r="A358" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E358" s="3">
+        <v>98730</v>
+      </c>
+    </row>
+    <row r="359" s="3" customFormat="1" spans="1:5">
+      <c r="A359" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E359" s="3">
+        <v>26805</v>
+      </c>
+    </row>
+    <row r="360" s="3" customFormat="1" spans="1:5">
+      <c r="A360" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E360" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="361" s="3" customFormat="1" spans="1:5">
+      <c r="A361" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E361" s="3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="362" s="3" customFormat="1" spans="1:5">
+      <c r="A362" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E362" s="3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="363" s="3" customFormat="1" spans="1:5">
+      <c r="A363" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E363" s="3">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="364" s="3" customFormat="1" spans="1:5">
+      <c r="A364" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E364" s="3">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="365" s="3" customFormat="1" spans="1:5">
+      <c r="A365" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E365" s="3">
+        <v>17594</v>
+      </c>
+    </row>
+    <row r="366" s="3" customFormat="1" spans="1:5">
+      <c r="A366" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E366" s="3">
+        <v>32361</v>
+      </c>
+    </row>
+    <row r="367" s="3" customFormat="1" spans="1:5">
+      <c r="A367" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E367" s="3">
+        <v>10893</v>
+      </c>
+    </row>
+    <row r="368" s="3" customFormat="1" spans="1:5">
+      <c r="A368" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E368" s="3">
+        <v>9594</v>
+      </c>
+    </row>
+    <row r="369" s="3" customFormat="1" spans="1:5">
+      <c r="A369" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E369" s="3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="370" s="3" customFormat="1" spans="1:5">
+      <c r="A370" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E370" s="3">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="371" s="3" customFormat="1" spans="1:5">
+      <c r="A371" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E371" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="372" s="3" customFormat="1" spans="1:5">
+      <c r="A372" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E372" s="3">
+        <v>36468</v>
+      </c>
+    </row>
+    <row r="373" s="3" customFormat="1" spans="1:5">
+      <c r="A373" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E373" s="3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="374" s="3" customFormat="1" spans="1:5">
+      <c r="A374" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E374" s="3">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="375" s="3" customFormat="1" spans="1:5">
+      <c r="A375" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E375" s="3">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="376" s="3" customFormat="1" spans="1:5">
+      <c r="A376" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E376" s="3">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="377" s="3" customFormat="1" spans="1:5">
+      <c r="A377" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E377" s="3">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="378" s="3" customFormat="1" spans="1:5">
+      <c r="A378" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E378" s="3">
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="379" s="3" customFormat="1" spans="1:5">
+      <c r="A379" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E379" s="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="380" s="3" customFormat="1" spans="1:5">
+      <c r="A380" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E380" s="3">
+        <v>8771</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="4"/>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B328">
+  <autoFilter ref="B1:B352">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$352</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$380</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="240">
   <si>
     <t>湖南</t>
   </si>
@@ -678,6 +678,66 @@
   </si>
   <si>
     <t>手机游戏-20190424-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
+  </si>
+  <si>
+    <t>dt1501</t>
+  </si>
+  <si>
+    <t>投资理财GJ-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1500</t>
+  </si>
+  <si>
+    <t>汽车G-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1499</t>
+  </si>
+  <si>
+    <t>股票配资CG-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1498</t>
+  </si>
+  <si>
+    <t>股票G-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1502</t>
+  </si>
+  <si>
+    <t>k12-20190425-曹总(湖南、湖北、江西、安徽)-1天</t>
+  </si>
+  <si>
+    <t>dt1503</t>
+  </si>
+  <si>
+    <t>保健-20190425-邢总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1504</t>
+  </si>
+  <si>
+    <t>贷款-20190425-先总(广东、湖南、湖北、浙江、江苏、四川、陕西)-1天</t>
+  </si>
+  <si>
+    <t>dt1505</t>
+  </si>
+  <si>
+    <t>交友-20190425-韩总(湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1511</t>
+  </si>
+  <si>
+    <t>POS推广-20190426-优化(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1512</t>
+  </si>
+  <si>
+    <t>股票-20190426-华总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -687,8 +747,8 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
@@ -700,17 +760,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,9 +783,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -740,7 +828,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,44 +858,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -813,34 +881,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -853,13 +913,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,85 +967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,61 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1003,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,10 +1124,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1088,26 +1146,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,23 +1179,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,8 +1188,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,10 +1227,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,137 +1239,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1318,6 +1378,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,6 +1399,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1686,72 +1755,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E382"/>
+  <dimension ref="A1:E425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="G357" sqref="G357"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="H381" sqref="H381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="78.25" customWidth="1"/>
+    <col min="4" max="4" width="133.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="4">
+      <c r="A1" s="5">
         <v>43556</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="7">
         <v>1810</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43556</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>128</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43556</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>7491</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43557</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1768,7 +1837,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>43557</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1785,7 +1854,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:5">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>43557</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1794,7 +1863,7 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2">
@@ -1802,7 +1871,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:5">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>43557</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1811,7 +1880,7 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="2">
@@ -1819,7 +1888,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:5">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>43557</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1828,7 +1897,7 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2">
@@ -1836,7 +1905,7 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:5">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>43557</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1845,7 +1914,7 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2">
@@ -1853,7 +1922,7 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:5">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>43557</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1862,7 +1931,7 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2">
@@ -1870,7 +1939,7 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:5">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>43557</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1879,7 +1948,7 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2">
@@ -1887,7 +1956,7 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:5">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>43557</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1896,7 +1965,7 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="2">
@@ -1904,7 +1973,7 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:5">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>43557</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1913,7 +1982,7 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="2">
@@ -1921,7 +1990,7 @@
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:5">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>43557</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1930,7 +1999,7 @@
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="2">
@@ -1938,7 +2007,7 @@
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:5">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>43557</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1947,7 +2016,7 @@
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2">
@@ -1955,7 +2024,7 @@
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:5">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>43557</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1964,7 +2033,7 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="2">
@@ -1972,7 +2041,7 @@
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:5">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>43557</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1989,7 +2058,7 @@
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:5">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>43557</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2006,7 +2075,7 @@
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:5">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>43557</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2023,7 +2092,7 @@
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:5">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>43557</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2040,7 +2109,7 @@
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:5">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>43557</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2049,7 +2118,7 @@
       <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="2">
@@ -2057,7 +2126,7 @@
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:5">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>43558</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2066,7 +2135,7 @@
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="2">
@@ -2074,7 +2143,7 @@
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:5">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>43558</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2083,7 +2152,7 @@
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="2">
@@ -2091,7 +2160,7 @@
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:5">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>43558</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2100,7 +2169,7 @@
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="2">
@@ -2108,7 +2177,7 @@
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:5">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>43558</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2117,7 +2186,7 @@
       <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="2">
@@ -2125,7 +2194,7 @@
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:5">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>43558</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2134,7 +2203,7 @@
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="2">
@@ -2142,7 +2211,7 @@
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:5">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>43558</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2151,7 +2220,7 @@
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="2">
@@ -2159,7 +2228,7 @@
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:5">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>43558</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2168,7 +2237,7 @@
       <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="2">
@@ -2176,7 +2245,7 @@
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:5">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>43558</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2185,7 +2254,7 @@
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="2">
@@ -2193,7 +2262,7 @@
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:5">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>43558</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2202,7 +2271,7 @@
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="2">
@@ -2210,7 +2279,7 @@
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:5">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>43558</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2227,7 +2296,7 @@
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:5">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>43558</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2244,7 +2313,7 @@
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:5">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>43558</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2261,7 +2330,7 @@
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:5">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>43558</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2278,7 +2347,7 @@
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:5">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>43558</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2295,7 +2364,7 @@
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:5">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>43558</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2312,7 +2381,7 @@
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:5">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>43559</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2321,7 +2390,7 @@
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2">
@@ -2329,7 +2398,7 @@
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:5">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>43559</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2338,7 +2407,7 @@
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="2">
@@ -2346,7 +2415,7 @@
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:5">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>43559</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2355,7 +2424,7 @@
       <c r="C39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="2">
@@ -2363,7 +2432,7 @@
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:5">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>43559</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2372,7 +2441,7 @@
       <c r="C40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="2">
@@ -2380,7 +2449,7 @@
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:5">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>43559</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2389,7 +2458,7 @@
       <c r="C41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="2">
@@ -2397,7 +2466,7 @@
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:5">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>43559</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2406,7 +2475,7 @@
       <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="2">
@@ -2414,7 +2483,7 @@
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:5">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>43559</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2423,7 +2492,7 @@
       <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="2">
@@ -2431,7 +2500,7 @@
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:5">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>43559</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2440,7 +2509,7 @@
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="2">
@@ -2448,7 +2517,7 @@
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:5">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>43559</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2457,7 +2526,7 @@
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="2">
@@ -2465,7 +2534,7 @@
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:5">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>43559</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2482,7 +2551,7 @@
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:5">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>43559</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2499,7 +2568,7 @@
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:5">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>43559</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2516,7 +2585,7 @@
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:5">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>43559</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2533,7 +2602,7 @@
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:5">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>43559</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2550,7 +2619,7 @@
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:5">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>43559</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2567,7 +2636,7 @@
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:5">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>43560</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2576,7 +2645,7 @@
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="2">
@@ -2584,7 +2653,7 @@
       </c>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:5">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>43560</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2593,7 +2662,7 @@
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="2">
@@ -2601,7 +2670,7 @@
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:5">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>43560</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2610,7 +2679,7 @@
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="2">
@@ -2618,7 +2687,7 @@
       </c>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:5">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>43560</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2627,7 +2696,7 @@
       <c r="C55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="2">
@@ -2635,7 +2704,7 @@
       </c>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:5">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>43560</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2644,7 +2713,7 @@
       <c r="C56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="2">
@@ -2652,7 +2721,7 @@
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:5">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>43560</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2661,7 +2730,7 @@
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="2">
@@ -2669,7 +2738,7 @@
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:5">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>43560</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2678,7 +2747,7 @@
       <c r="C58" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="2">
@@ -2686,7 +2755,7 @@
       </c>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:5">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>43560</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2703,7 +2772,7 @@
       </c>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:5">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>43560</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2720,7 +2789,7 @@
       </c>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:5">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>43560</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2737,7 +2806,7 @@
       </c>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:5">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>43560</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2754,7 +2823,7 @@
       </c>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:5">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>43560</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2771,7 +2840,7 @@
       </c>
     </row>
     <row r="64" s="2" customFormat="1" spans="1:5">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>43560</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2788,7 +2857,7 @@
       </c>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:5">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>43560</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2805,7 +2874,7 @@
       </c>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:5">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <v>43560</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2822,7 +2891,7 @@
       </c>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:5">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>43560</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2839,7 +2908,7 @@
       </c>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:5">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>43560</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2848,7 +2917,7 @@
       <c r="C68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="10" t="s">
         <v>65</v>
       </c>
       <c r="E68" s="2">
@@ -2856,7 +2925,7 @@
       </c>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:5">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>43560</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2865,7 +2934,7 @@
       <c r="C69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="10" t="s">
         <v>67</v>
       </c>
       <c r="E69" s="2">
@@ -2873,7 +2942,7 @@
       </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:5">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>43560</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2890,7 +2959,7 @@
       </c>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:5">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>43561</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -2899,7 +2968,7 @@
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="2">
@@ -2907,7 +2976,7 @@
       </c>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:5">
-      <c r="A72" s="4">
+      <c r="A72" s="5">
         <v>43561</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2916,7 +2985,7 @@
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="2">
@@ -2924,7 +2993,7 @@
       </c>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:5">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>43561</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -2933,7 +3002,7 @@
       <c r="C73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E73" s="2">
@@ -2941,7 +3010,7 @@
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:5">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>43561</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -2950,7 +3019,7 @@
       <c r="C74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="2">
@@ -2958,7 +3027,7 @@
       </c>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:5">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>43561</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -2967,7 +3036,7 @@
       <c r="C75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="2">
@@ -2975,7 +3044,7 @@
       </c>
     </row>
     <row r="76" s="2" customFormat="1" spans="1:5">
-      <c r="A76" s="4">
+      <c r="A76" s="5">
         <v>43561</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2992,7 +3061,7 @@
       </c>
     </row>
     <row r="77" s="2" customFormat="1" spans="1:5">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>43561</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3009,7 +3078,7 @@
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:5">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>43561</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3026,7 +3095,7 @@
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:5">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>43561</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3043,7 +3112,7 @@
       </c>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:5">
-      <c r="A80" s="4">
+      <c r="A80" s="5">
         <v>43561</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3060,7 +3129,7 @@
       </c>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:5">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>43561</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3077,7 +3146,7 @@
       </c>
     </row>
     <row r="82" s="2" customFormat="1" spans="1:5">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>43561</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3086,7 +3155,7 @@
       <c r="C82" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="10" t="s">
         <v>67</v>
       </c>
       <c r="E82" s="2">
@@ -3094,7 +3163,7 @@
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:5">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>43562</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3103,7 +3172,7 @@
       <c r="C83" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="10" t="s">
         <v>67</v>
       </c>
       <c r="E83" s="2">
@@ -3111,7 +3180,7 @@
       </c>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:5">
-      <c r="A84" s="4">
+      <c r="A84" s="5">
         <v>43562</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3120,7 +3189,7 @@
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E84" s="2">
@@ -3128,7 +3197,7 @@
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:5">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>43562</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3137,7 +3206,7 @@
       <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E85" s="2">
@@ -3145,7 +3214,7 @@
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:5">
-      <c r="A86" s="4">
+      <c r="A86" s="5">
         <v>43562</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3154,7 +3223,7 @@
       <c r="C86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="2">
@@ -3162,7 +3231,7 @@
       </c>
     </row>
     <row r="87" s="2" customFormat="1" spans="1:5">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>43562</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3179,7 +3248,7 @@
       </c>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:5">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>43562</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3196,7 +3265,7 @@
       </c>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:5">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>43562</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3213,7 +3282,7 @@
       </c>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:5">
-      <c r="A90" s="4">
+      <c r="A90" s="5">
         <v>43563</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3222,7 +3291,7 @@
       <c r="C90" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="10" t="s">
         <v>67</v>
       </c>
       <c r="E90" s="2">
@@ -3230,7 +3299,7 @@
       </c>
     </row>
     <row r="91" s="2" customFormat="1" spans="1:5">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>43563</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3239,7 +3308,7 @@
       <c r="C91" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="2">
@@ -3247,7 +3316,7 @@
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:5">
-      <c r="A92" s="4">
+      <c r="A92" s="5">
         <v>43563</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3264,7 +3333,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>43564</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3273,7 +3342,7 @@
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="2">
@@ -3281,7 +3350,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="4">
+      <c r="A94" s="5">
         <v>43564</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3290,7 +3359,7 @@
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E94" s="2">
@@ -3298,7 +3367,7 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="4">
+      <c r="A95" s="5">
         <v>43564</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3307,7 +3376,7 @@
       <c r="C95" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E95" s="2">
@@ -3315,7 +3384,7 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="4">
+      <c r="A96" s="5">
         <v>43564</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3324,7 +3393,7 @@
       <c r="C96" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="2">
@@ -3332,7 +3401,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="4">
+      <c r="A97" s="5">
         <v>43564</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3341,7 +3410,7 @@
       <c r="C97" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="2">
@@ -3349,7 +3418,7 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="4">
+      <c r="A98" s="5">
         <v>43564</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3358,7 +3427,7 @@
       <c r="C98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E98" s="2">
@@ -3366,7 +3435,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>43564</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3383,7 +3452,7 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="4">
+      <c r="A100" s="5">
         <v>43564</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3400,7 +3469,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="4">
+      <c r="A101" s="5">
         <v>43564</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3417,7 +3486,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="4">
+      <c r="A102" s="5">
         <v>43564</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3434,7 +3503,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="4">
+      <c r="A103" s="5">
         <v>43564</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -3451,7 +3520,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="4">
+      <c r="A104" s="5">
         <v>43564</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -3468,7 +3537,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="4">
+      <c r="A105" s="5">
         <v>43564</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -3485,7 +3554,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="4">
+      <c r="A106" s="5">
         <v>43564</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -3502,7 +3571,7 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="4">
+      <c r="A107" s="5">
         <v>43564</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3519,7 +3588,7 @@
       </c>
     </row>
     <row r="108" s="2" customFormat="1" spans="1:5">
-      <c r="A108" s="4">
+      <c r="A108" s="5">
         <v>43565</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3528,7 +3597,7 @@
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E108" s="2">
@@ -3536,7 +3605,7 @@
       </c>
     </row>
     <row r="109" s="2" customFormat="1" spans="1:5">
-      <c r="A109" s="4">
+      <c r="A109" s="5">
         <v>43565</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -3545,7 +3614,7 @@
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E109" s="2">
@@ -3553,7 +3622,7 @@
       </c>
     </row>
     <row r="110" s="2" customFormat="1" spans="1:5">
-      <c r="A110" s="4">
+      <c r="A110" s="5">
         <v>43565</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -3562,7 +3631,7 @@
       <c r="C110" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E110" s="2">
@@ -3570,7 +3639,7 @@
       </c>
     </row>
     <row r="111" s="2" customFormat="1" spans="1:5">
-      <c r="A111" s="4">
+      <c r="A111" s="5">
         <v>43565</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -3579,7 +3648,7 @@
       <c r="C111" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E111" s="2">
@@ -3587,7 +3656,7 @@
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:5">
-      <c r="A112" s="4">
+      <c r="A112" s="5">
         <v>43565</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -3596,7 +3665,7 @@
       <c r="C112" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E112" s="2">
@@ -3604,7 +3673,7 @@
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:5">
-      <c r="A113" s="4">
+      <c r="A113" s="5">
         <v>43565</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -3613,7 +3682,7 @@
       <c r="C113" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E113" s="2">
@@ -3621,7 +3690,7 @@
       </c>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:5">
-      <c r="A114" s="4">
+      <c r="A114" s="5">
         <v>43565</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -3630,7 +3699,7 @@
       <c r="C114" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E114" s="2">
@@ -3638,7 +3707,7 @@
       </c>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:5">
-      <c r="A115" s="4">
+      <c r="A115" s="5">
         <v>43565</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -3647,7 +3716,7 @@
       <c r="C115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E115" s="2">
@@ -3655,7 +3724,7 @@
       </c>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:5">
-      <c r="A116" s="4">
+      <c r="A116" s="5">
         <v>43565</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -3672,7 +3741,7 @@
       </c>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:5">
-      <c r="A117" s="4">
+      <c r="A117" s="5">
         <v>43565</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -3689,7 +3758,7 @@
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:5">
-      <c r="A118" s="4">
+      <c r="A118" s="5">
         <v>43565</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -3706,7 +3775,7 @@
       </c>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:5">
-      <c r="A119" s="4">
+      <c r="A119" s="5">
         <v>43565</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -3723,7 +3792,7 @@
       </c>
     </row>
     <row r="120" s="2" customFormat="1" spans="1:5">
-      <c r="A120" s="4">
+      <c r="A120" s="5">
         <v>43565</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -3740,7 +3809,7 @@
       </c>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:5">
-      <c r="A121" s="4">
+      <c r="A121" s="5">
         <v>43565</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -3757,7 +3826,7 @@
       </c>
     </row>
     <row r="122" s="2" customFormat="1" spans="1:5">
-      <c r="A122" s="4">
+      <c r="A122" s="5">
         <v>43565</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -3774,7 +3843,7 @@
       </c>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:5">
-      <c r="A123" s="4">
+      <c r="A123" s="5">
         <v>43565</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -3791,7 +3860,7 @@
       </c>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:5">
-      <c r="A124" s="4">
+      <c r="A124" s="5">
         <v>43565</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -3808,7 +3877,7 @@
       </c>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:5">
-      <c r="A125" s="4">
+      <c r="A125" s="5">
         <v>43565</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -3825,7 +3894,7 @@
       </c>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:5">
-      <c r="A126" s="4">
+      <c r="A126" s="5">
         <v>43565</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -3842,7 +3911,7 @@
       </c>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:5">
-      <c r="A127" s="4">
+      <c r="A127" s="5">
         <v>43565</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -3859,7 +3928,7 @@
       </c>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:5">
-      <c r="A128" s="4">
+      <c r="A128" s="5">
         <v>43565</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -3876,7 +3945,7 @@
       </c>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:5">
-      <c r="A129" s="4">
+      <c r="A129" s="5">
         <v>43566</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -3885,7 +3954,7 @@
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E129" s="2">
@@ -3893,7 +3962,7 @@
       </c>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:5">
-      <c r="A130" s="4">
+      <c r="A130" s="5">
         <v>43566</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -3902,7 +3971,7 @@
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E130" s="2">
@@ -3910,7 +3979,7 @@
       </c>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:5">
-      <c r="A131" s="4">
+      <c r="A131" s="5">
         <v>43566</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -3919,7 +3988,7 @@
       <c r="C131" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E131" s="2">
@@ -3927,7 +3996,7 @@
       </c>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:5">
-      <c r="A132" s="4">
+      <c r="A132" s="5">
         <v>43566</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -3936,7 +4005,7 @@
       <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E132" s="2">
@@ -3944,7 +4013,7 @@
       </c>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:5">
-      <c r="A133" s="4">
+      <c r="A133" s="5">
         <v>43566</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -3953,7 +4022,7 @@
       <c r="C133" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E133" s="2">
@@ -3961,7 +4030,7 @@
       </c>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:5">
-      <c r="A134" s="4">
+      <c r="A134" s="5">
         <v>43566</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -3970,7 +4039,7 @@
       <c r="C134" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E134" s="2">
@@ -3978,7 +4047,7 @@
       </c>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:5">
-      <c r="A135" s="4">
+      <c r="A135" s="5">
         <v>43566</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -3987,7 +4056,7 @@
       <c r="C135" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E135" s="2">
@@ -3995,7 +4064,7 @@
       </c>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:5">
-      <c r="A136" s="4">
+      <c r="A136" s="5">
         <v>43566</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -4012,7 +4081,7 @@
       </c>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:5">
-      <c r="A137" s="4">
+      <c r="A137" s="5">
         <v>43566</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -4029,7 +4098,7 @@
       </c>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:5">
-      <c r="A138" s="4">
+      <c r="A138" s="5">
         <v>43566</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -4046,7 +4115,7 @@
       </c>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:5">
-      <c r="A139" s="4">
+      <c r="A139" s="5">
         <v>43566</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -4063,7 +4132,7 @@
       </c>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:5">
-      <c r="A140" s="4">
+      <c r="A140" s="5">
         <v>43566</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -4080,7 +4149,7 @@
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:5">
-      <c r="A141" s="4">
+      <c r="A141" s="5">
         <v>43566</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -4097,7 +4166,7 @@
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:5">
-      <c r="A142" s="4">
+      <c r="A142" s="5">
         <v>43566</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -4114,7 +4183,7 @@
       </c>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:5">
-      <c r="A143" s="4">
+      <c r="A143" s="5">
         <v>43566</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -4131,7 +4200,7 @@
       </c>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:5">
-      <c r="A144" s="4">
+      <c r="A144" s="5">
         <v>43566</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -4148,7 +4217,7 @@
       </c>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:5">
-      <c r="A145" s="4">
+      <c r="A145" s="5">
         <v>43566</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -4165,7 +4234,7 @@
       </c>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:5">
-      <c r="A146" s="4">
+      <c r="A146" s="5">
         <v>43566</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -4182,7 +4251,7 @@
       </c>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:5">
-      <c r="A147" s="4">
+      <c r="A147" s="5">
         <v>43566</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -4199,7 +4268,7 @@
       </c>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:5">
-      <c r="A148" s="4">
+      <c r="A148" s="5">
         <v>43566</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -4216,7 +4285,7 @@
       </c>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:5">
-      <c r="A149" s="4">
+      <c r="A149" s="5">
         <v>43566</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -4233,7 +4302,7 @@
       </c>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:5">
-      <c r="A150" s="4">
+      <c r="A150" s="5">
         <v>43566</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -4250,7 +4319,7 @@
       </c>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:5">
-      <c r="A151" s="4">
+      <c r="A151" s="5">
         <v>43566</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -4267,7 +4336,7 @@
       </c>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:5">
-      <c r="A152" s="4">
+      <c r="A152" s="5">
         <v>43566</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -4284,7 +4353,7 @@
       </c>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:5">
-      <c r="A153" s="4">
+      <c r="A153" s="5">
         <v>43567</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -4301,7 +4370,7 @@
       </c>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:5">
-      <c r="A154" s="4">
+      <c r="A154" s="5">
         <v>43567</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -4318,7 +4387,7 @@
       </c>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:5">
-      <c r="A155" s="4">
+      <c r="A155" s="5">
         <v>43567</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -4335,7 +4404,7 @@
       </c>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:5">
-      <c r="A156" s="4">
+      <c r="A156" s="5">
         <v>43567</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -4352,7 +4421,7 @@
       </c>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:5">
-      <c r="A157" s="4">
+      <c r="A157" s="5">
         <v>43567</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -4361,7 +4430,7 @@
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E157" s="2">
@@ -4369,7 +4438,7 @@
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:5">
-      <c r="A158" s="4">
+      <c r="A158" s="5">
         <v>43567</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -4378,7 +4447,7 @@
       <c r="C158" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E158" s="2">
@@ -4386,7 +4455,7 @@
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:5">
-      <c r="A159" s="4">
+      <c r="A159" s="5">
         <v>43567</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -4395,7 +4464,7 @@
       <c r="C159" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E159" s="2">
@@ -4403,7 +4472,7 @@
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:5">
-      <c r="A160" s="4">
+      <c r="A160" s="5">
         <v>43567</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -4412,7 +4481,7 @@
       <c r="C160" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E160" s="2">
@@ -4420,7 +4489,7 @@
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:5">
-      <c r="A161" s="4">
+      <c r="A161" s="5">
         <v>43567</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -4429,7 +4498,7 @@
       <c r="C161" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E161" s="2">
@@ -4437,7 +4506,7 @@
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:5">
-      <c r="A162" s="4">
+      <c r="A162" s="5">
         <v>43567</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -4446,7 +4515,7 @@
       <c r="C162" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E162" s="2">
@@ -4454,7 +4523,7 @@
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:5">
-      <c r="A163" s="4">
+      <c r="A163" s="5">
         <v>43567</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -4463,7 +4532,7 @@
       <c r="C163" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E163" s="2">
@@ -4471,7 +4540,7 @@
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:5">
-      <c r="A164" s="4">
+      <c r="A164" s="5">
         <v>43567</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -4480,7 +4549,7 @@
       <c r="C164" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E164" s="2">
@@ -4488,7 +4557,7 @@
       </c>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:5">
-      <c r="A165" s="4">
+      <c r="A165" s="5">
         <v>43567</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -4505,7 +4574,7 @@
       </c>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:5">
-      <c r="A166" s="4">
+      <c r="A166" s="5">
         <v>43567</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -4522,7 +4591,7 @@
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:5">
-      <c r="A167" s="4">
+      <c r="A167" s="5">
         <v>43567</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -4539,7 +4608,7 @@
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:5">
-      <c r="A168" s="4">
+      <c r="A168" s="5">
         <v>43567</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -4556,7 +4625,7 @@
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:5">
-      <c r="A169" s="4">
+      <c r="A169" s="5">
         <v>43567</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -4573,7 +4642,7 @@
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:5">
-      <c r="A170" s="4">
+      <c r="A170" s="5">
         <v>43567</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -4590,7 +4659,7 @@
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:5">
-      <c r="A171" s="4">
+      <c r="A171" s="5">
         <v>43568</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -4599,7 +4668,7 @@
       <c r="C171" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E171" s="2">
@@ -4607,7 +4676,7 @@
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:5">
-      <c r="A172" s="4">
+      <c r="A172" s="5">
         <v>43568</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -4616,7 +4685,7 @@
       <c r="C172" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E172" s="2">
@@ -4624,7 +4693,7 @@
       </c>
     </row>
     <row r="173" s="2" customFormat="1" spans="1:5">
-      <c r="A173" s="4">
+      <c r="A173" s="5">
         <v>43568</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -4633,7 +4702,7 @@
       <c r="C173" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D173" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E173" s="2">
@@ -4641,7 +4710,7 @@
       </c>
     </row>
     <row r="174" s="2" customFormat="1" spans="1:5">
-      <c r="A174" s="4">
+      <c r="A174" s="5">
         <v>43568</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -4650,7 +4719,7 @@
       <c r="C174" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E174" s="2">
@@ -4658,7 +4727,7 @@
       </c>
     </row>
     <row r="175" s="2" customFormat="1" spans="1:5">
-      <c r="A175" s="4">
+      <c r="A175" s="5">
         <v>43568</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -4667,7 +4736,7 @@
       <c r="C175" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E175" s="2">
@@ -4675,7 +4744,7 @@
       </c>
     </row>
     <row r="176" s="2" customFormat="1" spans="1:5">
-      <c r="A176" s="4">
+      <c r="A176" s="5">
         <v>43568</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -4692,7 +4761,7 @@
       </c>
     </row>
     <row r="177" s="2" customFormat="1" spans="1:5">
-      <c r="A177" s="4">
+      <c r="A177" s="5">
         <v>43568</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -4709,7 +4778,7 @@
       </c>
     </row>
     <row r="178" s="2" customFormat="1" spans="1:5">
-      <c r="A178" s="4">
+      <c r="A178" s="5">
         <v>43568</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -4726,7 +4795,7 @@
       </c>
     </row>
     <row r="179" s="2" customFormat="1" spans="1:5">
-      <c r="A179" s="4">
+      <c r="A179" s="5">
         <v>43568</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -4743,7 +4812,7 @@
       </c>
     </row>
     <row r="180" s="2" customFormat="1" spans="1:5">
-      <c r="A180" s="4">
+      <c r="A180" s="5">
         <v>43568</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -4760,7 +4829,7 @@
       </c>
     </row>
     <row r="181" s="2" customFormat="1" spans="1:5">
-      <c r="A181" s="4">
+      <c r="A181" s="5">
         <v>43568</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -4777,7 +4846,7 @@
       </c>
     </row>
     <row r="182" s="2" customFormat="1" spans="1:5">
-      <c r="A182" s="4">
+      <c r="A182" s="5">
         <v>43568</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -4794,7 +4863,7 @@
       </c>
     </row>
     <row r="183" s="2" customFormat="1" spans="1:5">
-      <c r="A183" s="4">
+      <c r="A183" s="5">
         <v>43568</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -4811,7 +4880,7 @@
       </c>
     </row>
     <row r="184" s="2" customFormat="1" spans="1:5">
-      <c r="A184" s="4">
+      <c r="A184" s="5">
         <v>43568</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -4828,7 +4897,7 @@
       </c>
     </row>
     <row r="185" s="2" customFormat="1" spans="1:5">
-      <c r="A185" s="4">
+      <c r="A185" s="5">
         <v>43569</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -4837,7 +4906,7 @@
       <c r="C185" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D185" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E185" s="2">
@@ -4845,7 +4914,7 @@
       </c>
     </row>
     <row r="186" s="2" customFormat="1" spans="1:5">
-      <c r="A186" s="4">
+      <c r="A186" s="5">
         <v>43569</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -4854,7 +4923,7 @@
       <c r="C186" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="D186" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E186" s="2">
@@ -4862,7 +4931,7 @@
       </c>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:5">
-      <c r="A187" s="4">
+      <c r="A187" s="5">
         <v>43569</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -4871,7 +4940,7 @@
       <c r="C187" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="D187" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E187" s="2">
@@ -4879,7 +4948,7 @@
       </c>
     </row>
     <row r="188" s="2" customFormat="1" spans="1:5">
-      <c r="A188" s="4">
+      <c r="A188" s="5">
         <v>43569</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -4896,7 +4965,7 @@
       </c>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:5">
-      <c r="A189" s="4">
+      <c r="A189" s="5">
         <v>43569</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -4913,7 +4982,7 @@
       </c>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:5">
-      <c r="A190" s="4">
+      <c r="A190" s="5">
         <v>43569</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -4930,7 +4999,7 @@
       </c>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:5">
-      <c r="A191" s="4">
+      <c r="A191" s="5">
         <v>43569</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -4947,7 +5016,7 @@
       </c>
     </row>
     <row r="192" s="2" customFormat="1" spans="1:5">
-      <c r="A192" s="4">
+      <c r="A192" s="5">
         <v>43570</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -4964,7 +5033,7 @@
       </c>
     </row>
     <row r="193" s="2" customFormat="1" spans="1:5">
-      <c r="A193" s="4">
+      <c r="A193" s="5">
         <v>43570</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -4973,7 +5042,7 @@
       <c r="C193" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D193" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E193" s="2">
@@ -4981,7 +5050,7 @@
       </c>
     </row>
     <row r="194" s="2" customFormat="1" spans="1:5">
-      <c r="A194" s="4">
+      <c r="A194" s="5">
         <v>43570</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -4990,7 +5059,7 @@
       <c r="C194" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E194" s="2">
@@ -4998,7 +5067,7 @@
       </c>
     </row>
     <row r="195" s="2" customFormat="1" spans="1:5">
-      <c r="A195" s="4">
+      <c r="A195" s="5">
         <v>43570</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -5007,7 +5076,7 @@
       <c r="C195" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E195" s="2">
@@ -5015,7 +5084,7 @@
       </c>
     </row>
     <row r="196" s="2" customFormat="1" spans="1:5">
-      <c r="A196" s="4">
+      <c r="A196" s="5">
         <v>43570</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -5032,7 +5101,7 @@
       </c>
     </row>
     <row r="197" s="2" customFormat="1" spans="1:5">
-      <c r="A197" s="4">
+      <c r="A197" s="5">
         <v>43571</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -5041,7 +5110,7 @@
       <c r="C197" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="10" t="s">
         <v>67</v>
       </c>
       <c r="E197" s="2">
@@ -5049,7 +5118,7 @@
       </c>
     </row>
     <row r="198" s="2" customFormat="1" spans="1:5">
-      <c r="A198" s="4">
+      <c r="A198" s="5">
         <v>43571</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -5066,7 +5135,7 @@
       </c>
     </row>
     <row r="199" s="2" customFormat="1" spans="1:5">
-      <c r="A199" s="4">
+      <c r="A199" s="5">
         <v>43571</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -5075,7 +5144,7 @@
       <c r="C199" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="D199" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E199" s="2">
@@ -5083,7 +5152,7 @@
       </c>
     </row>
     <row r="200" s="2" customFormat="1" spans="1:5">
-      <c r="A200" s="4">
+      <c r="A200" s="5">
         <v>43571</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -5092,7 +5161,7 @@
       <c r="C200" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D200" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E200" s="2">
@@ -5100,7 +5169,7 @@
       </c>
     </row>
     <row r="201" s="2" customFormat="1" spans="1:5">
-      <c r="A201" s="4">
+      <c r="A201" s="5">
         <v>43571</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -5117,7 +5186,7 @@
       </c>
     </row>
     <row r="202" s="2" customFormat="1" spans="1:5">
-      <c r="A202" s="4">
+      <c r="A202" s="5">
         <v>43571</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -5134,7 +5203,7 @@
       </c>
     </row>
     <row r="203" s="2" customFormat="1" spans="1:5">
-      <c r="A203" s="4">
+      <c r="A203" s="5">
         <v>43571</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -5151,7 +5220,7 @@
       </c>
     </row>
     <row r="204" s="2" customFormat="1" spans="1:5">
-      <c r="A204" s="4">
+      <c r="A204" s="5">
         <v>43571</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -5168,7 +5237,7 @@
       </c>
     </row>
     <row r="205" s="2" customFormat="1" spans="1:5">
-      <c r="A205" s="4">
+      <c r="A205" s="5">
         <v>43571</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -5185,7 +5254,7 @@
       </c>
     </row>
     <row r="206" s="2" customFormat="1" spans="1:5">
-      <c r="A206" s="4">
+      <c r="A206" s="5">
         <v>43571</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -5202,7 +5271,7 @@
       </c>
     </row>
     <row r="207" s="2" customFormat="1" spans="1:5">
-      <c r="A207" s="4">
+      <c r="A207" s="5">
         <v>43571</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -5219,7 +5288,7 @@
       </c>
     </row>
     <row r="208" s="2" customFormat="1" spans="1:5">
-      <c r="A208" s="4">
+      <c r="A208" s="5">
         <v>43571</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -5236,7 +5305,7 @@
       </c>
     </row>
     <row r="209" s="2" customFormat="1" spans="1:5">
-      <c r="A209" s="4">
+      <c r="A209" s="5">
         <v>43571</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -5253,7 +5322,7 @@
       </c>
     </row>
     <row r="210" s="2" customFormat="1" spans="1:5">
-      <c r="A210" s="4">
+      <c r="A210" s="5">
         <v>43571</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -5270,7 +5339,7 @@
       </c>
     </row>
     <row r="211" s="2" customFormat="1" spans="1:5">
-      <c r="A211" s="4">
+      <c r="A211" s="5">
         <v>43572</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -5279,7 +5348,7 @@
       <c r="C211" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D211" s="9" t="s">
+      <c r="D211" s="10" t="s">
         <v>67</v>
       </c>
       <c r="E211" s="2">
@@ -5287,7 +5356,7 @@
       </c>
     </row>
     <row r="212" s="2" customFormat="1" spans="1:5">
-      <c r="A212" s="4">
+      <c r="A212" s="5">
         <v>43572</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -5304,7 +5373,7 @@
       </c>
     </row>
     <row r="213" s="2" customFormat="1" spans="1:5">
-      <c r="A213" s="4">
+      <c r="A213" s="5">
         <v>43572</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -5321,7 +5390,7 @@
       </c>
     </row>
     <row r="214" s="2" customFormat="1" spans="1:5">
-      <c r="A214" s="4">
+      <c r="A214" s="5">
         <v>43572</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -5330,7 +5399,7 @@
       <c r="C214" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D214" s="7" t="s">
+      <c r="D214" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E214" s="2">
@@ -5338,7 +5407,7 @@
       </c>
     </row>
     <row r="215" s="2" customFormat="1" spans="1:5">
-      <c r="A215" s="4">
+      <c r="A215" s="5">
         <v>43572</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -5347,7 +5416,7 @@
       <c r="C215" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D215" s="7" t="s">
+      <c r="D215" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E215" s="2">
@@ -5355,7 +5424,7 @@
       </c>
     </row>
     <row r="216" s="2" customFormat="1" spans="1:5">
-      <c r="A216" s="4">
+      <c r="A216" s="5">
         <v>43572</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -5364,7 +5433,7 @@
       <c r="C216" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D216" s="7" t="s">
+      <c r="D216" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E216" s="2">
@@ -5372,7 +5441,7 @@
       </c>
     </row>
     <row r="217" s="2" customFormat="1" spans="1:5">
-      <c r="A217" s="4">
+      <c r="A217" s="5">
         <v>43572</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -5381,7 +5450,7 @@
       <c r="C217" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="D217" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E217" s="2">
@@ -5389,7 +5458,7 @@
       </c>
     </row>
     <row r="218" s="2" customFormat="1" spans="1:5">
-      <c r="A218" s="4">
+      <c r="A218" s="5">
         <v>43572</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -5398,7 +5467,7 @@
       <c r="C218" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D218" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E218" s="2">
@@ -5406,7 +5475,7 @@
       </c>
     </row>
     <row r="219" s="2" customFormat="1" spans="1:5">
-      <c r="A219" s="4">
+      <c r="A219" s="5">
         <v>43572</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -5423,7 +5492,7 @@
       </c>
     </row>
     <row r="220" s="2" customFormat="1" spans="1:5">
-      <c r="A220" s="4">
+      <c r="A220" s="5">
         <v>43572</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -5440,7 +5509,7 @@
       </c>
     </row>
     <row r="221" s="2" customFormat="1" spans="1:5">
-      <c r="A221" s="4">
+      <c r="A221" s="5">
         <v>43572</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -5457,7 +5526,7 @@
       </c>
     </row>
     <row r="222" s="2" customFormat="1" spans="1:5">
-      <c r="A222" s="4">
+      <c r="A222" s="5">
         <v>43572</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -5474,7 +5543,7 @@
       </c>
     </row>
     <row r="223" s="2" customFormat="1" spans="1:5">
-      <c r="A223" s="4">
+      <c r="A223" s="5">
         <v>43572</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -5491,7 +5560,7 @@
       </c>
     </row>
     <row r="224" s="2" customFormat="1" spans="1:5">
-      <c r="A224" s="4">
+      <c r="A224" s="5">
         <v>43572</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -5508,7 +5577,7 @@
       </c>
     </row>
     <row r="225" s="2" customFormat="1" spans="1:5">
-      <c r="A225" s="4">
+      <c r="A225" s="5">
         <v>43572</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -5525,7 +5594,7 @@
       </c>
     </row>
     <row r="226" s="2" customFormat="1" spans="1:5">
-      <c r="A226" s="4">
+      <c r="A226" s="5">
         <v>43572</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -5542,7 +5611,7 @@
       </c>
     </row>
     <row r="227" s="2" customFormat="1" spans="1:5">
-      <c r="A227" s="4">
+      <c r="A227" s="5">
         <v>43572</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -5559,7 +5628,7 @@
       </c>
     </row>
     <row r="228" s="2" customFormat="1" spans="1:5">
-      <c r="A228" s="4">
+      <c r="A228" s="5">
         <v>43572</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -5576,7 +5645,7 @@
       </c>
     </row>
     <row r="229" s="2" customFormat="1" spans="1:5">
-      <c r="A229" s="4">
+      <c r="A229" s="5">
         <v>43572</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -5593,7 +5662,7 @@
       </c>
     </row>
     <row r="230" s="2" customFormat="1" spans="1:5">
-      <c r="A230" s="4">
+      <c r="A230" s="5">
         <v>43572</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -5610,7 +5679,7 @@
       </c>
     </row>
     <row r="231" s="2" customFormat="1" spans="1:5">
-      <c r="A231" s="4">
+      <c r="A231" s="5">
         <v>43573</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -5619,7 +5688,7 @@
       <c r="C231" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D231" s="9" t="s">
+      <c r="D231" s="10" t="s">
         <v>67</v>
       </c>
       <c r="E231" s="2">
@@ -5627,7 +5696,7 @@
       </c>
     </row>
     <row r="232" s="2" customFormat="1" spans="1:5">
-      <c r="A232" s="4">
+      <c r="A232" s="5">
         <v>43573</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -5636,7 +5705,7 @@
       <c r="C232" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="D232" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E232" s="2">
@@ -5644,7 +5713,7 @@
       </c>
     </row>
     <row r="233" s="2" customFormat="1" spans="1:5">
-      <c r="A233" s="4">
+      <c r="A233" s="5">
         <v>43573</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -5653,7 +5722,7 @@
       <c r="C233" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D233" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E233" s="2">
@@ -5661,7 +5730,7 @@
       </c>
     </row>
     <row r="234" s="2" customFormat="1" spans="1:5">
-      <c r="A234" s="4">
+      <c r="A234" s="5">
         <v>43573</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -5670,7 +5739,7 @@
       <c r="C234" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D234" s="7" t="s">
+      <c r="D234" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E234" s="2">
@@ -5678,7 +5747,7 @@
       </c>
     </row>
     <row r="235" s="2" customFormat="1" spans="1:5">
-      <c r="A235" s="4">
+      <c r="A235" s="5">
         <v>43573</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -5687,7 +5756,7 @@
       <c r="C235" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D235" s="8" t="s">
+      <c r="D235" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E235" s="2">
@@ -5695,7 +5764,7 @@
       </c>
     </row>
     <row r="236" s="2" customFormat="1" spans="1:5">
-      <c r="A236" s="4">
+      <c r="A236" s="5">
         <v>43573</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -5704,7 +5773,7 @@
       <c r="C236" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D236" s="8" t="s">
+      <c r="D236" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E236" s="2">
@@ -5712,7 +5781,7 @@
       </c>
     </row>
     <row r="237" s="2" customFormat="1" spans="1:5">
-      <c r="A237" s="4">
+      <c r="A237" s="5">
         <v>43573</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -5729,7 +5798,7 @@
       </c>
     </row>
     <row r="238" s="2" customFormat="1" spans="1:5">
-      <c r="A238" s="4">
+      <c r="A238" s="5">
         <v>43573</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -5746,7 +5815,7 @@
       </c>
     </row>
     <row r="239" s="2" customFormat="1" spans="1:5">
-      <c r="A239" s="4">
+      <c r="A239" s="5">
         <v>43573</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -5763,7 +5832,7 @@
       </c>
     </row>
     <row r="240" s="2" customFormat="1" spans="1:5">
-      <c r="A240" s="4">
+      <c r="A240" s="5">
         <v>43573</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -5780,7 +5849,7 @@
       </c>
     </row>
     <row r="241" s="2" customFormat="1" spans="1:5">
-      <c r="A241" s="4">
+      <c r="A241" s="5">
         <v>43573</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -5797,7 +5866,7 @@
       </c>
     </row>
     <row r="242" s="2" customFormat="1" spans="1:5">
-      <c r="A242" s="4">
+      <c r="A242" s="5">
         <v>43573</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -5814,7 +5883,7 @@
       </c>
     </row>
     <row r="243" s="2" customFormat="1" spans="1:5">
-      <c r="A243" s="4">
+      <c r="A243" s="5">
         <v>43573</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -5831,7 +5900,7 @@
       </c>
     </row>
     <row r="244" s="2" customFormat="1" spans="1:5">
-      <c r="A244" s="4">
+      <c r="A244" s="5">
         <v>43573</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -5848,7 +5917,7 @@
       </c>
     </row>
     <row r="245" s="2" customFormat="1" spans="1:5">
-      <c r="A245" s="4">
+      <c r="A245" s="5">
         <v>43573</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -5865,7 +5934,7 @@
       </c>
     </row>
     <row r="246" s="2" customFormat="1" spans="1:5">
-      <c r="A246" s="4">
+      <c r="A246" s="5">
         <v>43574</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -5882,7 +5951,7 @@
       </c>
     </row>
     <row r="247" s="2" customFormat="1" spans="1:5">
-      <c r="A247" s="4">
+      <c r="A247" s="5">
         <v>43574</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -5899,7 +5968,7 @@
       </c>
     </row>
     <row r="248" s="2" customFormat="1" spans="1:5">
-      <c r="A248" s="4">
+      <c r="A248" s="5">
         <v>43574</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -5916,7 +5985,7 @@
       </c>
     </row>
     <row r="249" s="2" customFormat="1" spans="1:5">
-      <c r="A249" s="4">
+      <c r="A249" s="5">
         <v>43574</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -5933,7 +6002,7 @@
       </c>
     </row>
     <row r="250" s="2" customFormat="1" spans="1:5">
-      <c r="A250" s="4">
+      <c r="A250" s="5">
         <v>43574</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -5950,7 +6019,7 @@
       </c>
     </row>
     <row r="251" s="2" customFormat="1" spans="1:5">
-      <c r="A251" s="4">
+      <c r="A251" s="5">
         <v>43574</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -5967,7 +6036,7 @@
       </c>
     </row>
     <row r="252" s="2" customFormat="1" spans="1:5">
-      <c r="A252" s="4">
+      <c r="A252" s="5">
         <v>43574</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -5984,7 +6053,7 @@
       </c>
     </row>
     <row r="253" s="2" customFormat="1" spans="1:5">
-      <c r="A253" s="4">
+      <c r="A253" s="5">
         <v>43574</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -6001,7 +6070,7 @@
       </c>
     </row>
     <row r="254" s="2" customFormat="1" spans="1:5">
-      <c r="A254" s="4">
+      <c r="A254" s="5">
         <v>43574</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -6018,7 +6087,7 @@
       </c>
     </row>
     <row r="255" s="2" customFormat="1" spans="1:5">
-      <c r="A255" s="4">
+      <c r="A255" s="5">
         <v>43574</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -6035,7 +6104,7 @@
       </c>
     </row>
     <row r="256" s="2" customFormat="1" spans="1:5">
-      <c r="A256" s="4">
+      <c r="A256" s="5">
         <v>43574</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -6052,7 +6121,7 @@
       </c>
     </row>
     <row r="257" s="2" customFormat="1" spans="1:5">
-      <c r="A257" s="4">
+      <c r="A257" s="5">
         <v>43574</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -6069,7 +6138,7 @@
       </c>
     </row>
     <row r="258" s="2" customFormat="1" spans="1:5">
-      <c r="A258" s="4">
+      <c r="A258" s="5">
         <v>43574</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -6086,7 +6155,7 @@
       </c>
     </row>
     <row r="259" s="2" customFormat="1" spans="1:5">
-      <c r="A259" s="4">
+      <c r="A259" s="5">
         <v>43574</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -6103,7 +6172,7 @@
       </c>
     </row>
     <row r="260" s="2" customFormat="1" spans="1:5">
-      <c r="A260" s="4">
+      <c r="A260" s="5">
         <v>43574</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -6120,7 +6189,7 @@
       </c>
     </row>
     <row r="261" s="2" customFormat="1" spans="1:5">
-      <c r="A261" s="4">
+      <c r="A261" s="5">
         <v>43574</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -6137,7 +6206,7 @@
       </c>
     </row>
     <row r="262" s="2" customFormat="1" spans="1:5">
-      <c r="A262" s="4">
+      <c r="A262" s="5">
         <v>43574</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -6154,7 +6223,7 @@
       </c>
     </row>
     <row r="263" s="2" customFormat="1" spans="1:5">
-      <c r="A263" s="4">
+      <c r="A263" s="5">
         <v>43574</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -6171,7 +6240,7 @@
       </c>
     </row>
     <row r="264" s="2" customFormat="1" spans="1:5">
-      <c r="A264" s="4">
+      <c r="A264" s="5">
         <v>43574</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -6188,7 +6257,7 @@
       </c>
     </row>
     <row r="265" s="2" customFormat="1" spans="1:5">
-      <c r="A265" s="4">
+      <c r="A265" s="5">
         <v>43575</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -6205,7 +6274,7 @@
       </c>
     </row>
     <row r="266" s="2" customFormat="1" spans="1:5">
-      <c r="A266" s="4">
+      <c r="A266" s="5">
         <v>43575</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -6222,7 +6291,7 @@
       </c>
     </row>
     <row r="267" s="2" customFormat="1" spans="1:5">
-      <c r="A267" s="4">
+      <c r="A267" s="5">
         <v>43575</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -6239,7 +6308,7 @@
       </c>
     </row>
     <row r="268" s="2" customFormat="1" spans="1:5">
-      <c r="A268" s="4">
+      <c r="A268" s="5">
         <v>43575</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -6256,7 +6325,7 @@
       </c>
     </row>
     <row r="269" s="2" customFormat="1" spans="1:5">
-      <c r="A269" s="4">
+      <c r="A269" s="5">
         <v>43575</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -6273,7 +6342,7 @@
       </c>
     </row>
     <row r="270" s="2" customFormat="1" spans="1:5">
-      <c r="A270" s="4">
+      <c r="A270" s="5">
         <v>43575</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -6290,7 +6359,7 @@
       </c>
     </row>
     <row r="271" s="2" customFormat="1" spans="1:5">
-      <c r="A271" s="4">
+      <c r="A271" s="5">
         <v>43575</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -6307,7 +6376,7 @@
       </c>
     </row>
     <row r="272" s="2" customFormat="1" spans="1:5">
-      <c r="A272" s="4">
+      <c r="A272" s="5">
         <v>43575</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -6324,7 +6393,7 @@
       </c>
     </row>
     <row r="273" s="2" customFormat="1" spans="1:5">
-      <c r="A273" s="4">
+      <c r="A273" s="5">
         <v>43575</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -6341,7 +6410,7 @@
       </c>
     </row>
     <row r="274" s="2" customFormat="1" spans="1:5">
-      <c r="A274" s="4">
+      <c r="A274" s="5">
         <v>43575</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -6358,7 +6427,7 @@
       </c>
     </row>
     <row r="275" s="2" customFormat="1" spans="1:5">
-      <c r="A275" s="4">
+      <c r="A275" s="5">
         <v>43575</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -6375,7 +6444,7 @@
       </c>
     </row>
     <row r="276" s="2" customFormat="1" spans="1:5">
-      <c r="A276" s="4">
+      <c r="A276" s="5">
         <v>43575</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -6392,7 +6461,7 @@
       </c>
     </row>
     <row r="277" s="2" customFormat="1" spans="1:5">
-      <c r="A277" s="4">
+      <c r="A277" s="5">
         <v>43575</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -6409,7 +6478,7 @@
       </c>
     </row>
     <row r="278" s="2" customFormat="1" spans="1:5">
-      <c r="A278" s="4">
+      <c r="A278" s="5">
         <v>43575</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -6426,7 +6495,7 @@
       </c>
     </row>
     <row r="279" s="2" customFormat="1" spans="1:5">
-      <c r="A279" s="4">
+      <c r="A279" s="5">
         <v>43575</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -6443,7 +6512,7 @@
       </c>
     </row>
     <row r="280" s="2" customFormat="1" spans="1:5">
-      <c r="A280" s="4">
+      <c r="A280" s="5">
         <v>43575</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -6460,7 +6529,7 @@
       </c>
     </row>
     <row r="281" s="2" customFormat="1" spans="1:5">
-      <c r="A281" s="4">
+      <c r="A281" s="5">
         <v>43575</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -6477,7 +6546,7 @@
       </c>
     </row>
     <row r="282" s="2" customFormat="1" spans="1:5">
-      <c r="A282" s="4">
+      <c r="A282" s="5">
         <v>43575</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -6494,7 +6563,7 @@
       </c>
     </row>
     <row r="283" s="2" customFormat="1" spans="1:5">
-      <c r="A283" s="4">
+      <c r="A283" s="5">
         <v>43575</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -6511,7 +6580,7 @@
       </c>
     </row>
     <row r="284" s="2" customFormat="1" spans="1:5">
-      <c r="A284" s="4">
+      <c r="A284" s="5">
         <v>43576</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -6528,7 +6597,7 @@
       </c>
     </row>
     <row r="285" s="2" customFormat="1" spans="1:5">
-      <c r="A285" s="4">
+      <c r="A285" s="5">
         <v>43576</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -6545,7 +6614,7 @@
       </c>
     </row>
     <row r="286" s="2" customFormat="1" spans="1:5">
-      <c r="A286" s="4">
+      <c r="A286" s="5">
         <v>43576</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -6562,7 +6631,7 @@
       </c>
     </row>
     <row r="287" s="2" customFormat="1" spans="1:5">
-      <c r="A287" s="4">
+      <c r="A287" s="5">
         <v>43576</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -6579,7 +6648,7 @@
       </c>
     </row>
     <row r="288" s="2" customFormat="1" spans="1:5">
-      <c r="A288" s="4">
+      <c r="A288" s="5">
         <v>43576</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -6596,7 +6665,7 @@
       </c>
     </row>
     <row r="289" s="2" customFormat="1" spans="1:5">
-      <c r="A289" s="4">
+      <c r="A289" s="5">
         <v>43576</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -6613,7 +6682,7 @@
       </c>
     </row>
     <row r="290" s="2" customFormat="1" spans="1:5">
-      <c r="A290" s="4">
+      <c r="A290" s="5">
         <v>43576</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -6630,7 +6699,7 @@
       </c>
     </row>
     <row r="291" s="2" customFormat="1" spans="1:5">
-      <c r="A291" s="4">
+      <c r="A291" s="5">
         <v>43576</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -6647,7 +6716,7 @@
       </c>
     </row>
     <row r="292" s="2" customFormat="1" spans="1:5">
-      <c r="A292" s="4">
+      <c r="A292" s="5">
         <v>43576</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -6664,7 +6733,7 @@
       </c>
     </row>
     <row r="293" s="2" customFormat="1" spans="1:5">
-      <c r="A293" s="4">
+      <c r="A293" s="5">
         <v>43576</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -6681,7 +6750,7 @@
       </c>
     </row>
     <row r="294" s="2" customFormat="1" spans="1:5">
-      <c r="A294" s="4">
+      <c r="A294" s="5">
         <v>43576</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -6698,7 +6767,7 @@
       </c>
     </row>
     <row r="295" s="2" customFormat="1" spans="1:5">
-      <c r="A295" s="4">
+      <c r="A295" s="5">
         <v>43576</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -6715,7 +6784,7 @@
       </c>
     </row>
     <row r="296" s="2" customFormat="1" spans="1:5">
-      <c r="A296" s="4">
+      <c r="A296" s="5">
         <v>43576</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -6732,7 +6801,7 @@
       </c>
     </row>
     <row r="297" s="2" customFormat="1" spans="1:5">
-      <c r="A297" s="4">
+      <c r="A297" s="5">
         <v>43576</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -6749,7 +6818,7 @@
       </c>
     </row>
     <row r="298" s="2" customFormat="1" spans="1:5">
-      <c r="A298" s="4">
+      <c r="A298" s="5">
         <v>43576</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -6766,7 +6835,7 @@
       </c>
     </row>
     <row r="299" s="2" customFormat="1" spans="1:5">
-      <c r="A299" s="4">
+      <c r="A299" s="5">
         <v>43576</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -6783,7 +6852,7 @@
       </c>
     </row>
     <row r="300" s="2" customFormat="1" spans="1:5">
-      <c r="A300" s="4">
+      <c r="A300" s="5">
         <v>43577</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -6800,7 +6869,7 @@
       </c>
     </row>
     <row r="301" s="2" customFormat="1" spans="1:5">
-      <c r="A301" s="4">
+      <c r="A301" s="5">
         <v>43577</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -6817,7 +6886,7 @@
       </c>
     </row>
     <row r="302" s="2" customFormat="1" spans="1:5">
-      <c r="A302" s="4">
+      <c r="A302" s="5">
         <v>43577</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -6834,7 +6903,7 @@
       </c>
     </row>
     <row r="303" s="2" customFormat="1" spans="1:5">
-      <c r="A303" s="4">
+      <c r="A303" s="5">
         <v>43577</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -6851,7 +6920,7 @@
       </c>
     </row>
     <row r="304" s="2" customFormat="1" spans="1:5">
-      <c r="A304" s="4">
+      <c r="A304" s="5">
         <v>43577</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -6868,7 +6937,7 @@
       </c>
     </row>
     <row r="305" s="2" customFormat="1" spans="1:5">
-      <c r="A305" s="4">
+      <c r="A305" s="5">
         <v>43577</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -6885,7 +6954,7 @@
       </c>
     </row>
     <row r="306" s="2" customFormat="1" spans="1:5">
-      <c r="A306" s="4">
+      <c r="A306" s="5">
         <v>43577</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -6902,7 +6971,7 @@
       </c>
     </row>
     <row r="307" s="2" customFormat="1" spans="1:5">
-      <c r="A307" s="4">
+      <c r="A307" s="5">
         <v>43577</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -6919,7 +6988,7 @@
       </c>
     </row>
     <row r="308" s="2" customFormat="1" spans="1:5">
-      <c r="A308" s="4">
+      <c r="A308" s="5">
         <v>43577</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -6936,7 +7005,7 @@
       </c>
     </row>
     <row r="309" s="2" customFormat="1" spans="1:5">
-      <c r="A309" s="4">
+      <c r="A309" s="5">
         <v>43577</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -6953,7 +7022,7 @@
       </c>
     </row>
     <row r="310" s="2" customFormat="1" spans="1:5">
-      <c r="A310" s="4">
+      <c r="A310" s="5">
         <v>43577</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -6970,7 +7039,7 @@
       </c>
     </row>
     <row r="311" s="2" customFormat="1" spans="1:5">
-      <c r="A311" s="4">
+      <c r="A311" s="5">
         <v>43577</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -6987,7 +7056,7 @@
       </c>
     </row>
     <row r="312" s="2" customFormat="1" spans="1:5">
-      <c r="A312" s="4">
+      <c r="A312" s="5">
         <v>43577</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -7004,7 +7073,7 @@
       </c>
     </row>
     <row r="313" s="2" customFormat="1" spans="1:5">
-      <c r="A313" s="4">
+      <c r="A313" s="5">
         <v>43578</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -7021,7 +7090,7 @@
       </c>
     </row>
     <row r="314" s="2" customFormat="1" spans="1:5">
-      <c r="A314" s="4">
+      <c r="A314" s="5">
         <v>43578</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -7038,7 +7107,7 @@
       </c>
     </row>
     <row r="315" s="2" customFormat="1" spans="1:5">
-      <c r="A315" s="4">
+      <c r="A315" s="5">
         <v>43578</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -7055,7 +7124,7 @@
       </c>
     </row>
     <row r="316" s="2" customFormat="1" spans="1:5">
-      <c r="A316" s="4">
+      <c r="A316" s="5">
         <v>43578</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -7072,7 +7141,7 @@
       </c>
     </row>
     <row r="317" s="2" customFormat="1" spans="1:5">
-      <c r="A317" s="4">
+      <c r="A317" s="5">
         <v>43578</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -7089,7 +7158,7 @@
       </c>
     </row>
     <row r="318" s="2" customFormat="1" spans="1:5">
-      <c r="A318" s="4">
+      <c r="A318" s="5">
         <v>43578</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -7106,7 +7175,7 @@
       </c>
     </row>
     <row r="319" s="2" customFormat="1" spans="1:5">
-      <c r="A319" s="4">
+      <c r="A319" s="5">
         <v>43578</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -7123,7 +7192,7 @@
       </c>
     </row>
     <row r="320" s="2" customFormat="1" spans="1:5">
-      <c r="A320" s="4">
+      <c r="A320" s="5">
         <v>43578</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -7140,7 +7209,7 @@
       </c>
     </row>
     <row r="321" s="2" customFormat="1" spans="1:5">
-      <c r="A321" s="4">
+      <c r="A321" s="5">
         <v>43578</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -7157,7 +7226,7 @@
       </c>
     </row>
     <row r="322" s="2" customFormat="1" spans="1:5">
-      <c r="A322" s="4">
+      <c r="A322" s="5">
         <v>43578</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -7174,7 +7243,7 @@
       </c>
     </row>
     <row r="323" s="2" customFormat="1" spans="1:5">
-      <c r="A323" s="4">
+      <c r="A323" s="5">
         <v>43578</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -7191,7 +7260,7 @@
       </c>
     </row>
     <row r="324" s="2" customFormat="1" spans="1:5">
-      <c r="A324" s="4">
+      <c r="A324" s="5">
         <v>43578</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -7208,7 +7277,7 @@
       </c>
     </row>
     <row r="325" s="2" customFormat="1" spans="1:5">
-      <c r="A325" s="4">
+      <c r="A325" s="5">
         <v>43578</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -7225,7 +7294,7 @@
       </c>
     </row>
     <row r="326" s="2" customFormat="1" spans="1:5">
-      <c r="A326" s="4">
+      <c r="A326" s="5">
         <v>43578</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -7242,7 +7311,7 @@
       </c>
     </row>
     <row r="327" s="2" customFormat="1" spans="1:5">
-      <c r="A327" s="4">
+      <c r="A327" s="5">
         <v>43578</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -7259,7 +7328,7 @@
       </c>
     </row>
     <row r="328" s="2" customFormat="1" spans="1:5">
-      <c r="A328" s="4">
+      <c r="A328" s="5">
         <v>43578</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -7276,7 +7345,7 @@
       </c>
     </row>
     <row r="329" s="2" customFormat="1" spans="1:5">
-      <c r="A329" s="4">
+      <c r="A329" s="5">
         <v>43579</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -7293,7 +7362,7 @@
       </c>
     </row>
     <row r="330" s="2" customFormat="1" spans="1:5">
-      <c r="A330" s="4">
+      <c r="A330" s="5">
         <v>43579</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -7310,7 +7379,7 @@
       </c>
     </row>
     <row r="331" s="2" customFormat="1" spans="1:5">
-      <c r="A331" s="4">
+      <c r="A331" s="5">
         <v>43579</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -7327,7 +7396,7 @@
       </c>
     </row>
     <row r="332" s="2" customFormat="1" spans="1:5">
-      <c r="A332" s="4">
+      <c r="A332" s="5">
         <v>43579</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -7336,7 +7405,7 @@
       <c r="C332" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D332" s="7" t="s">
+      <c r="D332" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E332" s="2">
@@ -7344,7 +7413,7 @@
       </c>
     </row>
     <row r="333" s="2" customFormat="1" spans="1:5">
-      <c r="A333" s="4">
+      <c r="A333" s="5">
         <v>43579</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -7361,7 +7430,7 @@
       </c>
     </row>
     <row r="334" s="2" customFormat="1" spans="1:5">
-      <c r="A334" s="4">
+      <c r="A334" s="5">
         <v>43579</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -7378,7 +7447,7 @@
       </c>
     </row>
     <row r="335" s="2" customFormat="1" spans="1:5">
-      <c r="A335" s="4">
+      <c r="A335" s="5">
         <v>43579</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -7395,7 +7464,7 @@
       </c>
     </row>
     <row r="336" s="2" customFormat="1" spans="1:5">
-      <c r="A336" s="4">
+      <c r="A336" s="5">
         <v>43579</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -7412,7 +7481,7 @@
       </c>
     </row>
     <row r="337" s="2" customFormat="1" spans="1:5">
-      <c r="A337" s="4">
+      <c r="A337" s="5">
         <v>43579</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -7429,7 +7498,7 @@
       </c>
     </row>
     <row r="338" s="2" customFormat="1" spans="1:5">
-      <c r="A338" s="4">
+      <c r="A338" s="5">
         <v>43579</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -7446,7 +7515,7 @@
       </c>
     </row>
     <row r="339" s="2" customFormat="1" spans="1:5">
-      <c r="A339" s="4">
+      <c r="A339" s="5">
         <v>43579</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -7463,7 +7532,7 @@
       </c>
     </row>
     <row r="340" s="2" customFormat="1" spans="1:5">
-      <c r="A340" s="4">
+      <c r="A340" s="5">
         <v>43579</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -7480,7 +7549,7 @@
       </c>
     </row>
     <row r="341" s="2" customFormat="1" spans="1:5">
-      <c r="A341" s="4">
+      <c r="A341" s="5">
         <v>43579</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -7497,7 +7566,7 @@
       </c>
     </row>
     <row r="342" s="2" customFormat="1" spans="1:5">
-      <c r="A342" s="4">
+      <c r="A342" s="5">
         <v>43579</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -7514,7 +7583,7 @@
       </c>
     </row>
     <row r="343" s="2" customFormat="1" spans="1:5">
-      <c r="A343" s="4">
+      <c r="A343" s="5">
         <v>43579</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -7531,7 +7600,7 @@
       </c>
     </row>
     <row r="344" s="2" customFormat="1" spans="1:5">
-      <c r="A344" s="4">
+      <c r="A344" s="5">
         <v>43579</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -7548,7 +7617,7 @@
       </c>
     </row>
     <row r="345" s="2" customFormat="1" spans="1:5">
-      <c r="A345" s="4">
+      <c r="A345" s="5">
         <v>43579</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -7565,7 +7634,7 @@
       </c>
     </row>
     <row r="346" s="2" customFormat="1" spans="1:5">
-      <c r="A346" s="4">
+      <c r="A346" s="5">
         <v>43579</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -7582,7 +7651,7 @@
       </c>
     </row>
     <row r="347" s="2" customFormat="1" spans="1:5">
-      <c r="A347" s="4">
+      <c r="A347" s="5">
         <v>43579</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -7599,7 +7668,7 @@
       </c>
     </row>
     <row r="348" s="2" customFormat="1" spans="1:5">
-      <c r="A348" s="4">
+      <c r="A348" s="5">
         <v>43579</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -7616,7 +7685,7 @@
       </c>
     </row>
     <row r="349" s="2" customFormat="1" spans="1:5">
-      <c r="A349" s="4">
+      <c r="A349" s="5">
         <v>43579</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -7633,7 +7702,7 @@
       </c>
     </row>
     <row r="350" s="2" customFormat="1" spans="1:5">
-      <c r="A350" s="4">
+      <c r="A350" s="5">
         <v>43579</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -7650,7 +7719,7 @@
       </c>
     </row>
     <row r="351" s="2" customFormat="1" spans="1:5">
-      <c r="A351" s="4">
+      <c r="A351" s="5">
         <v>43579</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -7667,7 +7736,7 @@
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:5">
-      <c r="A352" s="4">
+      <c r="A352" s="5">
         <v>43579</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -7683,490 +7752,1235 @@
         <v>256</v>
       </c>
     </row>
-    <row r="353" s="3" customFormat="1" spans="1:5">
-      <c r="A353" s="4">
+    <row r="353" s="2" customFormat="1" spans="1:5">
+      <c r="A353" s="5">
         <v>43580</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B353" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="C353" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D353" s="3" t="s">
+      <c r="D353" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E353" s="3">
+      <c r="E353" s="2">
         <v>1343</v>
       </c>
     </row>
-    <row r="354" s="3" customFormat="1" spans="1:5">
-      <c r="A354" s="4">
+    <row r="354" s="2" customFormat="1" spans="1:5">
+      <c r="A354" s="5">
         <v>43580</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="C354" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D354" s="3" t="s">
+      <c r="D354" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E354" s="3">
+      <c r="E354" s="2">
         <v>29598</v>
       </c>
     </row>
-    <row r="355" s="3" customFormat="1" spans="1:5">
-      <c r="A355" s="4">
+    <row r="355" s="2" customFormat="1" spans="1:5">
+      <c r="A355" s="5">
         <v>43580</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B355" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="C355" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D355" s="3" t="s">
+      <c r="D355" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E355" s="3">
+      <c r="E355" s="2">
         <v>99232</v>
       </c>
     </row>
-    <row r="356" s="3" customFormat="1" spans="1:5">
-      <c r="A356" s="4">
+    <row r="356" s="2" customFormat="1" spans="1:5">
+      <c r="A356" s="5">
         <v>43580</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="C356" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D356" s="3" t="s">
+      <c r="D356" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E356" s="3">
+      <c r="E356" s="2">
         <v>99276</v>
       </c>
     </row>
-    <row r="357" s="3" customFormat="1" spans="1:5">
-      <c r="A357" s="4">
+    <row r="357" s="2" customFormat="1" spans="1:5">
+      <c r="A357" s="5">
         <v>43580</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="C357" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D357" s="3" t="s">
+      <c r="D357" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E357" s="3">
+      <c r="E357" s="2">
         <v>98785</v>
       </c>
     </row>
-    <row r="358" s="3" customFormat="1" spans="1:5">
-      <c r="A358" s="4">
+    <row r="358" s="2" customFormat="1" spans="1:5">
+      <c r="A358" s="5">
         <v>43580</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="C358" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D358" s="3" t="s">
+      <c r="D358" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E358" s="3">
+      <c r="E358" s="2">
         <v>98730</v>
       </c>
     </row>
-    <row r="359" s="3" customFormat="1" spans="1:5">
-      <c r="A359" s="4">
+    <row r="359" s="2" customFormat="1" spans="1:5">
+      <c r="A359" s="5">
         <v>43580</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="C359" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D359" s="3" t="s">
+      <c r="D359" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E359" s="3">
+      <c r="E359" s="2">
         <v>26805</v>
       </c>
     </row>
-    <row r="360" s="3" customFormat="1" spans="1:5">
-      <c r="A360" s="4">
+    <row r="360" s="2" customFormat="1" spans="1:5">
+      <c r="A360" s="5">
         <v>43580</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="C360" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D360" s="3" t="s">
+      <c r="D360" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E360" s="3">
+      <c r="E360" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="361" s="3" customFormat="1" spans="1:5">
-      <c r="A361" s="4">
+    <row r="361" s="2" customFormat="1" spans="1:5">
+      <c r="A361" s="5">
         <v>43580</v>
       </c>
-      <c r="B361" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C361" s="3" t="s">
+      <c r="B361" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D361" s="3" t="s">
+      <c r="D361" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E361" s="3">
+      <c r="E361" s="2">
         <v>867</v>
       </c>
     </row>
-    <row r="362" s="3" customFormat="1" spans="1:5">
-      <c r="A362" s="4">
+    <row r="362" s="2" customFormat="1" spans="1:5">
+      <c r="A362" s="5">
         <v>43580</v>
       </c>
-      <c r="B362" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C362" s="3" t="s">
+      <c r="B362" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E362" s="3">
+      <c r="E362" s="2">
         <v>530</v>
       </c>
     </row>
-    <row r="363" s="3" customFormat="1" spans="1:5">
-      <c r="A363" s="4">
+    <row r="363" s="2" customFormat="1" spans="1:5">
+      <c r="A363" s="5">
         <v>43580</v>
       </c>
-      <c r="B363" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C363" s="3" t="s">
+      <c r="B363" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E363" s="3">
+      <c r="E363" s="2">
         <v>2978</v>
       </c>
     </row>
-    <row r="364" s="3" customFormat="1" spans="1:5">
-      <c r="A364" s="4">
+    <row r="364" s="2" customFormat="1" spans="1:5">
+      <c r="A364" s="5">
         <v>43580</v>
       </c>
-      <c r="B364" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C364" s="3" t="s">
+      <c r="B364" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E364" s="3">
+      <c r="E364" s="2">
         <v>3296</v>
       </c>
     </row>
-    <row r="365" s="3" customFormat="1" spans="1:5">
-      <c r="A365" s="4">
+    <row r="365" s="2" customFormat="1" spans="1:5">
+      <c r="A365" s="5">
         <v>43580</v>
       </c>
-      <c r="B365" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C365" s="3" t="s">
+      <c r="B365" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E365" s="3">
+      <c r="E365" s="2">
         <v>17594</v>
       </c>
     </row>
-    <row r="366" s="3" customFormat="1" spans="1:5">
-      <c r="A366" s="4">
+    <row r="366" s="2" customFormat="1" spans="1:5">
+      <c r="A366" s="5">
         <v>43580</v>
       </c>
-      <c r="B366" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C366" s="3" t="s">
+      <c r="B366" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E366" s="3">
+      <c r="E366" s="2">
         <v>32361</v>
       </c>
     </row>
-    <row r="367" s="3" customFormat="1" spans="1:5">
-      <c r="A367" s="4">
+    <row r="367" s="2" customFormat="1" spans="1:5">
+      <c r="A367" s="5">
         <v>43580</v>
       </c>
-      <c r="B367" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C367" s="3" t="s">
+      <c r="B367" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E367" s="3">
+      <c r="E367" s="2">
         <v>10893</v>
       </c>
     </row>
-    <row r="368" s="3" customFormat="1" spans="1:5">
-      <c r="A368" s="4">
+    <row r="368" s="2" customFormat="1" spans="1:5">
+      <c r="A368" s="5">
         <v>43580</v>
       </c>
-      <c r="B368" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C368" s="3" t="s">
+      <c r="B368" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E368" s="3">
+      <c r="E368" s="2">
         <v>9594</v>
       </c>
     </row>
-    <row r="369" s="3" customFormat="1" spans="1:5">
-      <c r="A369" s="4">
+    <row r="369" s="2" customFormat="1" spans="1:5">
+      <c r="A369" s="5">
         <v>43580</v>
       </c>
-      <c r="B369" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C369" s="3" t="s">
+      <c r="B369" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E369" s="3">
+      <c r="E369" s="2">
         <v>676</v>
       </c>
     </row>
-    <row r="370" s="3" customFormat="1" spans="1:5">
-      <c r="A370" s="4">
+    <row r="370" s="2" customFormat="1" spans="1:5">
+      <c r="A370" s="5">
         <v>43580</v>
       </c>
-      <c r="B370" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C370" s="3" t="s">
+      <c r="B370" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E370" s="3">
+      <c r="E370" s="2">
         <v>1478</v>
       </c>
     </row>
-    <row r="371" s="3" customFormat="1" spans="1:5">
-      <c r="A371" s="4">
+    <row r="371" s="2" customFormat="1" spans="1:5">
+      <c r="A371" s="5">
         <v>43580</v>
       </c>
-      <c r="B371" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C371" s="3" t="s">
+      <c r="B371" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E371" s="3">
+      <c r="E371" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="372" s="3" customFormat="1" spans="1:5">
-      <c r="A372" s="4">
+    <row r="372" s="2" customFormat="1" spans="1:5">
+      <c r="A372" s="5">
         <v>43580</v>
       </c>
-      <c r="B372" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C372" s="3" t="s">
+      <c r="B372" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E372" s="3">
+      <c r="E372" s="2">
         <v>36468</v>
       </c>
     </row>
-    <row r="373" s="3" customFormat="1" spans="1:5">
-      <c r="A373" s="4">
+    <row r="373" s="2" customFormat="1" spans="1:5">
+      <c r="A373" s="5">
         <v>43580</v>
       </c>
-      <c r="B373" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C373" s="3" t="s">
+      <c r="B373" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E373" s="3">
+      <c r="E373" s="2">
         <v>343</v>
       </c>
     </row>
-    <row r="374" s="3" customFormat="1" spans="1:5">
-      <c r="A374" s="4">
+    <row r="374" s="2" customFormat="1" spans="1:5">
+      <c r="A374" s="5">
         <v>43580</v>
       </c>
-      <c r="B374" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C374" s="3" t="s">
+      <c r="B374" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E374" s="3">
+      <c r="E374" s="2">
         <v>2297</v>
       </c>
     </row>
-    <row r="375" s="3" customFormat="1" spans="1:5">
-      <c r="A375" s="4">
+    <row r="375" s="2" customFormat="1" spans="1:5">
+      <c r="A375" s="5">
         <v>43580</v>
       </c>
-      <c r="B375" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C375" s="3" t="s">
+      <c r="B375" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D375" s="3" t="s">
+      <c r="D375" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E375" s="3">
+      <c r="E375" s="2">
         <v>1389</v>
       </c>
     </row>
-    <row r="376" s="3" customFormat="1" spans="1:5">
-      <c r="A376" s="4">
+    <row r="376" s="2" customFormat="1" spans="1:5">
+      <c r="A376" s="5">
         <v>43580</v>
       </c>
-      <c r="B376" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C376" s="3" t="s">
+      <c r="B376" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C376" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D376" s="3" t="s">
+      <c r="D376" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E376" s="3">
+      <c r="E376" s="2">
         <v>1573</v>
       </c>
     </row>
-    <row r="377" s="3" customFormat="1" spans="1:5">
-      <c r="A377" s="4">
+    <row r="377" s="2" customFormat="1" spans="1:5">
+      <c r="A377" s="5">
         <v>43580</v>
       </c>
-      <c r="B377" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C377" s="3" t="s">
+      <c r="B377" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C377" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E377" s="3">
+      <c r="E377" s="2">
         <v>3670</v>
       </c>
     </row>
-    <row r="378" s="3" customFormat="1" spans="1:5">
-      <c r="A378" s="4">
+    <row r="378" s="2" customFormat="1" spans="1:5">
+      <c r="A378" s="5">
         <v>43580</v>
       </c>
-      <c r="B378" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C378" s="3" t="s">
+      <c r="B378" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E378" s="3">
+      <c r="E378" s="2">
         <v>6640</v>
       </c>
     </row>
-    <row r="379" s="3" customFormat="1" spans="1:5">
-      <c r="A379" s="4">
+    <row r="379" s="2" customFormat="1" spans="1:5">
+      <c r="A379" s="5">
         <v>43580</v>
       </c>
-      <c r="B379" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C379" s="3" t="s">
+      <c r="B379" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E379" s="3">
+      <c r="E379" s="2">
         <v>323</v>
       </c>
     </row>
-    <row r="380" s="3" customFormat="1" spans="1:5">
-      <c r="A380" s="4">
+    <row r="380" s="2" customFormat="1" spans="1:5">
+      <c r="A380" s="5">
         <v>43580</v>
       </c>
-      <c r="B380" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C380" s="3" t="s">
+      <c r="B380" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D380" s="3" t="s">
+      <c r="D380" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E380" s="3">
+      <c r="E380" s="2">
         <v>8771</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
-      <c r="A381" s="4"/>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" s="4"/>
+    <row r="381" s="3" customFormat="1" spans="1:5">
+      <c r="A381" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E381" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" s="3" customFormat="1" spans="1:5">
+      <c r="A382" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E382" s="3">
+        <v>12743</v>
+      </c>
+    </row>
+    <row r="383" s="3" customFormat="1" spans="1:5">
+      <c r="A383" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E383" s="3">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="384" s="3" customFormat="1" spans="1:5">
+      <c r="A384" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E384" s="3">
+        <v>99606</v>
+      </c>
+    </row>
+    <row r="385" s="4" customFormat="1" spans="1:5">
+      <c r="A385" s="11">
+        <v>43581</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E385" s="4">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="386" s="3" customFormat="1" spans="1:5">
+      <c r="A386" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E386" s="3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="387" s="3" customFormat="1" spans="1:5">
+      <c r="A387" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E387" s="3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="388" s="3" customFormat="1" spans="1:5">
+      <c r="A388" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E388" s="3">
+        <v>22420</v>
+      </c>
+    </row>
+    <row r="389" s="3" customFormat="1" spans="1:5">
+      <c r="A389" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E389" s="3">
+        <v>28071</v>
+      </c>
+    </row>
+    <row r="390" s="3" customFormat="1" spans="1:5">
+      <c r="A390" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E390" s="3">
+        <v>12235</v>
+      </c>
+    </row>
+    <row r="391" s="3" customFormat="1" spans="1:5">
+      <c r="A391" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E391" s="3">
+        <v>12126</v>
+      </c>
+    </row>
+    <row r="392" s="3" customFormat="1" spans="1:5">
+      <c r="A392" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E392" s="3">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="393" s="3" customFormat="1" spans="1:5">
+      <c r="A393" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E393" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="394" s="3" customFormat="1" spans="1:5">
+      <c r="A394" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E394" s="3">
+        <v>42027</v>
+      </c>
+    </row>
+    <row r="395" s="3" customFormat="1" spans="1:5">
+      <c r="A395" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E395" s="3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="396" s="3" customFormat="1" spans="1:5">
+      <c r="A396" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E396" s="3">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="397" s="3" customFormat="1" spans="1:5">
+      <c r="A397" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E397" s="3">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="398" s="3" customFormat="1" spans="1:5">
+      <c r="A398" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E398" s="3">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="399" s="3" customFormat="1" spans="1:5">
+      <c r="A399" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E399" s="3">
+        <v>6509</v>
+      </c>
+    </row>
+    <row r="400" s="3" customFormat="1" spans="1:5">
+      <c r="A400" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E400" s="3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="401" s="3" customFormat="1" spans="1:5">
+      <c r="A401" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E401" s="3">
+        <v>6986</v>
+      </c>
+    </row>
+    <row r="402" s="3" customFormat="1" spans="1:5">
+      <c r="A402" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E402" s="3">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="403" s="3" customFormat="1" spans="1:5">
+      <c r="A403" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E403" s="3">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="404" s="3" customFormat="1" spans="1:5">
+      <c r="A404" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E404" s="3">
+        <v>99305</v>
+      </c>
+    </row>
+    <row r="405" s="3" customFormat="1" spans="1:5">
+      <c r="A405" s="5">
+        <v>43581</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E405" s="3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="406" s="4" customFormat="1" spans="1:5">
+      <c r="A406" s="11">
+        <v>43582</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E406" s="4">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="407" s="3" customFormat="1" spans="1:5">
+      <c r="A407" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E407" s="3">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="408" s="3" customFormat="1" spans="1:5">
+      <c r="A408" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E408" s="3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="409" s="3" customFormat="1" spans="1:5">
+      <c r="A409" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E409" s="3">
+        <v>22559</v>
+      </c>
+    </row>
+    <row r="410" s="3" customFormat="1" spans="1:5">
+      <c r="A410" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E410" s="3">
+        <v>23807</v>
+      </c>
+    </row>
+    <row r="411" s="3" customFormat="1" spans="1:5">
+      <c r="A411" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E411" s="3">
+        <v>12266</v>
+      </c>
+    </row>
+    <row r="412" s="3" customFormat="1" spans="1:5">
+      <c r="A412" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E412" s="3">
+        <v>12164</v>
+      </c>
+    </row>
+    <row r="413" s="3" customFormat="1" spans="1:5">
+      <c r="A413" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E413" s="3">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="414" s="3" customFormat="1" spans="1:5">
+      <c r="A414" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E414" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="415" s="3" customFormat="1" spans="1:5">
+      <c r="A415" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E415" s="3">
+        <v>41871</v>
+      </c>
+    </row>
+    <row r="416" s="3" customFormat="1" spans="1:5">
+      <c r="A416" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E416" s="3">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="417" s="3" customFormat="1" spans="1:5">
+      <c r="A417" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E417" s="3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="418" s="3" customFormat="1" spans="1:5">
+      <c r="A418" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E418" s="3">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="419" s="3" customFormat="1" spans="1:5">
+      <c r="A419" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E419" s="3">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="420" s="3" customFormat="1" spans="1:5">
+      <c r="A420" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E420" s="3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="421" s="3" customFormat="1" spans="1:5">
+      <c r="A421" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E421" s="3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="422" s="3" customFormat="1" spans="1:5">
+      <c r="A422" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E422" s="3">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="423" s="3" customFormat="1" spans="1:5">
+      <c r="A423" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E423" s="3">
+        <v>8744</v>
+      </c>
+    </row>
+    <row r="424" s="3" customFormat="1" spans="1:5">
+      <c r="A424" s="12">
+        <v>43582</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E424" s="3">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B352">
+  <autoFilter ref="B1:B380">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$380</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$424</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="240">
   <si>
     <t>湖南</t>
   </si>
@@ -745,10 +745,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
@@ -760,8 +760,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,6 +770,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,21 +792,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,6 +843,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -819,9 +858,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,10 +881,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,46 +897,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,7 +919,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +1045,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,19 +1075,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,127 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,6 +1122,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1131,32 +1146,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,24 +1172,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1206,15 +1182,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1227,10 +1227,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1239,137 +1239,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1377,10 +1377,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,9 +1402,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1755,17 +1752,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E425"/>
+  <dimension ref="A1:E437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="H381" sqref="H381"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="F413" sqref="F413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="133.5" customWidth="1"/>
+    <col min="4" max="4" width="81.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -8228,759 +8225,977 @@
         <v>8771</v>
       </c>
     </row>
-    <row r="381" s="3" customFormat="1" spans="1:5">
+    <row r="381" s="2" customFormat="1" spans="1:5">
       <c r="A381" s="5">
         <v>43581</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B381" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="C381" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E381" s="3">
+      <c r="E381" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="382" s="3" customFormat="1" spans="1:5">
+    <row r="382" s="2" customFormat="1" spans="1:5">
       <c r="A382" s="5">
         <v>43581</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B382" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C382" s="3" t="s">
+      <c r="C382" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D382" s="3" t="s">
+      <c r="D382" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E382" s="3">
+      <c r="E382" s="2">
         <v>12743</v>
       </c>
     </row>
-    <row r="383" s="3" customFormat="1" spans="1:5">
+    <row r="383" s="2" customFormat="1" spans="1:5">
       <c r="A383" s="5">
         <v>43581</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C383" s="3" t="s">
+      <c r="C383" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D383" s="3" t="s">
+      <c r="D383" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E383" s="3">
+      <c r="E383" s="2">
         <v>1445</v>
       </c>
     </row>
-    <row r="384" s="3" customFormat="1" spans="1:5">
+    <row r="384" s="2" customFormat="1" spans="1:5">
       <c r="A384" s="5">
         <v>43581</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C384" s="3" t="s">
+      <c r="C384" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D384" s="3" t="s">
+      <c r="D384" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E384" s="3">
+      <c r="E384" s="2">
         <v>99606</v>
       </c>
     </row>
-    <row r="385" s="4" customFormat="1" spans="1:5">
+    <row r="385" s="3" customFormat="1" spans="1:5">
       <c r="A385" s="11">
         <v>43581</v>
       </c>
-      <c r="B385" s="4" t="s">
+      <c r="B385" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C385" s="4" t="s">
+      <c r="C385" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D385" s="4" t="s">
+      <c r="D385" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E385" s="4">
+      <c r="E385" s="3">
         <v>2992</v>
       </c>
     </row>
-    <row r="386" s="3" customFormat="1" spans="1:5">
+    <row r="386" s="2" customFormat="1" spans="1:5">
       <c r="A386" s="5">
         <v>43581</v>
       </c>
-      <c r="B386" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C386" s="3" t="s">
+      <c r="B386" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C386" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D386" s="3" t="s">
+      <c r="D386" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E386" s="3">
+      <c r="E386" s="2">
         <v>784</v>
       </c>
     </row>
-    <row r="387" s="3" customFormat="1" spans="1:5">
+    <row r="387" s="2" customFormat="1" spans="1:5">
       <c r="A387" s="5">
         <v>43581</v>
       </c>
-      <c r="B387" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C387" s="3" t="s">
+      <c r="B387" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D387" s="3" t="s">
+      <c r="D387" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E387" s="3">
+      <c r="E387" s="2">
         <v>476</v>
       </c>
     </row>
-    <row r="388" s="3" customFormat="1" spans="1:5">
+    <row r="388" s="2" customFormat="1" spans="1:5">
       <c r="A388" s="5">
         <v>43581</v>
       </c>
-      <c r="B388" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C388" s="3" t="s">
+      <c r="B388" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E388" s="3">
+      <c r="E388" s="2">
         <v>22420</v>
       </c>
     </row>
-    <row r="389" s="3" customFormat="1" spans="1:5">
+    <row r="389" s="2" customFormat="1" spans="1:5">
       <c r="A389" s="5">
         <v>43581</v>
       </c>
-      <c r="B389" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C389" s="3" t="s">
+      <c r="B389" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E389" s="3">
+      <c r="E389" s="2">
         <v>28071</v>
       </c>
     </row>
-    <row r="390" s="3" customFormat="1" spans="1:5">
+    <row r="390" s="2" customFormat="1" spans="1:5">
       <c r="A390" s="5">
         <v>43581</v>
       </c>
-      <c r="B390" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C390" s="3" t="s">
+      <c r="B390" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C390" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E390" s="3">
+      <c r="E390" s="2">
         <v>12235</v>
       </c>
     </row>
-    <row r="391" s="3" customFormat="1" spans="1:5">
+    <row r="391" s="2" customFormat="1" spans="1:5">
       <c r="A391" s="5">
         <v>43581</v>
       </c>
-      <c r="B391" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C391" s="3" t="s">
+      <c r="B391" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C391" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E391" s="3">
+      <c r="E391" s="2">
         <v>12126</v>
       </c>
     </row>
-    <row r="392" s="3" customFormat="1" spans="1:5">
+    <row r="392" s="2" customFormat="1" spans="1:5">
       <c r="A392" s="5">
         <v>43581</v>
       </c>
-      <c r="B392" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C392" s="3" t="s">
+      <c r="B392" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E392" s="3">
+      <c r="E392" s="2">
         <v>1452</v>
       </c>
     </row>
-    <row r="393" s="3" customFormat="1" spans="1:5">
+    <row r="393" s="2" customFormat="1" spans="1:5">
       <c r="A393" s="5">
         <v>43581</v>
       </c>
-      <c r="B393" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C393" s="3" t="s">
+      <c r="B393" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C393" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E393" s="3">
+      <c r="E393" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="394" s="3" customFormat="1" spans="1:5">
+    <row r="394" s="2" customFormat="1" spans="1:5">
       <c r="A394" s="5">
         <v>43581</v>
       </c>
-      <c r="B394" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C394" s="3" t="s">
+      <c r="B394" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C394" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E394" s="3">
+      <c r="E394" s="2">
         <v>42027</v>
       </c>
     </row>
-    <row r="395" s="3" customFormat="1" spans="1:5">
+    <row r="395" s="2" customFormat="1" spans="1:5">
       <c r="A395" s="5">
         <v>43581</v>
       </c>
-      <c r="B395" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C395" s="3" t="s">
+      <c r="B395" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C395" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E395" s="3">
+      <c r="E395" s="2">
         <v>375</v>
       </c>
     </row>
-    <row r="396" s="3" customFormat="1" spans="1:5">
+    <row r="396" s="2" customFormat="1" spans="1:5">
       <c r="A396" s="5">
         <v>43581</v>
       </c>
-      <c r="B396" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C396" s="3" t="s">
+      <c r="B396" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E396" s="3">
+      <c r="E396" s="2">
         <v>2242</v>
       </c>
     </row>
-    <row r="397" s="3" customFormat="1" spans="1:5">
+    <row r="397" s="2" customFormat="1" spans="1:5">
       <c r="A397" s="5">
         <v>43581</v>
       </c>
-      <c r="B397" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C397" s="3" t="s">
+      <c r="B397" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E397" s="3">
+      <c r="E397" s="2">
         <v>1424</v>
       </c>
     </row>
-    <row r="398" s="3" customFormat="1" spans="1:5">
+    <row r="398" s="2" customFormat="1" spans="1:5">
       <c r="A398" s="5">
         <v>43581</v>
       </c>
-      <c r="B398" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C398" s="3" t="s">
+      <c r="B398" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E398" s="3">
+      <c r="E398" s="2">
         <v>1580</v>
       </c>
     </row>
-    <row r="399" s="3" customFormat="1" spans="1:5">
+    <row r="399" s="2" customFormat="1" spans="1:5">
       <c r="A399" s="5">
         <v>43581</v>
       </c>
-      <c r="B399" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C399" s="3" t="s">
+      <c r="B399" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C399" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D399" s="3" t="s">
+      <c r="D399" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E399" s="3">
+      <c r="E399" s="2">
         <v>6509</v>
       </c>
     </row>
-    <row r="400" s="3" customFormat="1" spans="1:5">
+    <row r="400" s="2" customFormat="1" spans="1:5">
       <c r="A400" s="5">
         <v>43581</v>
       </c>
-      <c r="B400" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C400" s="3" t="s">
+      <c r="B400" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D400" s="3" t="s">
+      <c r="D400" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E400" s="3">
+      <c r="E400" s="2">
         <v>386</v>
       </c>
     </row>
-    <row r="401" s="3" customFormat="1" spans="1:5">
+    <row r="401" s="2" customFormat="1" spans="1:5">
       <c r="A401" s="5">
         <v>43581</v>
       </c>
-      <c r="B401" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C401" s="3" t="s">
+      <c r="B401" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D401" s="3" t="s">
+      <c r="D401" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E401" s="3">
+      <c r="E401" s="2">
         <v>6986</v>
       </c>
     </row>
-    <row r="402" s="3" customFormat="1" spans="1:5">
+    <row r="402" s="2" customFormat="1" spans="1:5">
       <c r="A402" s="5">
         <v>43581</v>
       </c>
-      <c r="B402" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C402" s="3" t="s">
+      <c r="B402" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C402" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D402" s="3" t="s">
+      <c r="D402" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E402" s="3">
+      <c r="E402" s="2">
         <v>5305</v>
       </c>
     </row>
-    <row r="403" s="3" customFormat="1" spans="1:5">
+    <row r="403" s="2" customFormat="1" spans="1:5">
       <c r="A403" s="5">
         <v>43581</v>
       </c>
-      <c r="B403" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C403" s="3" t="s">
+      <c r="B403" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D403" s="3" t="s">
+      <c r="D403" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E403" s="3">
+      <c r="E403" s="2">
         <v>994</v>
       </c>
     </row>
-    <row r="404" s="3" customFormat="1" spans="1:5">
+    <row r="404" s="2" customFormat="1" spans="1:5">
       <c r="A404" s="5">
         <v>43581</v>
       </c>
-      <c r="B404" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C404" s="3" t="s">
+      <c r="B404" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C404" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D404" s="3" t="s">
+      <c r="D404" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E404" s="3">
+      <c r="E404" s="2">
         <v>99305</v>
       </c>
     </row>
-    <row r="405" s="3" customFormat="1" spans="1:5">
+    <row r="405" s="2" customFormat="1" spans="1:5">
       <c r="A405" s="5">
         <v>43581</v>
       </c>
-      <c r="B405" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C405" s="3" t="s">
+      <c r="B405" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C405" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D405" s="3" t="s">
+      <c r="D405" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E405" s="3">
+      <c r="E405" s="2">
         <v>576</v>
       </c>
     </row>
-    <row r="406" s="4" customFormat="1" spans="1:5">
+    <row r="406" s="3" customFormat="1" spans="1:5">
       <c r="A406" s="11">
         <v>43582</v>
       </c>
-      <c r="B406" s="4" t="s">
+      <c r="B406" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C406" s="4" t="s">
+      <c r="C406" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D406" s="4" t="s">
+      <c r="D406" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E406" s="4">
+      <c r="E406" s="3">
         <v>2650</v>
       </c>
     </row>
-    <row r="407" s="3" customFormat="1" spans="1:5">
-      <c r="A407" s="12">
+    <row r="407" s="2" customFormat="1" spans="1:5">
+      <c r="A407" s="5">
         <v>43582</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B407" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C407" s="3" t="s">
+      <c r="C407" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D407" s="3" t="s">
+      <c r="D407" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E407" s="3">
+      <c r="E407" s="2">
         <v>1073</v>
       </c>
     </row>
-    <row r="408" s="3" customFormat="1" spans="1:5">
-      <c r="A408" s="12">
+    <row r="408" s="2" customFormat="1" spans="1:5">
+      <c r="A408" s="5">
         <v>43582</v>
       </c>
-      <c r="B408" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C408" s="3" t="s">
+      <c r="B408" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D408" s="3" t="s">
+      <c r="D408" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E408" s="3">
+      <c r="E408" s="2">
         <v>834</v>
       </c>
     </row>
-    <row r="409" s="3" customFormat="1" spans="1:5">
-      <c r="A409" s="12">
+    <row r="409" s="2" customFormat="1" spans="1:5">
+      <c r="A409" s="5">
         <v>43582</v>
       </c>
-      <c r="B409" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C409" s="3" t="s">
+      <c r="B409" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E409" s="3">
+      <c r="E409" s="2">
         <v>22559</v>
       </c>
     </row>
-    <row r="410" s="3" customFormat="1" spans="1:5">
-      <c r="A410" s="12">
+    <row r="410" s="2" customFormat="1" spans="1:5">
+      <c r="A410" s="5">
         <v>43582</v>
       </c>
-      <c r="B410" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C410" s="3" t="s">
+      <c r="B410" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E410" s="3">
+      <c r="E410" s="2">
         <v>23807</v>
       </c>
     </row>
-    <row r="411" s="3" customFormat="1" spans="1:5">
-      <c r="A411" s="12">
+    <row r="411" s="2" customFormat="1" spans="1:5">
+      <c r="A411" s="5">
         <v>43582</v>
       </c>
-      <c r="B411" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C411" s="3" t="s">
+      <c r="B411" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C411" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E411" s="3">
+      <c r="E411" s="2">
         <v>12266</v>
       </c>
     </row>
-    <row r="412" s="3" customFormat="1" spans="1:5">
-      <c r="A412" s="12">
+    <row r="412" s="2" customFormat="1" spans="1:5">
+      <c r="A412" s="5">
         <v>43582</v>
       </c>
-      <c r="B412" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C412" s="3" t="s">
+      <c r="B412" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E412" s="3">
+      <c r="E412" s="2">
         <v>12164</v>
       </c>
     </row>
-    <row r="413" s="3" customFormat="1" spans="1:5">
-      <c r="A413" s="12">
+    <row r="413" s="2" customFormat="1" spans="1:5">
+      <c r="A413" s="5">
         <v>43582</v>
       </c>
-      <c r="B413" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C413" s="3" t="s">
+      <c r="B413" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E413" s="3">
+      <c r="E413" s="2">
         <v>1496</v>
       </c>
     </row>
-    <row r="414" s="3" customFormat="1" spans="1:5">
-      <c r="A414" s="12">
+    <row r="414" s="2" customFormat="1" spans="1:5">
+      <c r="A414" s="5">
         <v>43582</v>
       </c>
-      <c r="B414" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C414" s="3" t="s">
+      <c r="B414" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D414" s="3" t="s">
+      <c r="D414" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E414" s="3">
+      <c r="E414" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="415" s="3" customFormat="1" spans="1:5">
-      <c r="A415" s="12">
+    <row r="415" s="2" customFormat="1" spans="1:5">
+      <c r="A415" s="5">
         <v>43582</v>
       </c>
-      <c r="B415" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C415" s="3" t="s">
+      <c r="B415" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C415" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E415" s="3">
+      <c r="E415" s="2">
         <v>41871</v>
       </c>
     </row>
-    <row r="416" s="3" customFormat="1" spans="1:5">
-      <c r="A416" s="12">
+    <row r="416" s="2" customFormat="1" spans="1:5">
+      <c r="A416" s="5">
         <v>43582</v>
       </c>
-      <c r="B416" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C416" s="3" t="s">
+      <c r="B416" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D416" s="3" t="s">
+      <c r="D416" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E416" s="3">
+      <c r="E416" s="2">
         <v>3191</v>
       </c>
     </row>
-    <row r="417" s="3" customFormat="1" spans="1:5">
-      <c r="A417" s="12">
+    <row r="417" s="2" customFormat="1" spans="1:5">
+      <c r="A417" s="5">
         <v>43582</v>
       </c>
-      <c r="B417" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C417" s="3" t="s">
+      <c r="B417" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C417" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D417" s="3" t="s">
+      <c r="D417" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E417" s="3">
+      <c r="E417" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="418" s="3" customFormat="1" spans="1:5">
-      <c r="A418" s="12">
+    <row r="418" s="2" customFormat="1" spans="1:5">
+      <c r="A418" s="5">
         <v>43582</v>
       </c>
-      <c r="B418" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C418" s="3" t="s">
+      <c r="B418" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C418" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E418" s="3">
+      <c r="E418" s="2">
         <v>1924</v>
       </c>
     </row>
-    <row r="419" s="3" customFormat="1" spans="1:5">
-      <c r="A419" s="12">
+    <row r="419" s="2" customFormat="1" spans="1:5">
+      <c r="A419" s="5">
         <v>43582</v>
       </c>
-      <c r="B419" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C419" s="3" t="s">
+      <c r="B419" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C419" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E419" s="3">
+      <c r="E419" s="2">
         <v>1251</v>
       </c>
     </row>
-    <row r="420" s="3" customFormat="1" spans="1:5">
-      <c r="A420" s="12">
+    <row r="420" s="2" customFormat="1" spans="1:5">
+      <c r="A420" s="5">
         <v>43582</v>
       </c>
-      <c r="B420" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C420" s="3" t="s">
+      <c r="B420" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C420" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D420" s="3" t="s">
+      <c r="D420" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E420" s="3">
+      <c r="E420" s="2">
         <v>508</v>
       </c>
     </row>
-    <row r="421" s="3" customFormat="1" spans="1:5">
-      <c r="A421" s="12">
+    <row r="421" s="2" customFormat="1" spans="1:5">
+      <c r="A421" s="5">
         <v>43582</v>
       </c>
-      <c r="B421" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C421" s="3" t="s">
+      <c r="B421" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D421" s="3" t="s">
+      <c r="D421" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E421" s="3">
+      <c r="E421" s="2">
         <v>318</v>
       </c>
     </row>
-    <row r="422" s="3" customFormat="1" spans="1:5">
-      <c r="A422" s="12">
+    <row r="422" s="2" customFormat="1" spans="1:5">
+      <c r="A422" s="5">
         <v>43582</v>
       </c>
-      <c r="B422" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C422" s="3" t="s">
+      <c r="B422" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C422" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D422" s="3" t="s">
+      <c r="D422" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E422" s="3">
+      <c r="E422" s="2">
         <v>5198</v>
       </c>
     </row>
-    <row r="423" s="3" customFormat="1" spans="1:5">
-      <c r="A423" s="12">
+    <row r="423" s="2" customFormat="1" spans="1:5">
+      <c r="A423" s="5">
         <v>43582</v>
       </c>
-      <c r="B423" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C423" s="3" t="s">
+      <c r="B423" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C423" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D423" s="3" t="s">
+      <c r="D423" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E423" s="3">
+      <c r="E423" s="2">
         <v>8744</v>
       </c>
     </row>
-    <row r="424" s="3" customFormat="1" spans="1:5">
-      <c r="A424" s="12">
+    <row r="424" s="2" customFormat="1" spans="1:5">
+      <c r="A424" s="5">
         <v>43582</v>
       </c>
-      <c r="B424" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C424" s="3" t="s">
+      <c r="B424" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C424" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D424" s="3" t="s">
+      <c r="D424" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E424" s="3">
+      <c r="E424" s="2">
         <v>1298</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
-      <c r="A425" s="12"/>
+    <row r="425" s="4" customFormat="1" spans="1:5">
+      <c r="A425" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E425" s="4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="426" s="4" customFormat="1" spans="1:5">
+      <c r="A426" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E426" s="4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="427" s="4" customFormat="1" spans="1:5">
+      <c r="A427" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E427" s="4">
+        <v>20553</v>
+      </c>
+    </row>
+    <row r="428" s="4" customFormat="1" spans="1:5">
+      <c r="A428" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E428" s="4">
+        <v>21156</v>
+      </c>
+    </row>
+    <row r="429" s="4" customFormat="1" spans="1:5">
+      <c r="A429" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C429" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E429" s="4">
+        <v>11141</v>
+      </c>
+    </row>
+    <row r="430" s="4" customFormat="1" spans="1:5">
+      <c r="A430" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E430" s="4">
+        <v>11415</v>
+      </c>
+    </row>
+    <row r="431" s="4" customFormat="1" spans="1:5">
+      <c r="A431" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E431" s="4">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="432" s="4" customFormat="1" spans="1:5">
+      <c r="A432" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C432" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E432" s="4">
+        <v>39082</v>
+      </c>
+    </row>
+    <row r="433" s="4" customFormat="1" spans="1:5">
+      <c r="A433" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E433" s="4">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="434" s="4" customFormat="1" spans="1:5">
+      <c r="A434" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E434" s="4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="435" s="4" customFormat="1" spans="1:5">
+      <c r="A435" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E435" s="4">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="436" s="4" customFormat="1" spans="1:5">
+      <c r="A436" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E436" s="4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="437" s="4" customFormat="1" spans="1:5">
+      <c r="A437" s="5">
+        <v>43583</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E437" s="4">
+        <v>7936</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B380">
+  <autoFilter ref="B1:B424">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$424</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$437</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="242">
   <si>
     <t>湖南</t>
   </si>
@@ -738,6 +738,12 @@
   </si>
   <si>
     <t>股票-20190426-华总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1527</t>
+  </si>
+  <si>
+    <t>POS-20190428-综合重复率低(全国)-5天</t>
   </si>
 </sst>
 </file>
@@ -746,9 +752,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
@@ -762,7 +768,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,22 +797,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -799,14 +805,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,30 +827,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,13 +855,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -881,7 +864,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -903,6 +886,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -919,7 +925,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +961,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,19 +1015,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,73 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,55 +1093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,39 +1129,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1166,17 +1139,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,6 +1154,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,6 +1199,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1227,10 +1233,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1239,133 +1245,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1752,17 +1758,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E437"/>
+  <dimension ref="A1:E447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="F413" sqref="F413"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="G429" sqref="G429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="81.875" customWidth="1"/>
+    <col min="4" max="4" width="85.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -8973,229 +8979,399 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="425" s="4" customFormat="1" spans="1:5">
+    <row r="425" s="2" customFormat="1" spans="1:5">
       <c r="A425" s="5">
         <v>43583</v>
       </c>
-      <c r="B425" s="4" t="s">
+      <c r="B425" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C425" s="4" t="s">
+      <c r="C425" s="2" t="s">
         <v>224</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E425" s="4">
+      <c r="E425" s="2">
         <v>368</v>
       </c>
     </row>
-    <row r="426" s="4" customFormat="1" spans="1:5">
+    <row r="426" s="2" customFormat="1" spans="1:5">
       <c r="A426" s="5">
         <v>43583</v>
       </c>
-      <c r="B426" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C426" s="4" t="s">
+      <c r="B426" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C426" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E426" s="4">
+      <c r="E426" s="2">
         <v>820</v>
       </c>
     </row>
-    <row r="427" s="4" customFormat="1" spans="1:5">
+    <row r="427" s="2" customFormat="1" spans="1:5">
       <c r="A427" s="5">
         <v>43583</v>
       </c>
-      <c r="B427" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C427" s="4" t="s">
+      <c r="B427" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C427" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E427" s="4">
+      <c r="E427" s="2">
         <v>20553</v>
       </c>
     </row>
-    <row r="428" s="4" customFormat="1" spans="1:5">
+    <row r="428" s="2" customFormat="1" spans="1:5">
       <c r="A428" s="5">
         <v>43583</v>
       </c>
-      <c r="B428" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C428" s="4" t="s">
+      <c r="B428" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C428" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E428" s="4">
+      <c r="E428" s="2">
         <v>21156</v>
       </c>
     </row>
-    <row r="429" s="4" customFormat="1" spans="1:5">
+    <row r="429" s="2" customFormat="1" spans="1:5">
       <c r="A429" s="5">
         <v>43583</v>
       </c>
-      <c r="B429" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C429" s="4" t="s">
+      <c r="B429" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C429" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D429" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E429" s="4">
+      <c r="E429" s="2">
         <v>11141</v>
       </c>
     </row>
-    <row r="430" s="4" customFormat="1" spans="1:5">
+    <row r="430" s="2" customFormat="1" spans="1:5">
       <c r="A430" s="5">
         <v>43583</v>
       </c>
-      <c r="B430" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C430" s="4" t="s">
+      <c r="B430" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C430" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E430" s="4">
+      <c r="E430" s="2">
         <v>11415</v>
       </c>
     </row>
-    <row r="431" s="4" customFormat="1" spans="1:5">
+    <row r="431" s="2" customFormat="1" spans="1:5">
       <c r="A431" s="5">
         <v>43583</v>
       </c>
-      <c r="B431" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C431" s="4" t="s">
+      <c r="B431" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E431" s="4">
+      <c r="E431" s="2">
         <v>1322</v>
       </c>
     </row>
-    <row r="432" s="4" customFormat="1" spans="1:5">
+    <row r="432" s="2" customFormat="1" spans="1:5">
       <c r="A432" s="5">
         <v>43583</v>
       </c>
-      <c r="B432" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C432" s="4" t="s">
+      <c r="B432" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E432" s="4">
+      <c r="E432" s="2">
         <v>39082</v>
       </c>
     </row>
-    <row r="433" s="4" customFormat="1" spans="1:5">
+    <row r="433" s="2" customFormat="1" spans="1:5">
       <c r="A433" s="5">
         <v>43583</v>
       </c>
-      <c r="B433" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C433" s="4" t="s">
+      <c r="B433" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E433" s="4">
+      <c r="E433" s="2">
         <v>2667</v>
       </c>
     </row>
-    <row r="434" s="4" customFormat="1" spans="1:5">
+    <row r="434" s="2" customFormat="1" spans="1:5">
       <c r="A434" s="5">
         <v>43583</v>
       </c>
-      <c r="B434" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C434" s="4" t="s">
+      <c r="B434" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E434" s="4">
+      <c r="E434" s="2">
         <v>375</v>
       </c>
     </row>
-    <row r="435" s="4" customFormat="1" spans="1:5">
+    <row r="435" s="2" customFormat="1" spans="1:5">
       <c r="A435" s="5">
         <v>43583</v>
       </c>
-      <c r="B435" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C435" s="4" t="s">
+      <c r="B435" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E435" s="4">
+      <c r="E435" s="2">
         <v>1382</v>
       </c>
     </row>
-    <row r="436" s="4" customFormat="1" spans="1:5">
+    <row r="436" s="2" customFormat="1" spans="1:5">
       <c r="A436" s="5">
         <v>43583</v>
       </c>
-      <c r="B436" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C436" s="4" t="s">
+      <c r="B436" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E436" s="4">
+      <c r="E436" s="2">
         <v>324</v>
       </c>
     </row>
-    <row r="437" s="4" customFormat="1" spans="1:5">
+    <row r="437" s="2" customFormat="1" spans="1:5">
       <c r="A437" s="5">
         <v>43583</v>
       </c>
-      <c r="B437" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C437" s="4" t="s">
+      <c r="B437" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C437" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E437" s="4">
+      <c r="E437" s="2">
         <v>7936</v>
       </c>
     </row>
+    <row r="438" s="4" customFormat="1" spans="1:5">
+      <c r="A438" s="5">
+        <v>43584</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E438" s="4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="439" s="4" customFormat="1" spans="1:5">
+      <c r="A439" s="5">
+        <v>43584</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E439" s="4">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="440" s="4" customFormat="1" spans="1:5">
+      <c r="A440" s="5">
+        <v>43584</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E440" s="4">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="441" s="4" customFormat="1" spans="1:5">
+      <c r="A441" s="5">
+        <v>43584</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E441" s="4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="442" s="4" customFormat="1" spans="1:5">
+      <c r="A442" s="5">
+        <v>43584</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C442" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D442" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E442" s="4">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="443" s="4" customFormat="1" spans="1:5">
+      <c r="A443" s="5">
+        <v>43584</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C443" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E443" s="4">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="444" s="4" customFormat="1" spans="1:5">
+      <c r="A444" s="5">
+        <v>43584</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D444" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E444" s="4">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="445" s="4" customFormat="1" spans="1:5">
+      <c r="A445" s="5">
+        <v>43584</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E445" s="4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="446" s="4" customFormat="1" spans="1:5">
+      <c r="A446" s="5">
+        <v>43584</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C446" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D446" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E446" s="4">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="447" s="4" customFormat="1" spans="1:5">
+      <c r="A447" s="5">
+        <v>43584</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C447" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D447" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E447" s="4">
+        <v>220292</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B424">
+  <autoFilter ref="B1:B437">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$437</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$458</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="244">
   <si>
     <t>湖南</t>
   </si>
@@ -744,6 +744,12 @@
   </si>
   <si>
     <t>POS-20190428-综合重复率低(全国)-5天</t>
+  </si>
+  <si>
+    <t>dt1533</t>
+  </si>
+  <si>
+    <t>消防-20190429-曹总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -752,15 +758,46 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -775,16 +812,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,44 +856,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,6 +871,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -871,40 +902,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,13 +931,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +967,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +1069,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,139 +1105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,6 +1134,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1143,26 +1158,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,26 +1193,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,11 +1225,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,10 +1239,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1245,137 +1251,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1384,9 +1390,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1758,72 +1761,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E447"/>
+  <dimension ref="A1:E459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="G429" sqref="G429"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="H449" sqref="H449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="85.875" customWidth="1"/>
+    <col min="4" max="4" width="97.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>43556</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="6">
         <v>1810</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>43556</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>128</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>43556</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>7491</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>43557</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1840,7 +1843,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>43557</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1857,7 +1860,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>43557</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1866,7 +1869,7 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2">
@@ -1874,7 +1877,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>43557</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1883,7 +1886,7 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="2">
@@ -1891,7 +1894,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:5">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>43557</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1900,7 +1903,7 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2">
@@ -1908,7 +1911,7 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>43557</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1917,7 +1920,7 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2">
@@ -1925,7 +1928,7 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>43557</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1934,7 +1937,7 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2">
@@ -1942,7 +1945,7 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:5">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>43557</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1951,7 +1954,7 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2">
@@ -1959,7 +1962,7 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>43557</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1968,7 +1971,7 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="2">
@@ -1976,7 +1979,7 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:5">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>43557</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1985,7 +1988,7 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="2">
@@ -1993,7 +1996,7 @@
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:5">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>43557</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2002,7 +2005,7 @@
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="2">
@@ -2010,7 +2013,7 @@
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:5">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>43557</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2019,7 +2022,7 @@
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2">
@@ -2027,7 +2030,7 @@
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:5">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>43557</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2036,7 +2039,7 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="2">
@@ -2044,7 +2047,7 @@
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:5">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>43557</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2061,7 +2064,7 @@
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:5">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>43557</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2078,7 +2081,7 @@
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:5">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>43557</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2095,7 +2098,7 @@
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:5">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>43557</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2112,7 +2115,7 @@
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:5">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>43557</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2121,7 +2124,7 @@
       <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="2">
@@ -2129,7 +2132,7 @@
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:5">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>43558</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2138,7 +2141,7 @@
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="2">
@@ -2146,7 +2149,7 @@
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:5">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>43558</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2155,7 +2158,7 @@
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="2">
@@ -2163,7 +2166,7 @@
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:5">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>43558</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2172,7 +2175,7 @@
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="2">
@@ -2180,7 +2183,7 @@
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:5">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>43558</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2189,7 +2192,7 @@
       <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="2">
@@ -2197,7 +2200,7 @@
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:5">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>43558</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2206,7 +2209,7 @@
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="2">
@@ -2214,7 +2217,7 @@
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:5">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>43558</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2223,7 +2226,7 @@
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="2">
@@ -2231,7 +2234,7 @@
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:5">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>43558</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2240,7 +2243,7 @@
       <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="2">
@@ -2248,7 +2251,7 @@
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:5">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>43558</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2257,7 +2260,7 @@
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="2">
@@ -2265,7 +2268,7 @@
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:5">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>43558</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2274,7 +2277,7 @@
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="2">
@@ -2282,7 +2285,7 @@
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:5">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>43558</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2299,7 +2302,7 @@
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:5">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>43558</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2316,7 +2319,7 @@
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:5">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>43558</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2333,7 +2336,7 @@
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:5">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>43558</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2350,7 +2353,7 @@
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:5">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>43558</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2367,7 +2370,7 @@
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:5">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>43558</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2384,7 +2387,7 @@
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:5">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>43559</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2393,7 +2396,7 @@
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2">
@@ -2401,7 +2404,7 @@
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:5">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>43559</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2410,7 +2413,7 @@
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="2">
@@ -2418,7 +2421,7 @@
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:5">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>43559</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2427,7 +2430,7 @@
       <c r="C39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="2">
@@ -2435,7 +2438,7 @@
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:5">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>43559</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2444,7 +2447,7 @@
       <c r="C40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="2">
@@ -2452,7 +2455,7 @@
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:5">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>43559</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2461,7 +2464,7 @@
       <c r="C41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="2">
@@ -2469,7 +2472,7 @@
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:5">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>43559</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2478,7 +2481,7 @@
       <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="2">
@@ -2486,7 +2489,7 @@
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:5">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>43559</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2495,7 +2498,7 @@
       <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="2">
@@ -2503,7 +2506,7 @@
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:5">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>43559</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2512,7 +2515,7 @@
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="2">
@@ -2520,7 +2523,7 @@
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:5">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>43559</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2529,7 +2532,7 @@
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="2">
@@ -2537,7 +2540,7 @@
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:5">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>43559</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2554,7 +2557,7 @@
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:5">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>43559</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2571,7 +2574,7 @@
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:5">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>43559</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2588,7 +2591,7 @@
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:5">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>43559</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2605,7 +2608,7 @@
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:5">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>43559</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2622,7 +2625,7 @@
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:5">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>43559</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2639,7 +2642,7 @@
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:5">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>43560</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2648,7 +2651,7 @@
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="2">
@@ -2656,7 +2659,7 @@
       </c>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:5">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>43560</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2665,7 +2668,7 @@
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="2">
@@ -2673,7 +2676,7 @@
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:5">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>43560</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2682,7 +2685,7 @@
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="2">
@@ -2690,7 +2693,7 @@
       </c>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:5">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>43560</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2699,7 +2702,7 @@
       <c r="C55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="2">
@@ -2707,7 +2710,7 @@
       </c>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:5">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>43560</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2716,7 +2719,7 @@
       <c r="C56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="2">
@@ -2724,7 +2727,7 @@
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:5">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>43560</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2733,7 +2736,7 @@
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="2">
@@ -2741,7 +2744,7 @@
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:5">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>43560</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2750,7 +2753,7 @@
       <c r="C58" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="2">
@@ -2758,7 +2761,7 @@
       </c>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:5">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>43560</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2775,7 +2778,7 @@
       </c>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:5">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>43560</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2792,7 +2795,7 @@
       </c>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:5">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>43560</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2809,7 +2812,7 @@
       </c>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:5">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>43560</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2826,7 +2829,7 @@
       </c>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:5">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>43560</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2843,7 +2846,7 @@
       </c>
     </row>
     <row r="64" s="2" customFormat="1" spans="1:5">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>43560</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2860,7 +2863,7 @@
       </c>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:5">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>43560</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2877,7 +2880,7 @@
       </c>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:5">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>43560</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2894,7 +2897,7 @@
       </c>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:5">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>43560</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2911,7 +2914,7 @@
       </c>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:5">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>43560</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2920,7 +2923,7 @@
       <c r="C68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E68" s="2">
@@ -2928,7 +2931,7 @@
       </c>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:5">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>43560</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2937,7 +2940,7 @@
       <c r="C69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E69" s="2">
@@ -2945,7 +2948,7 @@
       </c>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:5">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>43560</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2962,7 +2965,7 @@
       </c>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:5">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>43561</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -2971,7 +2974,7 @@
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="2">
@@ -2979,7 +2982,7 @@
       </c>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:5">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>43561</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2988,7 +2991,7 @@
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="2">
@@ -2996,7 +2999,7 @@
       </c>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:5">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>43561</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3005,7 +3008,7 @@
       <c r="C73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E73" s="2">
@@ -3013,7 +3016,7 @@
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:5">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>43561</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3022,7 +3025,7 @@
       <c r="C74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="2">
@@ -3030,7 +3033,7 @@
       </c>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:5">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>43561</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3039,7 +3042,7 @@
       <c r="C75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E75" s="2">
@@ -3047,7 +3050,7 @@
       </c>
     </row>
     <row r="76" s="2" customFormat="1" spans="1:5">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>43561</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3064,7 +3067,7 @@
       </c>
     </row>
     <row r="77" s="2" customFormat="1" spans="1:5">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>43561</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3081,7 +3084,7 @@
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:5">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>43561</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3098,7 +3101,7 @@
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:5">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>43561</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3115,7 +3118,7 @@
       </c>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:5">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>43561</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3132,7 +3135,7 @@
       </c>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:5">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>43561</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3149,7 +3152,7 @@
       </c>
     </row>
     <row r="82" s="2" customFormat="1" spans="1:5">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>43561</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3158,7 +3161,7 @@
       <c r="C82" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E82" s="2">
@@ -3166,7 +3169,7 @@
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:5">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>43562</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3175,7 +3178,7 @@
       <c r="C83" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E83" s="2">
@@ -3183,7 +3186,7 @@
       </c>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:5">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>43562</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3192,7 +3195,7 @@
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E84" s="2">
@@ -3200,7 +3203,7 @@
       </c>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:5">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>43562</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3209,7 +3212,7 @@
       <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E85" s="2">
@@ -3217,7 +3220,7 @@
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:5">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>43562</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3226,7 +3229,7 @@
       <c r="C86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="2">
@@ -3234,7 +3237,7 @@
       </c>
     </row>
     <row r="87" s="2" customFormat="1" spans="1:5">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>43562</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3251,7 +3254,7 @@
       </c>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:5">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>43562</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3268,7 +3271,7 @@
       </c>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:5">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>43562</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3285,7 +3288,7 @@
       </c>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:5">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>43563</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3294,7 +3297,7 @@
       <c r="C90" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E90" s="2">
@@ -3302,7 +3305,7 @@
       </c>
     </row>
     <row r="91" s="2" customFormat="1" spans="1:5">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>43563</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3311,7 +3314,7 @@
       <c r="C91" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="2">
@@ -3319,7 +3322,7 @@
       </c>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:5">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>43563</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3336,7 +3339,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>43564</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3345,7 +3348,7 @@
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="2">
@@ -3353,7 +3356,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>43564</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3362,7 +3365,7 @@
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E94" s="2">
@@ -3370,7 +3373,7 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>43564</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3379,7 +3382,7 @@
       <c r="C95" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E95" s="2">
@@ -3387,7 +3390,7 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>43564</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3396,7 +3399,7 @@
       <c r="C96" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="2">
@@ -3404,7 +3407,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>43564</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3413,7 +3416,7 @@
       <c r="C97" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="2">
@@ -3421,7 +3424,7 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>43564</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3430,7 +3433,7 @@
       <c r="C98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E98" s="2">
@@ -3438,7 +3441,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>43564</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3455,7 +3458,7 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>43564</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3472,7 +3475,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>43564</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3489,7 +3492,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>43564</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3506,7 +3509,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>43564</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -3523,7 +3526,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>43564</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -3540,7 +3543,7 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>43564</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -3557,7 +3560,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>43564</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -3574,7 +3577,7 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>43564</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3591,7 +3594,7 @@
       </c>
     </row>
     <row r="108" s="2" customFormat="1" spans="1:5">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>43565</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3600,7 +3603,7 @@
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E108" s="2">
@@ -3608,7 +3611,7 @@
       </c>
     </row>
     <row r="109" s="2" customFormat="1" spans="1:5">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>43565</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -3617,7 +3620,7 @@
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E109" s="2">
@@ -3625,7 +3628,7 @@
       </c>
     </row>
     <row r="110" s="2" customFormat="1" spans="1:5">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>43565</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -3634,7 +3637,7 @@
       <c r="C110" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E110" s="2">
@@ -3642,7 +3645,7 @@
       </c>
     </row>
     <row r="111" s="2" customFormat="1" spans="1:5">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>43565</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -3651,7 +3654,7 @@
       <c r="C111" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E111" s="2">
@@ -3659,7 +3662,7 @@
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:5">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>43565</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -3668,7 +3671,7 @@
       <c r="C112" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E112" s="2">
@@ -3676,7 +3679,7 @@
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:5">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>43565</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -3685,7 +3688,7 @@
       <c r="C113" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E113" s="2">
@@ -3693,7 +3696,7 @@
       </c>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:5">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>43565</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -3702,7 +3705,7 @@
       <c r="C114" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E114" s="2">
@@ -3710,7 +3713,7 @@
       </c>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:5">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>43565</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -3719,7 +3722,7 @@
       <c r="C115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E115" s="2">
@@ -3727,7 +3730,7 @@
       </c>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:5">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>43565</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -3744,7 +3747,7 @@
       </c>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:5">
-      <c r="A117" s="5">
+      <c r="A117" s="4">
         <v>43565</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -3761,7 +3764,7 @@
       </c>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:5">
-      <c r="A118" s="5">
+      <c r="A118" s="4">
         <v>43565</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -3778,7 +3781,7 @@
       </c>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:5">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>43565</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -3795,7 +3798,7 @@
       </c>
     </row>
     <row r="120" s="2" customFormat="1" spans="1:5">
-      <c r="A120" s="5">
+      <c r="A120" s="4">
         <v>43565</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -3812,7 +3815,7 @@
       </c>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:5">
-      <c r="A121" s="5">
+      <c r="A121" s="4">
         <v>43565</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -3829,7 +3832,7 @@
       </c>
     </row>
     <row r="122" s="2" customFormat="1" spans="1:5">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>43565</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -3846,7 +3849,7 @@
       </c>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:5">
-      <c r="A123" s="5">
+      <c r="A123" s="4">
         <v>43565</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -3863,7 +3866,7 @@
       </c>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:5">
-      <c r="A124" s="5">
+      <c r="A124" s="4">
         <v>43565</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -3880,7 +3883,7 @@
       </c>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:5">
-      <c r="A125" s="5">
+      <c r="A125" s="4">
         <v>43565</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -3897,7 +3900,7 @@
       </c>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:5">
-      <c r="A126" s="5">
+      <c r="A126" s="4">
         <v>43565</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -3914,7 +3917,7 @@
       </c>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:5">
-      <c r="A127" s="5">
+      <c r="A127" s="4">
         <v>43565</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -3931,7 +3934,7 @@
       </c>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:5">
-      <c r="A128" s="5">
+      <c r="A128" s="4">
         <v>43565</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -3948,7 +3951,7 @@
       </c>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:5">
-      <c r="A129" s="5">
+      <c r="A129" s="4">
         <v>43566</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -3957,7 +3960,7 @@
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E129" s="2">
@@ -3965,7 +3968,7 @@
       </c>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:5">
-      <c r="A130" s="5">
+      <c r="A130" s="4">
         <v>43566</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -3974,7 +3977,7 @@
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E130" s="2">
@@ -3982,7 +3985,7 @@
       </c>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:5">
-      <c r="A131" s="5">
+      <c r="A131" s="4">
         <v>43566</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -3991,7 +3994,7 @@
       <c r="C131" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E131" s="2">
@@ -3999,7 +4002,7 @@
       </c>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:5">
-      <c r="A132" s="5">
+      <c r="A132" s="4">
         <v>43566</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -4008,7 +4011,7 @@
       <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E132" s="2">
@@ -4016,7 +4019,7 @@
       </c>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:5">
-      <c r="A133" s="5">
+      <c r="A133" s="4">
         <v>43566</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -4025,7 +4028,7 @@
       <c r="C133" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E133" s="2">
@@ -4033,7 +4036,7 @@
       </c>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:5">
-      <c r="A134" s="5">
+      <c r="A134" s="4">
         <v>43566</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -4042,7 +4045,7 @@
       <c r="C134" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E134" s="2">
@@ -4050,7 +4053,7 @@
       </c>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:5">
-      <c r="A135" s="5">
+      <c r="A135" s="4">
         <v>43566</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -4059,7 +4062,7 @@
       <c r="C135" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E135" s="2">
@@ -4067,7 +4070,7 @@
       </c>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:5">
-      <c r="A136" s="5">
+      <c r="A136" s="4">
         <v>43566</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -4084,7 +4087,7 @@
       </c>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:5">
-      <c r="A137" s="5">
+      <c r="A137" s="4">
         <v>43566</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -4101,7 +4104,7 @@
       </c>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:5">
-      <c r="A138" s="5">
+      <c r="A138" s="4">
         <v>43566</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -4118,7 +4121,7 @@
       </c>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:5">
-      <c r="A139" s="5">
+      <c r="A139" s="4">
         <v>43566</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -4135,7 +4138,7 @@
       </c>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:5">
-      <c r="A140" s="5">
+      <c r="A140" s="4">
         <v>43566</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -4152,7 +4155,7 @@
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:5">
-      <c r="A141" s="5">
+      <c r="A141" s="4">
         <v>43566</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -4169,7 +4172,7 @@
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:5">
-      <c r="A142" s="5">
+      <c r="A142" s="4">
         <v>43566</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -4186,7 +4189,7 @@
       </c>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:5">
-      <c r="A143" s="5">
+      <c r="A143" s="4">
         <v>43566</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -4203,7 +4206,7 @@
       </c>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:5">
-      <c r="A144" s="5">
+      <c r="A144" s="4">
         <v>43566</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -4220,7 +4223,7 @@
       </c>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:5">
-      <c r="A145" s="5">
+      <c r="A145" s="4">
         <v>43566</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -4237,7 +4240,7 @@
       </c>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:5">
-      <c r="A146" s="5">
+      <c r="A146" s="4">
         <v>43566</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -4254,7 +4257,7 @@
       </c>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:5">
-      <c r="A147" s="5">
+      <c r="A147" s="4">
         <v>43566</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -4271,7 +4274,7 @@
       </c>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:5">
-      <c r="A148" s="5">
+      <c r="A148" s="4">
         <v>43566</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -4288,7 +4291,7 @@
       </c>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:5">
-      <c r="A149" s="5">
+      <c r="A149" s="4">
         <v>43566</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -4305,7 +4308,7 @@
       </c>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:5">
-      <c r="A150" s="5">
+      <c r="A150" s="4">
         <v>43566</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -4322,7 +4325,7 @@
       </c>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:5">
-      <c r="A151" s="5">
+      <c r="A151" s="4">
         <v>43566</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -4339,7 +4342,7 @@
       </c>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:5">
-      <c r="A152" s="5">
+      <c r="A152" s="4">
         <v>43566</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -4356,7 +4359,7 @@
       </c>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:5">
-      <c r="A153" s="5">
+      <c r="A153" s="4">
         <v>43567</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -4373,7 +4376,7 @@
       </c>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:5">
-      <c r="A154" s="5">
+      <c r="A154" s="4">
         <v>43567</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -4390,7 +4393,7 @@
       </c>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:5">
-      <c r="A155" s="5">
+      <c r="A155" s="4">
         <v>43567</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -4407,7 +4410,7 @@
       </c>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:5">
-      <c r="A156" s="5">
+      <c r="A156" s="4">
         <v>43567</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -4424,7 +4427,7 @@
       </c>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:5">
-      <c r="A157" s="5">
+      <c r="A157" s="4">
         <v>43567</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -4433,7 +4436,7 @@
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E157" s="2">
@@ -4441,7 +4444,7 @@
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:5">
-      <c r="A158" s="5">
+      <c r="A158" s="4">
         <v>43567</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -4450,7 +4453,7 @@
       <c r="C158" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E158" s="2">
@@ -4458,7 +4461,7 @@
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:5">
-      <c r="A159" s="5">
+      <c r="A159" s="4">
         <v>43567</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -4467,7 +4470,7 @@
       <c r="C159" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E159" s="2">
@@ -4475,7 +4478,7 @@
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:5">
-      <c r="A160" s="5">
+      <c r="A160" s="4">
         <v>43567</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -4484,7 +4487,7 @@
       <c r="C160" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E160" s="2">
@@ -4492,7 +4495,7 @@
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:5">
-      <c r="A161" s="5">
+      <c r="A161" s="4">
         <v>43567</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -4501,7 +4504,7 @@
       <c r="C161" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D161" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E161" s="2">
@@ -4509,7 +4512,7 @@
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:5">
-      <c r="A162" s="5">
+      <c r="A162" s="4">
         <v>43567</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -4518,7 +4521,7 @@
       <c r="C162" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E162" s="2">
@@ -4526,7 +4529,7 @@
       </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:5">
-      <c r="A163" s="5">
+      <c r="A163" s="4">
         <v>43567</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -4535,7 +4538,7 @@
       <c r="C163" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E163" s="2">
@@ -4543,7 +4546,7 @@
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:5">
-      <c r="A164" s="5">
+      <c r="A164" s="4">
         <v>43567</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -4552,7 +4555,7 @@
       <c r="C164" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E164" s="2">
@@ -4560,7 +4563,7 @@
       </c>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:5">
-      <c r="A165" s="5">
+      <c r="A165" s="4">
         <v>43567</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -4577,7 +4580,7 @@
       </c>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:5">
-      <c r="A166" s="5">
+      <c r="A166" s="4">
         <v>43567</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -4594,7 +4597,7 @@
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:5">
-      <c r="A167" s="5">
+      <c r="A167" s="4">
         <v>43567</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -4611,7 +4614,7 @@
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:5">
-      <c r="A168" s="5">
+      <c r="A168" s="4">
         <v>43567</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -4628,7 +4631,7 @@
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:5">
-      <c r="A169" s="5">
+      <c r="A169" s="4">
         <v>43567</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -4645,7 +4648,7 @@
       </c>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:5">
-      <c r="A170" s="5">
+      <c r="A170" s="4">
         <v>43567</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -4662,7 +4665,7 @@
       </c>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:5">
-      <c r="A171" s="5">
+      <c r="A171" s="4">
         <v>43568</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -4671,7 +4674,7 @@
       <c r="C171" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E171" s="2">
@@ -4679,7 +4682,7 @@
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:5">
-      <c r="A172" s="5">
+      <c r="A172" s="4">
         <v>43568</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -4688,7 +4691,7 @@
       <c r="C172" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E172" s="2">
@@ -4696,7 +4699,7 @@
       </c>
     </row>
     <row r="173" s="2" customFormat="1" spans="1:5">
-      <c r="A173" s="5">
+      <c r="A173" s="4">
         <v>43568</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -4705,7 +4708,7 @@
       <c r="C173" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E173" s="2">
@@ -4713,7 +4716,7 @@
       </c>
     </row>
     <row r="174" s="2" customFormat="1" spans="1:5">
-      <c r="A174" s="5">
+      <c r="A174" s="4">
         <v>43568</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -4722,7 +4725,7 @@
       <c r="C174" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D174" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E174" s="2">
@@ -4730,7 +4733,7 @@
       </c>
     </row>
     <row r="175" s="2" customFormat="1" spans="1:5">
-      <c r="A175" s="5">
+      <c r="A175" s="4">
         <v>43568</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -4739,7 +4742,7 @@
       <c r="C175" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E175" s="2">
@@ -4747,7 +4750,7 @@
       </c>
     </row>
     <row r="176" s="2" customFormat="1" spans="1:5">
-      <c r="A176" s="5">
+      <c r="A176" s="4">
         <v>43568</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -4764,7 +4767,7 @@
       </c>
     </row>
     <row r="177" s="2" customFormat="1" spans="1:5">
-      <c r="A177" s="5">
+      <c r="A177" s="4">
         <v>43568</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -4781,7 +4784,7 @@
       </c>
     </row>
     <row r="178" s="2" customFormat="1" spans="1:5">
-      <c r="A178" s="5">
+      <c r="A178" s="4">
         <v>43568</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -4798,7 +4801,7 @@
       </c>
     </row>
     <row r="179" s="2" customFormat="1" spans="1:5">
-      <c r="A179" s="5">
+      <c r="A179" s="4">
         <v>43568</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -4815,7 +4818,7 @@
       </c>
     </row>
     <row r="180" s="2" customFormat="1" spans="1:5">
-      <c r="A180" s="5">
+      <c r="A180" s="4">
         <v>43568</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -4832,7 +4835,7 @@
       </c>
     </row>
     <row r="181" s="2" customFormat="1" spans="1:5">
-      <c r="A181" s="5">
+      <c r="A181" s="4">
         <v>43568</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -4849,7 +4852,7 @@
       </c>
     </row>
     <row r="182" s="2" customFormat="1" spans="1:5">
-      <c r="A182" s="5">
+      <c r="A182" s="4">
         <v>43568</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -4866,7 +4869,7 @@
       </c>
     </row>
     <row r="183" s="2" customFormat="1" spans="1:5">
-      <c r="A183" s="5">
+      <c r="A183" s="4">
         <v>43568</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -4883,7 +4886,7 @@
       </c>
     </row>
     <row r="184" s="2" customFormat="1" spans="1:5">
-      <c r="A184" s="5">
+      <c r="A184" s="4">
         <v>43568</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -4900,7 +4903,7 @@
       </c>
     </row>
     <row r="185" s="2" customFormat="1" spans="1:5">
-      <c r="A185" s="5">
+      <c r="A185" s="4">
         <v>43569</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -4909,7 +4912,7 @@
       <c r="C185" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D185" s="8" t="s">
+      <c r="D185" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E185" s="2">
@@ -4917,7 +4920,7 @@
       </c>
     </row>
     <row r="186" s="2" customFormat="1" spans="1:5">
-      <c r="A186" s="5">
+      <c r="A186" s="4">
         <v>43569</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -4926,7 +4929,7 @@
       <c r="C186" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D186" s="10" t="s">
+      <c r="D186" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E186" s="2">
@@ -4934,7 +4937,7 @@
       </c>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:5">
-      <c r="A187" s="5">
+      <c r="A187" s="4">
         <v>43569</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -4943,7 +4946,7 @@
       <c r="C187" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E187" s="2">
@@ -4951,7 +4954,7 @@
       </c>
     </row>
     <row r="188" s="2" customFormat="1" spans="1:5">
-      <c r="A188" s="5">
+      <c r="A188" s="4">
         <v>43569</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -4968,7 +4971,7 @@
       </c>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:5">
-      <c r="A189" s="5">
+      <c r="A189" s="4">
         <v>43569</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -4985,7 +4988,7 @@
       </c>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:5">
-      <c r="A190" s="5">
+      <c r="A190" s="4">
         <v>43569</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -5002,7 +5005,7 @@
       </c>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:5">
-      <c r="A191" s="5">
+      <c r="A191" s="4">
         <v>43569</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -5019,7 +5022,7 @@
       </c>
     </row>
     <row r="192" s="2" customFormat="1" spans="1:5">
-      <c r="A192" s="5">
+      <c r="A192" s="4">
         <v>43570</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -5036,7 +5039,7 @@
       </c>
     </row>
     <row r="193" s="2" customFormat="1" spans="1:5">
-      <c r="A193" s="5">
+      <c r="A193" s="4">
         <v>43570</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -5045,7 +5048,7 @@
       <c r="C193" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E193" s="2">
@@ -5053,7 +5056,7 @@
       </c>
     </row>
     <row r="194" s="2" customFormat="1" spans="1:5">
-      <c r="A194" s="5">
+      <c r="A194" s="4">
         <v>43570</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -5062,7 +5065,7 @@
       <c r="C194" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D194" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E194" s="2">
@@ -5070,7 +5073,7 @@
       </c>
     </row>
     <row r="195" s="2" customFormat="1" spans="1:5">
-      <c r="A195" s="5">
+      <c r="A195" s="4">
         <v>43570</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -5079,7 +5082,7 @@
       <c r="C195" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E195" s="2">
@@ -5087,7 +5090,7 @@
       </c>
     </row>
     <row r="196" s="2" customFormat="1" spans="1:5">
-      <c r="A196" s="5">
+      <c r="A196" s="4">
         <v>43570</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -5104,7 +5107,7 @@
       </c>
     </row>
     <row r="197" s="2" customFormat="1" spans="1:5">
-      <c r="A197" s="5">
+      <c r="A197" s="4">
         <v>43571</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -5113,7 +5116,7 @@
       <c r="C197" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D197" s="10" t="s">
+      <c r="D197" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E197" s="2">
@@ -5121,7 +5124,7 @@
       </c>
     </row>
     <row r="198" s="2" customFormat="1" spans="1:5">
-      <c r="A198" s="5">
+      <c r="A198" s="4">
         <v>43571</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -5138,7 +5141,7 @@
       </c>
     </row>
     <row r="199" s="2" customFormat="1" spans="1:5">
-      <c r="A199" s="5">
+      <c r="A199" s="4">
         <v>43571</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -5147,7 +5150,7 @@
       <c r="C199" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D199" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E199" s="2">
@@ -5155,7 +5158,7 @@
       </c>
     </row>
     <row r="200" s="2" customFormat="1" spans="1:5">
-      <c r="A200" s="5">
+      <c r="A200" s="4">
         <v>43571</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -5164,7 +5167,7 @@
       <c r="C200" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D200" s="9" t="s">
+      <c r="D200" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E200" s="2">
@@ -5172,7 +5175,7 @@
       </c>
     </row>
     <row r="201" s="2" customFormat="1" spans="1:5">
-      <c r="A201" s="5">
+      <c r="A201" s="4">
         <v>43571</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -5189,7 +5192,7 @@
       </c>
     </row>
     <row r="202" s="2" customFormat="1" spans="1:5">
-      <c r="A202" s="5">
+      <c r="A202" s="4">
         <v>43571</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -5206,7 +5209,7 @@
       </c>
     </row>
     <row r="203" s="2" customFormat="1" spans="1:5">
-      <c r="A203" s="5">
+      <c r="A203" s="4">
         <v>43571</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -5223,7 +5226,7 @@
       </c>
     </row>
     <row r="204" s="2" customFormat="1" spans="1:5">
-      <c r="A204" s="5">
+      <c r="A204" s="4">
         <v>43571</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -5240,7 +5243,7 @@
       </c>
     </row>
     <row r="205" s="2" customFormat="1" spans="1:5">
-      <c r="A205" s="5">
+      <c r="A205" s="4">
         <v>43571</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -5257,7 +5260,7 @@
       </c>
     </row>
     <row r="206" s="2" customFormat="1" spans="1:5">
-      <c r="A206" s="5">
+      <c r="A206" s="4">
         <v>43571</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -5274,7 +5277,7 @@
       </c>
     </row>
     <row r="207" s="2" customFormat="1" spans="1:5">
-      <c r="A207" s="5">
+      <c r="A207" s="4">
         <v>43571</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -5291,7 +5294,7 @@
       </c>
     </row>
     <row r="208" s="2" customFormat="1" spans="1:5">
-      <c r="A208" s="5">
+      <c r="A208" s="4">
         <v>43571</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -5308,7 +5311,7 @@
       </c>
     </row>
     <row r="209" s="2" customFormat="1" spans="1:5">
-      <c r="A209" s="5">
+      <c r="A209" s="4">
         <v>43571</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -5325,7 +5328,7 @@
       </c>
     </row>
     <row r="210" s="2" customFormat="1" spans="1:5">
-      <c r="A210" s="5">
+      <c r="A210" s="4">
         <v>43571</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -5342,7 +5345,7 @@
       </c>
     </row>
     <row r="211" s="2" customFormat="1" spans="1:5">
-      <c r="A211" s="5">
+      <c r="A211" s="4">
         <v>43572</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -5351,7 +5354,7 @@
       <c r="C211" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D211" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E211" s="2">
@@ -5359,7 +5362,7 @@
       </c>
     </row>
     <row r="212" s="2" customFormat="1" spans="1:5">
-      <c r="A212" s="5">
+      <c r="A212" s="4">
         <v>43572</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -5376,7 +5379,7 @@
       </c>
     </row>
     <row r="213" s="2" customFormat="1" spans="1:5">
-      <c r="A213" s="5">
+      <c r="A213" s="4">
         <v>43572</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -5393,7 +5396,7 @@
       </c>
     </row>
     <row r="214" s="2" customFormat="1" spans="1:5">
-      <c r="A214" s="5">
+      <c r="A214" s="4">
         <v>43572</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -5402,7 +5405,7 @@
       <c r="C214" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D214" s="8" t="s">
+      <c r="D214" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E214" s="2">
@@ -5410,7 +5413,7 @@
       </c>
     </row>
     <row r="215" s="2" customFormat="1" spans="1:5">
-      <c r="A215" s="5">
+      <c r="A215" s="4">
         <v>43572</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -5419,7 +5422,7 @@
       <c r="C215" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D215" s="8" t="s">
+      <c r="D215" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E215" s="2">
@@ -5427,7 +5430,7 @@
       </c>
     </row>
     <row r="216" s="2" customFormat="1" spans="1:5">
-      <c r="A216" s="5">
+      <c r="A216" s="4">
         <v>43572</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -5436,7 +5439,7 @@
       <c r="C216" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D216" s="8" t="s">
+      <c r="D216" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E216" s="2">
@@ -5444,7 +5447,7 @@
       </c>
     </row>
     <row r="217" s="2" customFormat="1" spans="1:5">
-      <c r="A217" s="5">
+      <c r="A217" s="4">
         <v>43572</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -5453,7 +5456,7 @@
       <c r="C217" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D217" s="9" t="s">
+      <c r="D217" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E217" s="2">
@@ -5461,7 +5464,7 @@
       </c>
     </row>
     <row r="218" s="2" customFormat="1" spans="1:5">
-      <c r="A218" s="5">
+      <c r="A218" s="4">
         <v>43572</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -5470,7 +5473,7 @@
       <c r="C218" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D218" s="9" t="s">
+      <c r="D218" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E218" s="2">
@@ -5478,7 +5481,7 @@
       </c>
     </row>
     <row r="219" s="2" customFormat="1" spans="1:5">
-      <c r="A219" s="5">
+      <c r="A219" s="4">
         <v>43572</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -5495,7 +5498,7 @@
       </c>
     </row>
     <row r="220" s="2" customFormat="1" spans="1:5">
-      <c r="A220" s="5">
+      <c r="A220" s="4">
         <v>43572</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -5512,7 +5515,7 @@
       </c>
     </row>
     <row r="221" s="2" customFormat="1" spans="1:5">
-      <c r="A221" s="5">
+      <c r="A221" s="4">
         <v>43572</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -5529,7 +5532,7 @@
       </c>
     </row>
     <row r="222" s="2" customFormat="1" spans="1:5">
-      <c r="A222" s="5">
+      <c r="A222" s="4">
         <v>43572</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -5546,7 +5549,7 @@
       </c>
     </row>
     <row r="223" s="2" customFormat="1" spans="1:5">
-      <c r="A223" s="5">
+      <c r="A223" s="4">
         <v>43572</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -5563,7 +5566,7 @@
       </c>
     </row>
     <row r="224" s="2" customFormat="1" spans="1:5">
-      <c r="A224" s="5">
+      <c r="A224" s="4">
         <v>43572</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -5580,7 +5583,7 @@
       </c>
     </row>
     <row r="225" s="2" customFormat="1" spans="1:5">
-      <c r="A225" s="5">
+      <c r="A225" s="4">
         <v>43572</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -5597,7 +5600,7 @@
       </c>
     </row>
     <row r="226" s="2" customFormat="1" spans="1:5">
-      <c r="A226" s="5">
+      <c r="A226" s="4">
         <v>43572</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -5614,7 +5617,7 @@
       </c>
     </row>
     <row r="227" s="2" customFormat="1" spans="1:5">
-      <c r="A227" s="5">
+      <c r="A227" s="4">
         <v>43572</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -5631,7 +5634,7 @@
       </c>
     </row>
     <row r="228" s="2" customFormat="1" spans="1:5">
-      <c r="A228" s="5">
+      <c r="A228" s="4">
         <v>43572</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -5648,7 +5651,7 @@
       </c>
     </row>
     <row r="229" s="2" customFormat="1" spans="1:5">
-      <c r="A229" s="5">
+      <c r="A229" s="4">
         <v>43572</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -5665,7 +5668,7 @@
       </c>
     </row>
     <row r="230" s="2" customFormat="1" spans="1:5">
-      <c r="A230" s="5">
+      <c r="A230" s="4">
         <v>43572</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -5682,7 +5685,7 @@
       </c>
     </row>
     <row r="231" s="2" customFormat="1" spans="1:5">
-      <c r="A231" s="5">
+      <c r="A231" s="4">
         <v>43573</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -5691,7 +5694,7 @@
       <c r="C231" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D231" s="10" t="s">
+      <c r="D231" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E231" s="2">
@@ -5699,7 +5702,7 @@
       </c>
     </row>
     <row r="232" s="2" customFormat="1" spans="1:5">
-      <c r="A232" s="5">
+      <c r="A232" s="4">
         <v>43573</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -5708,7 +5711,7 @@
       <c r="C232" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D232" s="8" t="s">
+      <c r="D232" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E232" s="2">
@@ -5716,7 +5719,7 @@
       </c>
     </row>
     <row r="233" s="2" customFormat="1" spans="1:5">
-      <c r="A233" s="5">
+      <c r="A233" s="4">
         <v>43573</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -5725,7 +5728,7 @@
       <c r="C233" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D233" s="8" t="s">
+      <c r="D233" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E233" s="2">
@@ -5733,7 +5736,7 @@
       </c>
     </row>
     <row r="234" s="2" customFormat="1" spans="1:5">
-      <c r="A234" s="5">
+      <c r="A234" s="4">
         <v>43573</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -5742,7 +5745,7 @@
       <c r="C234" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D234" s="8" t="s">
+      <c r="D234" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E234" s="2">
@@ -5750,7 +5753,7 @@
       </c>
     </row>
     <row r="235" s="2" customFormat="1" spans="1:5">
-      <c r="A235" s="5">
+      <c r="A235" s="4">
         <v>43573</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -5759,7 +5762,7 @@
       <c r="C235" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D235" s="9" t="s">
+      <c r="D235" s="8" t="s">
         <v>117</v>
       </c>
       <c r="E235" s="2">
@@ -5767,7 +5770,7 @@
       </c>
     </row>
     <row r="236" s="2" customFormat="1" spans="1:5">
-      <c r="A236" s="5">
+      <c r="A236" s="4">
         <v>43573</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -5776,7 +5779,7 @@
       <c r="C236" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D236" s="9" t="s">
+      <c r="D236" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E236" s="2">
@@ -5784,7 +5787,7 @@
       </c>
     </row>
     <row r="237" s="2" customFormat="1" spans="1:5">
-      <c r="A237" s="5">
+      <c r="A237" s="4">
         <v>43573</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -5801,7 +5804,7 @@
       </c>
     </row>
     <row r="238" s="2" customFormat="1" spans="1:5">
-      <c r="A238" s="5">
+      <c r="A238" s="4">
         <v>43573</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -5818,7 +5821,7 @@
       </c>
     </row>
     <row r="239" s="2" customFormat="1" spans="1:5">
-      <c r="A239" s="5">
+      <c r="A239" s="4">
         <v>43573</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -5835,7 +5838,7 @@
       </c>
     </row>
     <row r="240" s="2" customFormat="1" spans="1:5">
-      <c r="A240" s="5">
+      <c r="A240" s="4">
         <v>43573</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -5852,7 +5855,7 @@
       </c>
     </row>
     <row r="241" s="2" customFormat="1" spans="1:5">
-      <c r="A241" s="5">
+      <c r="A241" s="4">
         <v>43573</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -5869,7 +5872,7 @@
       </c>
     </row>
     <row r="242" s="2" customFormat="1" spans="1:5">
-      <c r="A242" s="5">
+      <c r="A242" s="4">
         <v>43573</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -5886,7 +5889,7 @@
       </c>
     </row>
     <row r="243" s="2" customFormat="1" spans="1:5">
-      <c r="A243" s="5">
+      <c r="A243" s="4">
         <v>43573</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -5903,7 +5906,7 @@
       </c>
     </row>
     <row r="244" s="2" customFormat="1" spans="1:5">
-      <c r="A244" s="5">
+      <c r="A244" s="4">
         <v>43573</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -5920,7 +5923,7 @@
       </c>
     </row>
     <row r="245" s="2" customFormat="1" spans="1:5">
-      <c r="A245" s="5">
+      <c r="A245" s="4">
         <v>43573</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -5937,7 +5940,7 @@
       </c>
     </row>
     <row r="246" s="2" customFormat="1" spans="1:5">
-      <c r="A246" s="5">
+      <c r="A246" s="4">
         <v>43574</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -5954,7 +5957,7 @@
       </c>
     </row>
     <row r="247" s="2" customFormat="1" spans="1:5">
-      <c r="A247" s="5">
+      <c r="A247" s="4">
         <v>43574</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -5971,7 +5974,7 @@
       </c>
     </row>
     <row r="248" s="2" customFormat="1" spans="1:5">
-      <c r="A248" s="5">
+      <c r="A248" s="4">
         <v>43574</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -5988,7 +5991,7 @@
       </c>
     </row>
     <row r="249" s="2" customFormat="1" spans="1:5">
-      <c r="A249" s="5">
+      <c r="A249" s="4">
         <v>43574</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -6005,7 +6008,7 @@
       </c>
     </row>
     <row r="250" s="2" customFormat="1" spans="1:5">
-      <c r="A250" s="5">
+      <c r="A250" s="4">
         <v>43574</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -6022,7 +6025,7 @@
       </c>
     </row>
     <row r="251" s="2" customFormat="1" spans="1:5">
-      <c r="A251" s="5">
+      <c r="A251" s="4">
         <v>43574</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -6039,7 +6042,7 @@
       </c>
     </row>
     <row r="252" s="2" customFormat="1" spans="1:5">
-      <c r="A252" s="5">
+      <c r="A252" s="4">
         <v>43574</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -6056,7 +6059,7 @@
       </c>
     </row>
     <row r="253" s="2" customFormat="1" spans="1:5">
-      <c r="A253" s="5">
+      <c r="A253" s="4">
         <v>43574</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -6073,7 +6076,7 @@
       </c>
     </row>
     <row r="254" s="2" customFormat="1" spans="1:5">
-      <c r="A254" s="5">
+      <c r="A254" s="4">
         <v>43574</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -6090,7 +6093,7 @@
       </c>
     </row>
     <row r="255" s="2" customFormat="1" spans="1:5">
-      <c r="A255" s="5">
+      <c r="A255" s="4">
         <v>43574</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -6107,7 +6110,7 @@
       </c>
     </row>
     <row r="256" s="2" customFormat="1" spans="1:5">
-      <c r="A256" s="5">
+      <c r="A256" s="4">
         <v>43574</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -6124,7 +6127,7 @@
       </c>
     </row>
     <row r="257" s="2" customFormat="1" spans="1:5">
-      <c r="A257" s="5">
+      <c r="A257" s="4">
         <v>43574</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -6141,7 +6144,7 @@
       </c>
     </row>
     <row r="258" s="2" customFormat="1" spans="1:5">
-      <c r="A258" s="5">
+      <c r="A258" s="4">
         <v>43574</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -6158,7 +6161,7 @@
       </c>
     </row>
     <row r="259" s="2" customFormat="1" spans="1:5">
-      <c r="A259" s="5">
+      <c r="A259" s="4">
         <v>43574</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -6175,7 +6178,7 @@
       </c>
     </row>
     <row r="260" s="2" customFormat="1" spans="1:5">
-      <c r="A260" s="5">
+      <c r="A260" s="4">
         <v>43574</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -6192,7 +6195,7 @@
       </c>
     </row>
     <row r="261" s="2" customFormat="1" spans="1:5">
-      <c r="A261" s="5">
+      <c r="A261" s="4">
         <v>43574</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -6209,7 +6212,7 @@
       </c>
     </row>
     <row r="262" s="2" customFormat="1" spans="1:5">
-      <c r="A262" s="5">
+      <c r="A262" s="4">
         <v>43574</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -6226,7 +6229,7 @@
       </c>
     </row>
     <row r="263" s="2" customFormat="1" spans="1:5">
-      <c r="A263" s="5">
+      <c r="A263" s="4">
         <v>43574</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -6243,7 +6246,7 @@
       </c>
     </row>
     <row r="264" s="2" customFormat="1" spans="1:5">
-      <c r="A264" s="5">
+      <c r="A264" s="4">
         <v>43574</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -6260,7 +6263,7 @@
       </c>
     </row>
     <row r="265" s="2" customFormat="1" spans="1:5">
-      <c r="A265" s="5">
+      <c r="A265" s="4">
         <v>43575</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -6277,7 +6280,7 @@
       </c>
     </row>
     <row r="266" s="2" customFormat="1" spans="1:5">
-      <c r="A266" s="5">
+      <c r="A266" s="4">
         <v>43575</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -6294,7 +6297,7 @@
       </c>
     </row>
     <row r="267" s="2" customFormat="1" spans="1:5">
-      <c r="A267" s="5">
+      <c r="A267" s="4">
         <v>43575</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -6311,7 +6314,7 @@
       </c>
     </row>
     <row r="268" s="2" customFormat="1" spans="1:5">
-      <c r="A268" s="5">
+      <c r="A268" s="4">
         <v>43575</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -6328,7 +6331,7 @@
       </c>
     </row>
     <row r="269" s="2" customFormat="1" spans="1:5">
-      <c r="A269" s="5">
+      <c r="A269" s="4">
         <v>43575</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -6345,7 +6348,7 @@
       </c>
     </row>
     <row r="270" s="2" customFormat="1" spans="1:5">
-      <c r="A270" s="5">
+      <c r="A270" s="4">
         <v>43575</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -6362,7 +6365,7 @@
       </c>
     </row>
     <row r="271" s="2" customFormat="1" spans="1:5">
-      <c r="A271" s="5">
+      <c r="A271" s="4">
         <v>43575</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -6379,7 +6382,7 @@
       </c>
     </row>
     <row r="272" s="2" customFormat="1" spans="1:5">
-      <c r="A272" s="5">
+      <c r="A272" s="4">
         <v>43575</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -6396,7 +6399,7 @@
       </c>
     </row>
     <row r="273" s="2" customFormat="1" spans="1:5">
-      <c r="A273" s="5">
+      <c r="A273" s="4">
         <v>43575</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -6413,7 +6416,7 @@
       </c>
     </row>
     <row r="274" s="2" customFormat="1" spans="1:5">
-      <c r="A274" s="5">
+      <c r="A274" s="4">
         <v>43575</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -6430,7 +6433,7 @@
       </c>
     </row>
     <row r="275" s="2" customFormat="1" spans="1:5">
-      <c r="A275" s="5">
+      <c r="A275" s="4">
         <v>43575</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -6447,7 +6450,7 @@
       </c>
     </row>
     <row r="276" s="2" customFormat="1" spans="1:5">
-      <c r="A276" s="5">
+      <c r="A276" s="4">
         <v>43575</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -6464,7 +6467,7 @@
       </c>
     </row>
     <row r="277" s="2" customFormat="1" spans="1:5">
-      <c r="A277" s="5">
+      <c r="A277" s="4">
         <v>43575</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -6481,7 +6484,7 @@
       </c>
     </row>
     <row r="278" s="2" customFormat="1" spans="1:5">
-      <c r="A278" s="5">
+      <c r="A278" s="4">
         <v>43575</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -6498,7 +6501,7 @@
       </c>
     </row>
     <row r="279" s="2" customFormat="1" spans="1:5">
-      <c r="A279" s="5">
+      <c r="A279" s="4">
         <v>43575</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -6515,7 +6518,7 @@
       </c>
     </row>
     <row r="280" s="2" customFormat="1" spans="1:5">
-      <c r="A280" s="5">
+      <c r="A280" s="4">
         <v>43575</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -6532,7 +6535,7 @@
       </c>
     </row>
     <row r="281" s="2" customFormat="1" spans="1:5">
-      <c r="A281" s="5">
+      <c r="A281" s="4">
         <v>43575</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -6549,7 +6552,7 @@
       </c>
     </row>
     <row r="282" s="2" customFormat="1" spans="1:5">
-      <c r="A282" s="5">
+      <c r="A282" s="4">
         <v>43575</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -6566,7 +6569,7 @@
       </c>
     </row>
     <row r="283" s="2" customFormat="1" spans="1:5">
-      <c r="A283" s="5">
+      <c r="A283" s="4">
         <v>43575</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -6583,7 +6586,7 @@
       </c>
     </row>
     <row r="284" s="2" customFormat="1" spans="1:5">
-      <c r="A284" s="5">
+      <c r="A284" s="4">
         <v>43576</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -6600,7 +6603,7 @@
       </c>
     </row>
     <row r="285" s="2" customFormat="1" spans="1:5">
-      <c r="A285" s="5">
+      <c r="A285" s="4">
         <v>43576</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -6617,7 +6620,7 @@
       </c>
     </row>
     <row r="286" s="2" customFormat="1" spans="1:5">
-      <c r="A286" s="5">
+      <c r="A286" s="4">
         <v>43576</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -6634,7 +6637,7 @@
       </c>
     </row>
     <row r="287" s="2" customFormat="1" spans="1:5">
-      <c r="A287" s="5">
+      <c r="A287" s="4">
         <v>43576</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -6651,7 +6654,7 @@
       </c>
     </row>
     <row r="288" s="2" customFormat="1" spans="1:5">
-      <c r="A288" s="5">
+      <c r="A288" s="4">
         <v>43576</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -6668,7 +6671,7 @@
       </c>
     </row>
     <row r="289" s="2" customFormat="1" spans="1:5">
-      <c r="A289" s="5">
+      <c r="A289" s="4">
         <v>43576</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -6685,7 +6688,7 @@
       </c>
     </row>
     <row r="290" s="2" customFormat="1" spans="1:5">
-      <c r="A290" s="5">
+      <c r="A290" s="4">
         <v>43576</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -6702,7 +6705,7 @@
       </c>
     </row>
     <row r="291" s="2" customFormat="1" spans="1:5">
-      <c r="A291" s="5">
+      <c r="A291" s="4">
         <v>43576</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -6719,7 +6722,7 @@
       </c>
     </row>
     <row r="292" s="2" customFormat="1" spans="1:5">
-      <c r="A292" s="5">
+      <c r="A292" s="4">
         <v>43576</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -6736,7 +6739,7 @@
       </c>
     </row>
     <row r="293" s="2" customFormat="1" spans="1:5">
-      <c r="A293" s="5">
+      <c r="A293" s="4">
         <v>43576</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -6753,7 +6756,7 @@
       </c>
     </row>
     <row r="294" s="2" customFormat="1" spans="1:5">
-      <c r="A294" s="5">
+      <c r="A294" s="4">
         <v>43576</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -6770,7 +6773,7 @@
       </c>
     </row>
     <row r="295" s="2" customFormat="1" spans="1:5">
-      <c r="A295" s="5">
+      <c r="A295" s="4">
         <v>43576</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -6787,7 +6790,7 @@
       </c>
     </row>
     <row r="296" s="2" customFormat="1" spans="1:5">
-      <c r="A296" s="5">
+      <c r="A296" s="4">
         <v>43576</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -6804,7 +6807,7 @@
       </c>
     </row>
     <row r="297" s="2" customFormat="1" spans="1:5">
-      <c r="A297" s="5">
+      <c r="A297" s="4">
         <v>43576</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -6821,7 +6824,7 @@
       </c>
     </row>
     <row r="298" s="2" customFormat="1" spans="1:5">
-      <c r="A298" s="5">
+      <c r="A298" s="4">
         <v>43576</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -6838,7 +6841,7 @@
       </c>
     </row>
     <row r="299" s="2" customFormat="1" spans="1:5">
-      <c r="A299" s="5">
+      <c r="A299" s="4">
         <v>43576</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -6855,7 +6858,7 @@
       </c>
     </row>
     <row r="300" s="2" customFormat="1" spans="1:5">
-      <c r="A300" s="5">
+      <c r="A300" s="4">
         <v>43577</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -6872,7 +6875,7 @@
       </c>
     </row>
     <row r="301" s="2" customFormat="1" spans="1:5">
-      <c r="A301" s="5">
+      <c r="A301" s="4">
         <v>43577</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -6889,7 +6892,7 @@
       </c>
     </row>
     <row r="302" s="2" customFormat="1" spans="1:5">
-      <c r="A302" s="5">
+      <c r="A302" s="4">
         <v>43577</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -6906,7 +6909,7 @@
       </c>
     </row>
     <row r="303" s="2" customFormat="1" spans="1:5">
-      <c r="A303" s="5">
+      <c r="A303" s="4">
         <v>43577</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -6923,7 +6926,7 @@
       </c>
     </row>
     <row r="304" s="2" customFormat="1" spans="1:5">
-      <c r="A304" s="5">
+      <c r="A304" s="4">
         <v>43577</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -6940,7 +6943,7 @@
       </c>
     </row>
     <row r="305" s="2" customFormat="1" spans="1:5">
-      <c r="A305" s="5">
+      <c r="A305" s="4">
         <v>43577</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -6957,7 +6960,7 @@
       </c>
     </row>
     <row r="306" s="2" customFormat="1" spans="1:5">
-      <c r="A306" s="5">
+      <c r="A306" s="4">
         <v>43577</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -6974,7 +6977,7 @@
       </c>
     </row>
     <row r="307" s="2" customFormat="1" spans="1:5">
-      <c r="A307" s="5">
+      <c r="A307" s="4">
         <v>43577</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -6991,7 +6994,7 @@
       </c>
     </row>
     <row r="308" s="2" customFormat="1" spans="1:5">
-      <c r="A308" s="5">
+      <c r="A308" s="4">
         <v>43577</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -7008,7 +7011,7 @@
       </c>
     </row>
     <row r="309" s="2" customFormat="1" spans="1:5">
-      <c r="A309" s="5">
+      <c r="A309" s="4">
         <v>43577</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -7025,7 +7028,7 @@
       </c>
     </row>
     <row r="310" s="2" customFormat="1" spans="1:5">
-      <c r="A310" s="5">
+      <c r="A310" s="4">
         <v>43577</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -7042,7 +7045,7 @@
       </c>
     </row>
     <row r="311" s="2" customFormat="1" spans="1:5">
-      <c r="A311" s="5">
+      <c r="A311" s="4">
         <v>43577</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -7059,7 +7062,7 @@
       </c>
     </row>
     <row r="312" s="2" customFormat="1" spans="1:5">
-      <c r="A312" s="5">
+      <c r="A312" s="4">
         <v>43577</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -7076,7 +7079,7 @@
       </c>
     </row>
     <row r="313" s="2" customFormat="1" spans="1:5">
-      <c r="A313" s="5">
+      <c r="A313" s="4">
         <v>43578</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -7093,7 +7096,7 @@
       </c>
     </row>
     <row r="314" s="2" customFormat="1" spans="1:5">
-      <c r="A314" s="5">
+      <c r="A314" s="4">
         <v>43578</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -7110,7 +7113,7 @@
       </c>
     </row>
     <row r="315" s="2" customFormat="1" spans="1:5">
-      <c r="A315" s="5">
+      <c r="A315" s="4">
         <v>43578</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -7127,7 +7130,7 @@
       </c>
     </row>
     <row r="316" s="2" customFormat="1" spans="1:5">
-      <c r="A316" s="5">
+      <c r="A316" s="4">
         <v>43578</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -7144,7 +7147,7 @@
       </c>
     </row>
     <row r="317" s="2" customFormat="1" spans="1:5">
-      <c r="A317" s="5">
+      <c r="A317" s="4">
         <v>43578</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -7161,7 +7164,7 @@
       </c>
     </row>
     <row r="318" s="2" customFormat="1" spans="1:5">
-      <c r="A318" s="5">
+      <c r="A318" s="4">
         <v>43578</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -7178,7 +7181,7 @@
       </c>
     </row>
     <row r="319" s="2" customFormat="1" spans="1:5">
-      <c r="A319" s="5">
+      <c r="A319" s="4">
         <v>43578</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -7195,7 +7198,7 @@
       </c>
     </row>
     <row r="320" s="2" customFormat="1" spans="1:5">
-      <c r="A320" s="5">
+      <c r="A320" s="4">
         <v>43578</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -7212,7 +7215,7 @@
       </c>
     </row>
     <row r="321" s="2" customFormat="1" spans="1:5">
-      <c r="A321" s="5">
+      <c r="A321" s="4">
         <v>43578</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -7229,7 +7232,7 @@
       </c>
     </row>
     <row r="322" s="2" customFormat="1" spans="1:5">
-      <c r="A322" s="5">
+      <c r="A322" s="4">
         <v>43578</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -7246,7 +7249,7 @@
       </c>
     </row>
     <row r="323" s="2" customFormat="1" spans="1:5">
-      <c r="A323" s="5">
+      <c r="A323" s="4">
         <v>43578</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -7263,7 +7266,7 @@
       </c>
     </row>
     <row r="324" s="2" customFormat="1" spans="1:5">
-      <c r="A324" s="5">
+      <c r="A324" s="4">
         <v>43578</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -7280,7 +7283,7 @@
       </c>
     </row>
     <row r="325" s="2" customFormat="1" spans="1:5">
-      <c r="A325" s="5">
+      <c r="A325" s="4">
         <v>43578</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -7297,7 +7300,7 @@
       </c>
     </row>
     <row r="326" s="2" customFormat="1" spans="1:5">
-      <c r="A326" s="5">
+      <c r="A326" s="4">
         <v>43578</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -7314,7 +7317,7 @@
       </c>
     </row>
     <row r="327" s="2" customFormat="1" spans="1:5">
-      <c r="A327" s="5">
+      <c r="A327" s="4">
         <v>43578</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -7331,7 +7334,7 @@
       </c>
     </row>
     <row r="328" s="2" customFormat="1" spans="1:5">
-      <c r="A328" s="5">
+      <c r="A328" s="4">
         <v>43578</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -7348,7 +7351,7 @@
       </c>
     </row>
     <row r="329" s="2" customFormat="1" spans="1:5">
-      <c r="A329" s="5">
+      <c r="A329" s="4">
         <v>43579</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -7365,7 +7368,7 @@
       </c>
     </row>
     <row r="330" s="2" customFormat="1" spans="1:5">
-      <c r="A330" s="5">
+      <c r="A330" s="4">
         <v>43579</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -7382,7 +7385,7 @@
       </c>
     </row>
     <row r="331" s="2" customFormat="1" spans="1:5">
-      <c r="A331" s="5">
+      <c r="A331" s="4">
         <v>43579</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -7399,7 +7402,7 @@
       </c>
     </row>
     <row r="332" s="2" customFormat="1" spans="1:5">
-      <c r="A332" s="5">
+      <c r="A332" s="4">
         <v>43579</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -7408,7 +7411,7 @@
       <c r="C332" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D332" s="8" t="s">
+      <c r="D332" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E332" s="2">
@@ -7416,7 +7419,7 @@
       </c>
     </row>
     <row r="333" s="2" customFormat="1" spans="1:5">
-      <c r="A333" s="5">
+      <c r="A333" s="4">
         <v>43579</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -7433,7 +7436,7 @@
       </c>
     </row>
     <row r="334" s="2" customFormat="1" spans="1:5">
-      <c r="A334" s="5">
+      <c r="A334" s="4">
         <v>43579</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -7450,7 +7453,7 @@
       </c>
     </row>
     <row r="335" s="2" customFormat="1" spans="1:5">
-      <c r="A335" s="5">
+      <c r="A335" s="4">
         <v>43579</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -7467,7 +7470,7 @@
       </c>
     </row>
     <row r="336" s="2" customFormat="1" spans="1:5">
-      <c r="A336" s="5">
+      <c r="A336" s="4">
         <v>43579</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -7484,7 +7487,7 @@
       </c>
     </row>
     <row r="337" s="2" customFormat="1" spans="1:5">
-      <c r="A337" s="5">
+      <c r="A337" s="4">
         <v>43579</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -7501,7 +7504,7 @@
       </c>
     </row>
     <row r="338" s="2" customFormat="1" spans="1:5">
-      <c r="A338" s="5">
+      <c r="A338" s="4">
         <v>43579</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -7518,7 +7521,7 @@
       </c>
     </row>
     <row r="339" s="2" customFormat="1" spans="1:5">
-      <c r="A339" s="5">
+      <c r="A339" s="4">
         <v>43579</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -7535,7 +7538,7 @@
       </c>
     </row>
     <row r="340" s="2" customFormat="1" spans="1:5">
-      <c r="A340" s="5">
+      <c r="A340" s="4">
         <v>43579</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -7552,7 +7555,7 @@
       </c>
     </row>
     <row r="341" s="2" customFormat="1" spans="1:5">
-      <c r="A341" s="5">
+      <c r="A341" s="4">
         <v>43579</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -7569,7 +7572,7 @@
       </c>
     </row>
     <row r="342" s="2" customFormat="1" spans="1:5">
-      <c r="A342" s="5">
+      <c r="A342" s="4">
         <v>43579</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -7586,7 +7589,7 @@
       </c>
     </row>
     <row r="343" s="2" customFormat="1" spans="1:5">
-      <c r="A343" s="5">
+      <c r="A343" s="4">
         <v>43579</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -7603,7 +7606,7 @@
       </c>
     </row>
     <row r="344" s="2" customFormat="1" spans="1:5">
-      <c r="A344" s="5">
+      <c r="A344" s="4">
         <v>43579</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -7620,7 +7623,7 @@
       </c>
     </row>
     <row r="345" s="2" customFormat="1" spans="1:5">
-      <c r="A345" s="5">
+      <c r="A345" s="4">
         <v>43579</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -7637,7 +7640,7 @@
       </c>
     </row>
     <row r="346" s="2" customFormat="1" spans="1:5">
-      <c r="A346" s="5">
+      <c r="A346" s="4">
         <v>43579</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -7654,7 +7657,7 @@
       </c>
     </row>
     <row r="347" s="2" customFormat="1" spans="1:5">
-      <c r="A347" s="5">
+      <c r="A347" s="4">
         <v>43579</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -7671,7 +7674,7 @@
       </c>
     </row>
     <row r="348" s="2" customFormat="1" spans="1:5">
-      <c r="A348" s="5">
+      <c r="A348" s="4">
         <v>43579</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -7688,7 +7691,7 @@
       </c>
     </row>
     <row r="349" s="2" customFormat="1" spans="1:5">
-      <c r="A349" s="5">
+      <c r="A349" s="4">
         <v>43579</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -7705,7 +7708,7 @@
       </c>
     </row>
     <row r="350" s="2" customFormat="1" spans="1:5">
-      <c r="A350" s="5">
+      <c r="A350" s="4">
         <v>43579</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -7722,7 +7725,7 @@
       </c>
     </row>
     <row r="351" s="2" customFormat="1" spans="1:5">
-      <c r="A351" s="5">
+      <c r="A351" s="4">
         <v>43579</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -7739,7 +7742,7 @@
       </c>
     </row>
     <row r="352" s="2" customFormat="1" spans="1:5">
-      <c r="A352" s="5">
+      <c r="A352" s="4">
         <v>43579</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -7756,7 +7759,7 @@
       </c>
     </row>
     <row r="353" s="2" customFormat="1" spans="1:5">
-      <c r="A353" s="5">
+      <c r="A353" s="4">
         <v>43580</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -7773,7 +7776,7 @@
       </c>
     </row>
     <row r="354" s="2" customFormat="1" spans="1:5">
-      <c r="A354" s="5">
+      <c r="A354" s="4">
         <v>43580</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -7790,7 +7793,7 @@
       </c>
     </row>
     <row r="355" s="2" customFormat="1" spans="1:5">
-      <c r="A355" s="5">
+      <c r="A355" s="4">
         <v>43580</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -7807,7 +7810,7 @@
       </c>
     </row>
     <row r="356" s="2" customFormat="1" spans="1:5">
-      <c r="A356" s="5">
+      <c r="A356" s="4">
         <v>43580</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -7824,7 +7827,7 @@
       </c>
     </row>
     <row r="357" s="2" customFormat="1" spans="1:5">
-      <c r="A357" s="5">
+      <c r="A357" s="4">
         <v>43580</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -7841,7 +7844,7 @@
       </c>
     </row>
     <row r="358" s="2" customFormat="1" spans="1:5">
-      <c r="A358" s="5">
+      <c r="A358" s="4">
         <v>43580</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -7858,7 +7861,7 @@
       </c>
     </row>
     <row r="359" s="2" customFormat="1" spans="1:5">
-      <c r="A359" s="5">
+      <c r="A359" s="4">
         <v>43580</v>
       </c>
       <c r="B359" s="2" t="s">
@@ -7875,7 +7878,7 @@
       </c>
     </row>
     <row r="360" s="2" customFormat="1" spans="1:5">
-      <c r="A360" s="5">
+      <c r="A360" s="4">
         <v>43580</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -7892,7 +7895,7 @@
       </c>
     </row>
     <row r="361" s="2" customFormat="1" spans="1:5">
-      <c r="A361" s="5">
+      <c r="A361" s="4">
         <v>43580</v>
       </c>
       <c r="B361" s="2" t="s">
@@ -7909,7 +7912,7 @@
       </c>
     </row>
     <row r="362" s="2" customFormat="1" spans="1:5">
-      <c r="A362" s="5">
+      <c r="A362" s="4">
         <v>43580</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -7926,7 +7929,7 @@
       </c>
     </row>
     <row r="363" s="2" customFormat="1" spans="1:5">
-      <c r="A363" s="5">
+      <c r="A363" s="4">
         <v>43580</v>
       </c>
       <c r="B363" s="2" t="s">
@@ -7943,7 +7946,7 @@
       </c>
     </row>
     <row r="364" s="2" customFormat="1" spans="1:5">
-      <c r="A364" s="5">
+      <c r="A364" s="4">
         <v>43580</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -7960,7 +7963,7 @@
       </c>
     </row>
     <row r="365" s="2" customFormat="1" spans="1:5">
-      <c r="A365" s="5">
+      <c r="A365" s="4">
         <v>43580</v>
       </c>
       <c r="B365" s="2" t="s">
@@ -7977,7 +7980,7 @@
       </c>
     </row>
     <row r="366" s="2" customFormat="1" spans="1:5">
-      <c r="A366" s="5">
+      <c r="A366" s="4">
         <v>43580</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -7994,7 +7997,7 @@
       </c>
     </row>
     <row r="367" s="2" customFormat="1" spans="1:5">
-      <c r="A367" s="5">
+      <c r="A367" s="4">
         <v>43580</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -8011,7 +8014,7 @@
       </c>
     </row>
     <row r="368" s="2" customFormat="1" spans="1:5">
-      <c r="A368" s="5">
+      <c r="A368" s="4">
         <v>43580</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -8028,7 +8031,7 @@
       </c>
     </row>
     <row r="369" s="2" customFormat="1" spans="1:5">
-      <c r="A369" s="5">
+      <c r="A369" s="4">
         <v>43580</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -8045,7 +8048,7 @@
       </c>
     </row>
     <row r="370" s="2" customFormat="1" spans="1:5">
-      <c r="A370" s="5">
+      <c r="A370" s="4">
         <v>43580</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -8062,7 +8065,7 @@
       </c>
     </row>
     <row r="371" s="2" customFormat="1" spans="1:5">
-      <c r="A371" s="5">
+      <c r="A371" s="4">
         <v>43580</v>
       </c>
       <c r="B371" s="2" t="s">
@@ -8079,7 +8082,7 @@
       </c>
     </row>
     <row r="372" s="2" customFormat="1" spans="1:5">
-      <c r="A372" s="5">
+      <c r="A372" s="4">
         <v>43580</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -8096,7 +8099,7 @@
       </c>
     </row>
     <row r="373" s="2" customFormat="1" spans="1:5">
-      <c r="A373" s="5">
+      <c r="A373" s="4">
         <v>43580</v>
       </c>
       <c r="B373" s="2" t="s">
@@ -8113,7 +8116,7 @@
       </c>
     </row>
     <row r="374" s="2" customFormat="1" spans="1:5">
-      <c r="A374" s="5">
+      <c r="A374" s="4">
         <v>43580</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -8130,7 +8133,7 @@
       </c>
     </row>
     <row r="375" s="2" customFormat="1" spans="1:5">
-      <c r="A375" s="5">
+      <c r="A375" s="4">
         <v>43580</v>
       </c>
       <c r="B375" s="2" t="s">
@@ -8147,7 +8150,7 @@
       </c>
     </row>
     <row r="376" s="2" customFormat="1" spans="1:5">
-      <c r="A376" s="5">
+      <c r="A376" s="4">
         <v>43580</v>
       </c>
       <c r="B376" s="2" t="s">
@@ -8164,7 +8167,7 @@
       </c>
     </row>
     <row r="377" s="2" customFormat="1" spans="1:5">
-      <c r="A377" s="5">
+      <c r="A377" s="4">
         <v>43580</v>
       </c>
       <c r="B377" s="2" t="s">
@@ -8181,7 +8184,7 @@
       </c>
     </row>
     <row r="378" s="2" customFormat="1" spans="1:5">
-      <c r="A378" s="5">
+      <c r="A378" s="4">
         <v>43580</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -8198,7 +8201,7 @@
       </c>
     </row>
     <row r="379" s="2" customFormat="1" spans="1:5">
-      <c r="A379" s="5">
+      <c r="A379" s="4">
         <v>43580</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -8215,7 +8218,7 @@
       </c>
     </row>
     <row r="380" s="2" customFormat="1" spans="1:5">
-      <c r="A380" s="5">
+      <c r="A380" s="4">
         <v>43580</v>
       </c>
       <c r="B380" s="2" t="s">
@@ -8232,7 +8235,7 @@
       </c>
     </row>
     <row r="381" s="2" customFormat="1" spans="1:5">
-      <c r="A381" s="5">
+      <c r="A381" s="4">
         <v>43581</v>
       </c>
       <c r="B381" s="2" t="s">
@@ -8249,7 +8252,7 @@
       </c>
     </row>
     <row r="382" s="2" customFormat="1" spans="1:5">
-      <c r="A382" s="5">
+      <c r="A382" s="4">
         <v>43581</v>
       </c>
       <c r="B382" s="2" t="s">
@@ -8266,7 +8269,7 @@
       </c>
     </row>
     <row r="383" s="2" customFormat="1" spans="1:5">
-      <c r="A383" s="5">
+      <c r="A383" s="4">
         <v>43581</v>
       </c>
       <c r="B383" s="2" t="s">
@@ -8283,7 +8286,7 @@
       </c>
     </row>
     <row r="384" s="2" customFormat="1" spans="1:5">
-      <c r="A384" s="5">
+      <c r="A384" s="4">
         <v>43581</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -8300,7 +8303,7 @@
       </c>
     </row>
     <row r="385" s="3" customFormat="1" spans="1:5">
-      <c r="A385" s="11">
+      <c r="A385" s="10">
         <v>43581</v>
       </c>
       <c r="B385" s="3" t="s">
@@ -8317,7 +8320,7 @@
       </c>
     </row>
     <row r="386" s="2" customFormat="1" spans="1:5">
-      <c r="A386" s="5">
+      <c r="A386" s="4">
         <v>43581</v>
       </c>
       <c r="B386" s="2" t="s">
@@ -8334,7 +8337,7 @@
       </c>
     </row>
     <row r="387" s="2" customFormat="1" spans="1:5">
-      <c r="A387" s="5">
+      <c r="A387" s="4">
         <v>43581</v>
       </c>
       <c r="B387" s="2" t="s">
@@ -8351,7 +8354,7 @@
       </c>
     </row>
     <row r="388" s="2" customFormat="1" spans="1:5">
-      <c r="A388" s="5">
+      <c r="A388" s="4">
         <v>43581</v>
       </c>
       <c r="B388" s="2" t="s">
@@ -8368,7 +8371,7 @@
       </c>
     </row>
     <row r="389" s="2" customFormat="1" spans="1:5">
-      <c r="A389" s="5">
+      <c r="A389" s="4">
         <v>43581</v>
       </c>
       <c r="B389" s="2" t="s">
@@ -8385,7 +8388,7 @@
       </c>
     </row>
     <row r="390" s="2" customFormat="1" spans="1:5">
-      <c r="A390" s="5">
+      <c r="A390" s="4">
         <v>43581</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -8402,7 +8405,7 @@
       </c>
     </row>
     <row r="391" s="2" customFormat="1" spans="1:5">
-      <c r="A391" s="5">
+      <c r="A391" s="4">
         <v>43581</v>
       </c>
       <c r="B391" s="2" t="s">
@@ -8419,7 +8422,7 @@
       </c>
     </row>
     <row r="392" s="2" customFormat="1" spans="1:5">
-      <c r="A392" s="5">
+      <c r="A392" s="4">
         <v>43581</v>
       </c>
       <c r="B392" s="2" t="s">
@@ -8436,7 +8439,7 @@
       </c>
     </row>
     <row r="393" s="2" customFormat="1" spans="1:5">
-      <c r="A393" s="5">
+      <c r="A393" s="4">
         <v>43581</v>
       </c>
       <c r="B393" s="2" t="s">
@@ -8453,7 +8456,7 @@
       </c>
     </row>
     <row r="394" s="2" customFormat="1" spans="1:5">
-      <c r="A394" s="5">
+      <c r="A394" s="4">
         <v>43581</v>
       </c>
       <c r="B394" s="2" t="s">
@@ -8470,7 +8473,7 @@
       </c>
     </row>
     <row r="395" s="2" customFormat="1" spans="1:5">
-      <c r="A395" s="5">
+      <c r="A395" s="4">
         <v>43581</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -8487,7 +8490,7 @@
       </c>
     </row>
     <row r="396" s="2" customFormat="1" spans="1:5">
-      <c r="A396" s="5">
+      <c r="A396" s="4">
         <v>43581</v>
       </c>
       <c r="B396" s="2" t="s">
@@ -8504,7 +8507,7 @@
       </c>
     </row>
     <row r="397" s="2" customFormat="1" spans="1:5">
-      <c r="A397" s="5">
+      <c r="A397" s="4">
         <v>43581</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -8521,7 +8524,7 @@
       </c>
     </row>
     <row r="398" s="2" customFormat="1" spans="1:5">
-      <c r="A398" s="5">
+      <c r="A398" s="4">
         <v>43581</v>
       </c>
       <c r="B398" s="2" t="s">
@@ -8538,7 +8541,7 @@
       </c>
     </row>
     <row r="399" s="2" customFormat="1" spans="1:5">
-      <c r="A399" s="5">
+      <c r="A399" s="4">
         <v>43581</v>
       </c>
       <c r="B399" s="2" t="s">
@@ -8555,7 +8558,7 @@
       </c>
     </row>
     <row r="400" s="2" customFormat="1" spans="1:5">
-      <c r="A400" s="5">
+      <c r="A400" s="4">
         <v>43581</v>
       </c>
       <c r="B400" s="2" t="s">
@@ -8572,7 +8575,7 @@
       </c>
     </row>
     <row r="401" s="2" customFormat="1" spans="1:5">
-      <c r="A401" s="5">
+      <c r="A401" s="4">
         <v>43581</v>
       </c>
       <c r="B401" s="2" t="s">
@@ -8589,7 +8592,7 @@
       </c>
     </row>
     <row r="402" s="2" customFormat="1" spans="1:5">
-      <c r="A402" s="5">
+      <c r="A402" s="4">
         <v>43581</v>
       </c>
       <c r="B402" s="2" t="s">
@@ -8606,7 +8609,7 @@
       </c>
     </row>
     <row r="403" s="2" customFormat="1" spans="1:5">
-      <c r="A403" s="5">
+      <c r="A403" s="4">
         <v>43581</v>
       </c>
       <c r="B403" s="2" t="s">
@@ -8623,7 +8626,7 @@
       </c>
     </row>
     <row r="404" s="2" customFormat="1" spans="1:5">
-      <c r="A404" s="5">
+      <c r="A404" s="4">
         <v>43581</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -8640,7 +8643,7 @@
       </c>
     </row>
     <row r="405" s="2" customFormat="1" spans="1:5">
-      <c r="A405" s="5">
+      <c r="A405" s="4">
         <v>43581</v>
       </c>
       <c r="B405" s="2" t="s">
@@ -8657,7 +8660,7 @@
       </c>
     </row>
     <row r="406" s="3" customFormat="1" spans="1:5">
-      <c r="A406" s="11">
+      <c r="A406" s="10">
         <v>43582</v>
       </c>
       <c r="B406" s="3" t="s">
@@ -8674,7 +8677,7 @@
       </c>
     </row>
     <row r="407" s="2" customFormat="1" spans="1:5">
-      <c r="A407" s="5">
+      <c r="A407" s="4">
         <v>43582</v>
       </c>
       <c r="B407" s="2" t="s">
@@ -8691,7 +8694,7 @@
       </c>
     </row>
     <row r="408" s="2" customFormat="1" spans="1:5">
-      <c r="A408" s="5">
+      <c r="A408" s="4">
         <v>43582</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -8708,7 +8711,7 @@
       </c>
     </row>
     <row r="409" s="2" customFormat="1" spans="1:5">
-      <c r="A409" s="5">
+      <c r="A409" s="4">
         <v>43582</v>
       </c>
       <c r="B409" s="2" t="s">
@@ -8725,7 +8728,7 @@
       </c>
     </row>
     <row r="410" s="2" customFormat="1" spans="1:5">
-      <c r="A410" s="5">
+      <c r="A410" s="4">
         <v>43582</v>
       </c>
       <c r="B410" s="2" t="s">
@@ -8742,7 +8745,7 @@
       </c>
     </row>
     <row r="411" s="2" customFormat="1" spans="1:5">
-      <c r="A411" s="5">
+      <c r="A411" s="4">
         <v>43582</v>
       </c>
       <c r="B411" s="2" t="s">
@@ -8759,7 +8762,7 @@
       </c>
     </row>
     <row r="412" s="2" customFormat="1" spans="1:5">
-      <c r="A412" s="5">
+      <c r="A412" s="4">
         <v>43582</v>
       </c>
       <c r="B412" s="2" t="s">
@@ -8776,7 +8779,7 @@
       </c>
     </row>
     <row r="413" s="2" customFormat="1" spans="1:5">
-      <c r="A413" s="5">
+      <c r="A413" s="4">
         <v>43582</v>
       </c>
       <c r="B413" s="2" t="s">
@@ -8793,7 +8796,7 @@
       </c>
     </row>
     <row r="414" s="2" customFormat="1" spans="1:5">
-      <c r="A414" s="5">
+      <c r="A414" s="4">
         <v>43582</v>
       </c>
       <c r="B414" s="2" t="s">
@@ -8810,7 +8813,7 @@
       </c>
     </row>
     <row r="415" s="2" customFormat="1" spans="1:5">
-      <c r="A415" s="5">
+      <c r="A415" s="4">
         <v>43582</v>
       </c>
       <c r="B415" s="2" t="s">
@@ -8827,7 +8830,7 @@
       </c>
     </row>
     <row r="416" s="2" customFormat="1" spans="1:5">
-      <c r="A416" s="5">
+      <c r="A416" s="4">
         <v>43582</v>
       </c>
       <c r="B416" s="2" t="s">
@@ -8844,7 +8847,7 @@
       </c>
     </row>
     <row r="417" s="2" customFormat="1" spans="1:5">
-      <c r="A417" s="5">
+      <c r="A417" s="4">
         <v>43582</v>
       </c>
       <c r="B417" s="2" t="s">
@@ -8861,7 +8864,7 @@
       </c>
     </row>
     <row r="418" s="2" customFormat="1" spans="1:5">
-      <c r="A418" s="5">
+      <c r="A418" s="4">
         <v>43582</v>
       </c>
       <c r="B418" s="2" t="s">
@@ -8878,7 +8881,7 @@
       </c>
     </row>
     <row r="419" s="2" customFormat="1" spans="1:5">
-      <c r="A419" s="5">
+      <c r="A419" s="4">
         <v>43582</v>
       </c>
       <c r="B419" s="2" t="s">
@@ -8895,7 +8898,7 @@
       </c>
     </row>
     <row r="420" s="2" customFormat="1" spans="1:5">
-      <c r="A420" s="5">
+      <c r="A420" s="4">
         <v>43582</v>
       </c>
       <c r="B420" s="2" t="s">
@@ -8912,7 +8915,7 @@
       </c>
     </row>
     <row r="421" s="2" customFormat="1" spans="1:5">
-      <c r="A421" s="5">
+      <c r="A421" s="4">
         <v>43582</v>
       </c>
       <c r="B421" s="2" t="s">
@@ -8929,7 +8932,7 @@
       </c>
     </row>
     <row r="422" s="2" customFormat="1" spans="1:5">
-      <c r="A422" s="5">
+      <c r="A422" s="4">
         <v>43582</v>
       </c>
       <c r="B422" s="2" t="s">
@@ -8946,7 +8949,7 @@
       </c>
     </row>
     <row r="423" s="2" customFormat="1" spans="1:5">
-      <c r="A423" s="5">
+      <c r="A423" s="4">
         <v>43582</v>
       </c>
       <c r="B423" s="2" t="s">
@@ -8963,7 +8966,7 @@
       </c>
     </row>
     <row r="424" s="2" customFormat="1" spans="1:5">
-      <c r="A424" s="5">
+      <c r="A424" s="4">
         <v>43582</v>
       </c>
       <c r="B424" s="2" t="s">
@@ -8980,7 +8983,7 @@
       </c>
     </row>
     <row r="425" s="2" customFormat="1" spans="1:5">
-      <c r="A425" s="5">
+      <c r="A425" s="4">
         <v>43583</v>
       </c>
       <c r="B425" s="2" t="s">
@@ -8997,7 +9000,7 @@
       </c>
     </row>
     <row r="426" s="2" customFormat="1" spans="1:5">
-      <c r="A426" s="5">
+      <c r="A426" s="4">
         <v>43583</v>
       </c>
       <c r="B426" s="2" t="s">
@@ -9014,7 +9017,7 @@
       </c>
     </row>
     <row r="427" s="2" customFormat="1" spans="1:5">
-      <c r="A427" s="5">
+      <c r="A427" s="4">
         <v>43583</v>
       </c>
       <c r="B427" s="2" t="s">
@@ -9031,7 +9034,7 @@
       </c>
     </row>
     <row r="428" s="2" customFormat="1" spans="1:5">
-      <c r="A428" s="5">
+      <c r="A428" s="4">
         <v>43583</v>
       </c>
       <c r="B428" s="2" t="s">
@@ -9048,7 +9051,7 @@
       </c>
     </row>
     <row r="429" s="2" customFormat="1" spans="1:5">
-      <c r="A429" s="5">
+      <c r="A429" s="4">
         <v>43583</v>
       </c>
       <c r="B429" s="2" t="s">
@@ -9065,7 +9068,7 @@
       </c>
     </row>
     <row r="430" s="2" customFormat="1" spans="1:5">
-      <c r="A430" s="5">
+      <c r="A430" s="4">
         <v>43583</v>
       </c>
       <c r="B430" s="2" t="s">
@@ -9082,7 +9085,7 @@
       </c>
     </row>
     <row r="431" s="2" customFormat="1" spans="1:5">
-      <c r="A431" s="5">
+      <c r="A431" s="4">
         <v>43583</v>
       </c>
       <c r="B431" s="2" t="s">
@@ -9099,7 +9102,7 @@
       </c>
     </row>
     <row r="432" s="2" customFormat="1" spans="1:5">
-      <c r="A432" s="5">
+      <c r="A432" s="4">
         <v>43583</v>
       </c>
       <c r="B432" s="2" t="s">
@@ -9116,7 +9119,7 @@
       </c>
     </row>
     <row r="433" s="2" customFormat="1" spans="1:5">
-      <c r="A433" s="5">
+      <c r="A433" s="4">
         <v>43583</v>
       </c>
       <c r="B433" s="2" t="s">
@@ -9133,7 +9136,7 @@
       </c>
     </row>
     <row r="434" s="2" customFormat="1" spans="1:5">
-      <c r="A434" s="5">
+      <c r="A434" s="4">
         <v>43583</v>
       </c>
       <c r="B434" s="2" t="s">
@@ -9150,7 +9153,7 @@
       </c>
     </row>
     <row r="435" s="2" customFormat="1" spans="1:5">
-      <c r="A435" s="5">
+      <c r="A435" s="4">
         <v>43583</v>
       </c>
       <c r="B435" s="2" t="s">
@@ -9167,7 +9170,7 @@
       </c>
     </row>
     <row r="436" s="2" customFormat="1" spans="1:5">
-      <c r="A436" s="5">
+      <c r="A436" s="4">
         <v>43583</v>
       </c>
       <c r="B436" s="2" t="s">
@@ -9184,7 +9187,7 @@
       </c>
     </row>
     <row r="437" s="2" customFormat="1" spans="1:5">
-      <c r="A437" s="5">
+      <c r="A437" s="4">
         <v>43583</v>
       </c>
       <c r="B437" s="2" t="s">
@@ -9200,178 +9203,368 @@
         <v>7936</v>
       </c>
     </row>
-    <row r="438" s="4" customFormat="1" spans="1:5">
-      <c r="A438" s="5">
+    <row r="438" s="2" customFormat="1" spans="1:5">
+      <c r="A438" s="4">
         <v>43584</v>
       </c>
-      <c r="B438" s="4" t="s">
+      <c r="B438" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C438" s="4" t="s">
+      <c r="C438" s="2" t="s">
         <v>224</v>
       </c>
       <c r="D438" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E438" s="4">
+      <c r="E438" s="2">
         <v>273</v>
       </c>
     </row>
-    <row r="439" s="4" customFormat="1" spans="1:5">
-      <c r="A439" s="5">
+    <row r="439" s="2" customFormat="1" spans="1:5">
+      <c r="A439" s="4">
         <v>43584</v>
       </c>
-      <c r="B439" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C439" s="4" t="s">
+      <c r="B439" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E439" s="4">
+      <c r="E439" s="2">
         <v>1209</v>
       </c>
     </row>
-    <row r="440" s="4" customFormat="1" spans="1:5">
-      <c r="A440" s="5">
+    <row r="440" s="2" customFormat="1" spans="1:5">
+      <c r="A440" s="4">
         <v>43584</v>
       </c>
-      <c r="B440" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C440" s="4" t="s">
+      <c r="B440" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D440" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E440" s="4">
+      <c r="E440" s="2">
         <v>2746</v>
       </c>
     </row>
-    <row r="441" s="4" customFormat="1" spans="1:5">
-      <c r="A441" s="5">
+    <row r="441" s="2" customFormat="1" spans="1:5">
+      <c r="A441" s="4">
         <v>43584</v>
       </c>
-      <c r="B441" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C441" s="4" t="s">
+      <c r="B441" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C441" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E441" s="4">
+      <c r="E441" s="2">
         <v>345</v>
       </c>
     </row>
-    <row r="442" s="4" customFormat="1" spans="1:5">
-      <c r="A442" s="5">
+    <row r="442" s="2" customFormat="1" spans="1:5">
+      <c r="A442" s="4">
         <v>43584</v>
       </c>
-      <c r="B442" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C442" s="4" t="s">
+      <c r="B442" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D442" s="4" t="s">
+      <c r="D442" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E442" s="4">
+      <c r="E442" s="2">
         <v>1840</v>
       </c>
     </row>
-    <row r="443" s="4" customFormat="1" spans="1:5">
-      <c r="A443" s="5">
+    <row r="443" s="2" customFormat="1" spans="1:5">
+      <c r="A443" s="4">
         <v>43584</v>
       </c>
-      <c r="B443" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C443" s="4" t="s">
+      <c r="B443" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C443" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D443" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E443" s="4">
+      <c r="E443" s="2">
         <v>1286</v>
       </c>
     </row>
-    <row r="444" s="4" customFormat="1" spans="1:5">
-      <c r="A444" s="5">
+    <row r="444" s="2" customFormat="1" spans="1:5">
+      <c r="A444" s="4">
         <v>43584</v>
       </c>
-      <c r="B444" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C444" s="4" t="s">
+      <c r="B444" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C444" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D444" s="4" t="s">
+      <c r="D444" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E444" s="4">
+      <c r="E444" s="2">
         <v>5840</v>
       </c>
     </row>
-    <row r="445" s="4" customFormat="1" spans="1:5">
-      <c r="A445" s="5">
+    <row r="445" s="2" customFormat="1" spans="1:5">
+      <c r="A445" s="4">
         <v>43584</v>
       </c>
-      <c r="B445" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C445" s="4" t="s">
+      <c r="B445" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E445" s="4">
+      <c r="E445" s="2">
         <v>319</v>
       </c>
     </row>
-    <row r="446" s="4" customFormat="1" spans="1:5">
-      <c r="A446" s="5">
+    <row r="446" s="2" customFormat="1" spans="1:5">
+      <c r="A446" s="4">
         <v>43584</v>
       </c>
-      <c r="B446" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C446" s="4" t="s">
+      <c r="B446" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D446" s="4" t="s">
+      <c r="D446" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E446" s="4">
+      <c r="E446" s="2">
         <v>4618</v>
       </c>
     </row>
-    <row r="447" s="4" customFormat="1" spans="1:5">
-      <c r="A447" s="5">
+    <row r="447" s="2" customFormat="1" spans="1:5">
+      <c r="A447" s="4">
         <v>43584</v>
       </c>
-      <c r="B447" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C447" s="4" t="s">
+      <c r="B447" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D447" s="4" t="s">
+      <c r="D447" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E447" s="4">
-        <v>220292</v>
-      </c>
+      <c r="E447" s="2">
+        <v>22029</v>
+      </c>
+    </row>
+    <row r="448" s="2" customFormat="1" spans="1:5">
+      <c r="A448" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E448" s="2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="449" s="2" customFormat="1" spans="1:5">
+      <c r="A449" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E449" s="2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="450" s="2" customFormat="1" spans="1:5">
+      <c r="A450" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E450" s="2">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="451" s="2" customFormat="1" spans="1:5">
+      <c r="A451" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E451" s="2">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="452" s="2" customFormat="1" spans="1:5">
+      <c r="A452" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E452" s="2">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="453" s="2" customFormat="1" spans="1:5">
+      <c r="A453" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E453" s="2">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="454" s="2" customFormat="1" spans="1:5">
+      <c r="A454" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E454" s="2">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="455" s="2" customFormat="1" spans="1:5">
+      <c r="A455" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E455" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="456" s="2" customFormat="1" spans="1:5">
+      <c r="A456" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E456" s="2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="457" s="2" customFormat="1" spans="1:5">
+      <c r="A457" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E457" s="2">
+        <v>16483</v>
+      </c>
+    </row>
+    <row r="458" s="2" customFormat="1" spans="1:5">
+      <c r="A458" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E458" s="2">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B437">
+  <autoFilter ref="B1:B458">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="245">
   <si>
     <t>湖南</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>装修-20190415-李总(天津)-2天</t>
+  </si>
+  <si>
+    <t>广州（邱总）</t>
   </si>
   <si>
     <t>dt1416</t>
@@ -758,8 +761,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -772,8 +775,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,23 +807,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,16 +843,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,31 +859,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,22 +870,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -910,9 +889,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -931,7 +934,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +982,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,13 +1018,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,19 +1060,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,97 +1090,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,13 +1102,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,9 +1139,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,26 +1174,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,7 +1212,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,10 +1242,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,16 +1254,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1269,115 +1272,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1763,13 +1766,14 @@
   <sheetPr/>
   <dimension ref="A1:E459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="H449" sqref="H449"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
     <col min="4" max="4" width="97.5" customWidth="1"/>
   </cols>
@@ -5137,7 +5141,7 @@
         <v>127</v>
       </c>
       <c r="E198" s="2">
-        <v>92780</v>
+        <v>97280</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="1" spans="1:5">
@@ -5978,13 +5982,13 @@
         <v>43574</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E248" s="2">
         <v>95</v>
@@ -5995,13 +5999,13 @@
         <v>43574</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E249" s="2">
         <v>63</v>
@@ -6015,10 +6019,10 @@
         <v>7</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E250" s="2">
         <v>1400</v>
@@ -6202,10 +6206,10 @@
         <v>0</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E261" s="2">
         <v>2899</v>
@@ -6219,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E262" s="2">
         <v>5728</v>
@@ -6236,10 +6240,10 @@
         <v>0</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E263" s="2">
         <v>543</v>
@@ -6253,10 +6257,10 @@
         <v>0</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E264" s="2">
         <v>97681</v>
@@ -6304,10 +6308,10 @@
         <v>7</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E267" s="2">
         <v>2672</v>
@@ -6318,13 +6322,13 @@
         <v>43575</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E268" s="2">
         <v>133</v>
@@ -6338,10 +6342,10 @@
         <v>7</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E269" s="2">
         <v>28771</v>
@@ -6491,10 +6495,10 @@
         <v>0</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E278" s="2">
         <v>545</v>
@@ -6508,10 +6512,10 @@
         <v>0</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E279" s="2">
         <v>40620</v>
@@ -6525,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E280" s="2">
         <v>43351</v>
@@ -6542,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E281" s="2">
         <v>49</v>
@@ -6559,10 +6563,10 @@
         <v>0</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E282" s="2">
         <v>2850</v>
@@ -6576,10 +6580,10 @@
         <v>0</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E283" s="2">
         <v>1133</v>
@@ -6644,10 +6648,10 @@
         <v>7</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E287" s="2">
         <v>27396</v>
@@ -6831,10 +6835,10 @@
         <v>0</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E298" s="2">
         <v>885</v>
@@ -6848,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E299" s="2">
         <v>46994</v>
@@ -6882,10 +6886,10 @@
         <v>7</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E301" s="2">
         <v>21607</v>
@@ -7069,10 +7073,10 @@
         <v>0</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E312" s="2">
         <v>23334</v>
@@ -7103,10 +7107,10 @@
         <v>7</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E314" s="2">
         <v>99636</v>
@@ -7290,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E325" s="2">
         <v>29371</v>
@@ -7307,10 +7311,10 @@
         <v>0</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E326" s="2">
         <v>2349</v>
@@ -7324,10 +7328,10 @@
         <v>0</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E327" s="2">
         <v>688</v>
@@ -7341,10 +7345,10 @@
         <v>0</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E328" s="2">
         <v>1501</v>
@@ -7375,10 +7379,10 @@
         <v>7</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E330" s="2">
         <v>6632</v>
@@ -7392,10 +7396,10 @@
         <v>7</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E331" s="2">
         <v>9</v>
@@ -7613,10 +7617,10 @@
         <v>0</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E344" s="2">
         <v>140</v>
@@ -7630,10 +7634,10 @@
         <v>0</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E345" s="2">
         <v>31279</v>
@@ -7647,10 +7651,10 @@
         <v>0</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E346" s="2">
         <v>3287</v>
@@ -7664,10 +7668,10 @@
         <v>0</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E347" s="2">
         <v>340</v>
@@ -7681,10 +7685,10 @@
         <v>0</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E348" s="2">
         <v>2267</v>
@@ -7698,10 +7702,10 @@
         <v>0</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E349" s="2">
         <v>3525</v>
@@ -7715,10 +7719,10 @@
         <v>0</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E350" s="2">
         <v>539</v>
@@ -7732,10 +7736,10 @@
         <v>0</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E351" s="2">
         <v>7241</v>
@@ -7749,10 +7753,10 @@
         <v>0</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E352" s="2">
         <v>256</v>
@@ -7766,10 +7770,10 @@
         <v>7</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E353" s="2">
         <v>1343</v>
@@ -7783,10 +7787,10 @@
         <v>7</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E354" s="2">
         <v>29598</v>
@@ -7800,10 +7804,10 @@
         <v>7</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E355" s="2">
         <v>99232</v>
@@ -7817,10 +7821,10 @@
         <v>7</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E356" s="2">
         <v>99276</v>
@@ -7834,10 +7838,10 @@
         <v>7</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E357" s="2">
         <v>98785</v>
@@ -7851,10 +7855,10 @@
         <v>7</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E358" s="2">
         <v>98730</v>
@@ -7868,10 +7872,10 @@
         <v>7</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E359" s="2">
         <v>26805</v>
@@ -7885,10 +7889,10 @@
         <v>7</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E360" s="2">
         <v>100000</v>
@@ -8089,10 +8093,10 @@
         <v>0</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E372" s="2">
         <v>36468</v>
@@ -8106,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E373" s="2">
         <v>343</v>
@@ -8123,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E374" s="2">
         <v>2297</v>
@@ -8140,10 +8144,10 @@
         <v>0</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E375" s="2">
         <v>1389</v>
@@ -8157,10 +8161,10 @@
         <v>0</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E376" s="2">
         <v>1573</v>
@@ -8174,10 +8178,10 @@
         <v>0</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E377" s="2">
         <v>3670</v>
@@ -8191,10 +8195,10 @@
         <v>0</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E378" s="2">
         <v>6640</v>
@@ -8208,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E379" s="2">
         <v>323</v>
@@ -8225,10 +8229,10 @@
         <v>0</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E380" s="2">
         <v>8771</v>
@@ -8242,10 +8246,10 @@
         <v>7</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E381" s="2">
         <v>10</v>
@@ -8256,13 +8260,13 @@
         <v>43581</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E382" s="2">
         <v>12743</v>
@@ -8276,10 +8280,10 @@
         <v>7</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E383" s="2">
         <v>1445</v>
@@ -8293,10 +8297,10 @@
         <v>7</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E384" s="2">
         <v>99606</v>
@@ -8463,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E394" s="2">
         <v>42027</v>
@@ -8480,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E395" s="2">
         <v>375</v>
@@ -8497,10 +8501,10 @@
         <v>0</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E396" s="2">
         <v>2242</v>
@@ -8514,10 +8518,10 @@
         <v>0</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E397" s="2">
         <v>1424</v>
@@ -8531,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E398" s="2">
         <v>1580</v>
@@ -8548,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E399" s="2">
         <v>6509</v>
@@ -8565,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E400" s="2">
         <v>386</v>
@@ -8582,10 +8586,10 @@
         <v>0</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E401" s="2">
         <v>6986</v>
@@ -8599,10 +8603,10 @@
         <v>0</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E402" s="2">
         <v>5305</v>
@@ -8616,10 +8620,10 @@
         <v>0</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E403" s="2">
         <v>994</v>
@@ -8633,10 +8637,10 @@
         <v>0</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E404" s="2">
         <v>99305</v>
@@ -8650,10 +8654,10 @@
         <v>0</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E405" s="2">
         <v>576</v>
@@ -8684,10 +8688,10 @@
         <v>7</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E407" s="2">
         <v>1073</v>
@@ -8803,10 +8807,10 @@
         <v>0</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E414" s="2">
         <v>119</v>
@@ -8820,10 +8824,10 @@
         <v>0</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E415" s="2">
         <v>41871</v>
@@ -8837,10 +8841,10 @@
         <v>0</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E416" s="2">
         <v>3191</v>
@@ -8854,10 +8858,10 @@
         <v>0</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E417" s="2">
         <v>346</v>
@@ -8871,10 +8875,10 @@
         <v>0</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E418" s="2">
         <v>1924</v>
@@ -8888,10 +8892,10 @@
         <v>0</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E419" s="2">
         <v>1251</v>
@@ -8905,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E420" s="2">
         <v>508</v>
@@ -8922,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E421" s="2">
         <v>318</v>
@@ -8939,10 +8943,10 @@
         <v>0</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E422" s="2">
         <v>5198</v>
@@ -8956,10 +8960,10 @@
         <v>0</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E423" s="2">
         <v>8744</v>
@@ -8973,10 +8977,10 @@
         <v>0</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E424" s="2">
         <v>1298</v>
@@ -8990,10 +8994,10 @@
         <v>7</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E425" s="2">
         <v>368</v>
@@ -9109,10 +9113,10 @@
         <v>0</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E432" s="2">
         <v>39082</v>
@@ -9126,10 +9130,10 @@
         <v>0</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E433" s="2">
         <v>2667</v>
@@ -9143,10 +9147,10 @@
         <v>0</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E434" s="2">
         <v>375</v>
@@ -9160,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E435" s="2">
         <v>1382</v>
@@ -9177,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E436" s="2">
         <v>324</v>
@@ -9194,10 +9198,10 @@
         <v>0</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E437" s="2">
         <v>7936</v>
@@ -9211,10 +9215,10 @@
         <v>7</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E438" s="2">
         <v>273</v>
@@ -9245,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E440" s="2">
         <v>2746</v>
@@ -9262,10 +9266,10 @@
         <v>0</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E441" s="2">
         <v>345</v>
@@ -9279,10 +9283,10 @@
         <v>0</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E442" s="2">
         <v>1840</v>
@@ -9296,10 +9300,10 @@
         <v>0</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E443" s="2">
         <v>1286</v>
@@ -9313,10 +9317,10 @@
         <v>0</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E444" s="2">
         <v>5840</v>
@@ -9330,10 +9334,10 @@
         <v>0</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E445" s="2">
         <v>319</v>
@@ -9347,10 +9351,10 @@
         <v>0</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E446" s="2">
         <v>4618</v>
@@ -9364,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E447" s="2">
         <v>22029</v>
@@ -9381,10 +9385,10 @@
         <v>7</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E448" s="2">
         <v>872</v>
@@ -9415,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E450" s="2">
         <v>2677</v>
@@ -9432,10 +9436,10 @@
         <v>0</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E451" s="2">
         <v>1739</v>
@@ -9449,10 +9453,10 @@
         <v>0</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E452" s="2">
         <v>1235</v>
@@ -9466,10 +9470,10 @@
         <v>0</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E453" s="2">
         <v>4067</v>
@@ -9483,10 +9487,10 @@
         <v>0</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E454" s="2">
         <v>3293</v>
@@ -9500,10 +9504,10 @@
         <v>0</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E455" s="2">
         <v>71</v>
@@ -9517,10 +9521,10 @@
         <v>0</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E456" s="2">
         <v>682</v>
@@ -9534,10 +9538,10 @@
         <v>0</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E457" s="2">
         <v>16483</v>
@@ -9551,10 +9555,10 @@
         <v>0</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E458" s="2">
         <v>3272</v>
@@ -9564,9 +9568,6 @@
       <c r="A459" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B458">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/数据汇总/数据汇总-201904.xlsx
+++ b/数据汇总/数据汇总-201904.xlsx
@@ -761,8 +761,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -777,75 +777,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,9 +805,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,10 +865,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,18 +890,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -934,7 +934,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,19 +964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,49 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,13 +1006,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,13 +1042,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,19 +1096,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,19 +1108,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,13 +1137,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,32 +1176,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,26 +1214,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,10 +1242,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1254,19 +1254,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1275,112 +1275,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1766,8 +1766,8 @@
   <sheetPr/>
   <dimension ref="A1:E459"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="H390" sqref="H390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
